--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,21 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\cheat_sheets\1_lessons\code_institute\UDP5WA4CF-UN03_back_end_development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3B052776-B313-4C85-AF62-97EEF7713753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B56548A-F4FB-4F9C-B576-7A5C29288BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C62C3A13-8B1D-4627-A4E5-0D3E0B3409FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C62C3A13-8B1D-4627-A4E5-0D3E0B3409FC}"/>
   </bookViews>
   <sheets>
     <sheet name="original_copy-paste_sample" sheetId="1" r:id="rId1"/>
     <sheet name="reformat" sheetId="2" r:id="rId2"/>
     <sheet name="pivot_type" sheetId="3" r:id="rId3"/>
     <sheet name="pivot_time" sheetId="5" r:id="rId4"/>
-    <sheet name="chart" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="24" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1118,7 +1130,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1135,10 +1147,6 @@
     <xf numFmtId="0" fontId="21" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1184,15 +1192,6 @@
     <xf numFmtId="10" fontId="21" fillId="38" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1208,16 +1207,6 @@
     <xf numFmtId="0" fontId="21" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1227,9 +1216,6 @@
     <xf numFmtId="0" fontId="24" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1260,15 +1246,6 @@
     <xf numFmtId="10" fontId="26" fillId="38" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="42" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1280,8 +1257,6 @@
     <xf numFmtId="0" fontId="21" fillId="38" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1320,25 +1295,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1362,11 +1318,6 @@
     <xf numFmtId="0" fontId="23" fillId="36" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="39" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="39" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="38" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1382,20 +1333,12 @@
     <xf numFmtId="0" fontId="23" fillId="38" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1407,20 +1350,82 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1477,1757 +1482,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>reformat!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>correct_choice_percentage</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>reformat!$D$2:$D$67</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="66"/>
-                <c:pt idx="0">
-                  <c:v>45778</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45778</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45778</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45778</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45778</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45839</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45839</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45839</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45839</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45839</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45901</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45901</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45901</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45901</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45901</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45839</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45839</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45839</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45839</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45839</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>45658</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>45658</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>45658</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>45658</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>45658</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>45717</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>45717</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>45717</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>45717</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>45717</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>45658</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>45658</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>45717</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>45717</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45717</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45717</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>45839</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>45839</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>45901</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>45901</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>45901</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>45901</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>45931</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>reformat!$I$2:$I$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>85.714285714285708</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>71.428571428571431</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>42.857142857142854</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>71.428571428571431</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>85.714285714285708</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>28.571428571428569</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>71.428571428571431</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5D8A-4080-8855-E991CBCCD75A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>reformat!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>incorrect_choice_percentage</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>reformat!$D$2:$D$67</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="66"/>
-                <c:pt idx="0">
-                  <c:v>45778</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45778</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45778</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45778</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45778</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45839</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45839</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45839</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45839</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45839</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45901</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45901</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45901</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45901</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45901</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45839</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45839</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45839</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45839</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45839</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>45658</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>45658</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>45658</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>45658</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>45658</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>45717</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>45717</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>45717</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>45717</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>45717</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>45658</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>45658</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>45717</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>45717</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45717</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45717</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>45839</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>45839</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>45901</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>45901</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>45901</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>45901</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>45931</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>reformat!$J$2:$J$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14.285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14.285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>57.142857142857139</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>14.285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>14.285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>28.571428571428569</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>42.857142857142854</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>28.571428571428569</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5D8A-4080-8855-E991CBCCD75A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="1135008031"/>
-        <c:axId val="1135001791"/>
-      </c:barChart>
-      <c:dateAx>
-        <c:axId val="1135008031"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1135001791"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="1135001791"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Percentage (%)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1135008031"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D2B8B0F9-E8C1-4928-BC39-B28BEA9E921F}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9305192" cy="6081346"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118393EF-7AE3-703A-3A60-7D5BA89FFAE3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4498,7 +2752,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9675C158-359F-419C-84CC-FE2B090BEF04}" name="PivotTable1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9675C158-359F-419C-84CC-FE2B090BEF04}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
@@ -4971,12 +3225,12 @@
     <dataField name="Average of incorrect_choice_percentage" fld="9" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="2">
-    <conditionalFormat priority="2">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
             <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
+              <x v="1"/>
             </reference>
             <reference field="0" count="6">
               <x v="0"/>
@@ -4990,12 +3244,12 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="2">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
             <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
+              <x v="0"/>
             </reference>
             <reference field="0" count="6">
               <x v="0"/>
@@ -5023,7 +3277,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D5B4C42F-2A83-476B-99AF-AE21E81C8D90}" name="PivotTable1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D5B4C42F-2A83-476B-99AF-AE21E81C8D90}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0">
@@ -5498,6 +3752,70 @@
     <dataField name="Average of incorrect_choice_percentage" fld="9" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="2">
+    <conditionalFormat priority="1">
+      <pivotAreas count="6">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="11" count="1">
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="11" count="1">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="11" count="1">
+              <x v="5"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="11" count="1">
+              <x v="7"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="11" count="1">
+              <x v="9"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="11" count="1">
+              <x v="10"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
     <conditionalFormat priority="2">
       <pivotAreas count="6">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
@@ -5554,70 +3872,6 @@
           <references count="2">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
-            </reference>
-            <reference field="11" count="1">
-              <x v="10"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="1">
-      <pivotAreas count="6">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="11" count="1">
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="11" count="1">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="11" count="1">
-              <x v="5"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="11" count="1">
-              <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="11" count="1">
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
             </reference>
             <reference field="11" count="1">
               <x v="10"/>
@@ -5973,10 +4227,10 @@
         <v>45658</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="15"/>
+      <c r="E1" s="176"/>
       <c r="F1" s="6">
         <v>45717</v>
       </c>
@@ -5997,10 +4251,10 @@
         <v>45809</v>
       </c>
       <c r="O1" s="7"/>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="17"/>
+      <c r="Q1" s="178"/>
       <c r="R1" s="3">
         <v>45839</v>
       </c>
@@ -6052,2213 +4306,2257 @@
       </c>
     </row>
     <row r="2" spans="1:40" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="23">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="19">
         <v>1</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="27">
+      <c r="M2" s="20"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="161"/>
+      <c r="R2" s="23">
         <v>0.86</v>
       </c>
-      <c r="S2" s="28"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="31">
+      <c r="S2" s="24"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27">
         <v>0.71</v>
       </c>
-      <c r="W2" s="32"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="36">
+      <c r="W2" s="28"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="179"/>
+      <c r="AK2" s="179"/>
+      <c r="AL2" s="32">
         <v>0.8</v>
       </c>
-      <c r="AM2" s="37">
+      <c r="AM2" s="33">
         <v>0.86</v>
       </c>
-      <c r="AN2" s="38">
+      <c r="AN2" s="34">
         <v>0.85670000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="16.5" thickTop="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="48"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="39"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="53"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="182"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="44"/>
       <c r="W3" s="7"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="64"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="184"/>
+      <c r="AK3" s="184"/>
       <c r="AL3" s="12"/>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="56"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
     </row>
     <row r="4" spans="1:40" ht="15.75">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="48"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="39"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="53"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="172"/>
+      <c r="Q4" s="173"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="44"/>
       <c r="W4" s="7"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="63"/>
-      <c r="AK4" s="63"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="174"/>
+      <c r="AK4" s="174"/>
       <c r="AL4" s="12"/>
-      <c r="AM4" s="56"/>
-      <c r="AN4" s="56"/>
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="47"/>
     </row>
     <row r="5" spans="1:40" ht="15.75">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="48"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="39"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="50">
+      <c r="N5" s="36"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="172"/>
+      <c r="Q5" s="173"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="41">
         <v>1</v>
       </c>
-      <c r="T5" s="51"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="67">
+      <c r="T5" s="42"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="48">
         <v>1</v>
       </c>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="46"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="46"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="46"/>
-      <c r="AJ5" s="63"/>
-      <c r="AK5" s="63"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="174"/>
+      <c r="AK5" s="174"/>
       <c r="AL5" s="12"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="47"/>
     </row>
     <row r="6" spans="1:40" ht="15.75">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="48"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="39"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="67">
+      <c r="N6" s="36"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="140"/>
+      <c r="Q6" s="141"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="48">
         <v>1</v>
       </c>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="73"/>
-      <c r="Z6" s="74"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" s="75"/>
-      <c r="AC6" s="68"/>
-      <c r="AD6" s="75"/>
-      <c r="AE6" s="68"/>
-      <c r="AF6" s="74"/>
-      <c r="AG6" s="68"/>
-      <c r="AH6" s="75"/>
-      <c r="AI6" s="68"/>
-      <c r="AJ6" s="78"/>
-      <c r="AK6" s="78"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="55"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="55"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="56"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="171"/>
+      <c r="AK6" s="171"/>
       <c r="AL6" s="12"/>
-      <c r="AM6" s="56"/>
-      <c r="AN6" s="56"/>
+      <c r="AM6" s="47"/>
+      <c r="AN6" s="47"/>
     </row>
     <row r="7" spans="1:40" ht="16.5" thickBot="1">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="81">
+      <c r="B7" s="55"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="59">
         <v>1</v>
       </c>
       <c r="M7" s="4"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="49">
+      <c r="N7" s="55"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="140"/>
+      <c r="Q7" s="141"/>
+      <c r="R7" s="40">
         <v>6</v>
       </c>
-      <c r="S7" s="50"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="71">
+      <c r="S7" s="41"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="52">
         <v>5</v>
       </c>
       <c r="W7" s="7"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="74"/>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="46"/>
-      <c r="AD7" s="75"/>
-      <c r="AE7" s="46"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="46"/>
-      <c r="AH7" s="47"/>
-      <c r="AI7" s="46"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="36"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="37"/>
       <c r="AJ7" s="10"/>
-      <c r="AK7" s="82">
+      <c r="AK7" s="60">
         <v>12</v>
       </c>
-      <c r="AL7" s="82">
+      <c r="AL7" s="60">
         <v>0.8</v>
       </c>
-      <c r="AM7" s="56"/>
-      <c r="AN7" s="56"/>
+      <c r="AM7" s="47"/>
+      <c r="AN7" s="47"/>
     </row>
     <row r="8" spans="1:40" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="83"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="84">
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="155"/>
+      <c r="Q8" s="156"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="62">
         <v>1</v>
       </c>
-      <c r="U8" s="28"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="85"/>
-      <c r="AA8" s="86"/>
-      <c r="AB8" s="87"/>
-      <c r="AC8" s="86"/>
-      <c r="AD8" s="88">
+      <c r="U8" s="24"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="65"/>
+      <c r="AC8" s="64"/>
+      <c r="AD8" s="66">
         <v>3</v>
       </c>
-      <c r="AE8" s="24"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="20"/>
-      <c r="AH8" s="21"/>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" s="93"/>
-      <c r="AK8" s="93"/>
-      <c r="AL8" s="36">
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="17"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="157"/>
+      <c r="AK8" s="157"/>
+      <c r="AL8" s="32">
         <v>0.47</v>
       </c>
-      <c r="AM8" s="89">
+      <c r="AM8" s="67">
         <v>2</v>
       </c>
-      <c r="AN8" s="90">
+      <c r="AN8" s="68">
         <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="16.5" thickTop="1">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="102"/>
-      <c r="R9" s="95"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="69"/>
-      <c r="Z9" s="95"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="51"/>
-      <c r="AC9" s="52"/>
-      <c r="AD9" s="96">
+      <c r="B9" s="58"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="145"/>
+      <c r="Q9" s="146"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="71">
         <v>2</v>
       </c>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="80"/>
-      <c r="AG9" s="69"/>
-      <c r="AH9" s="70"/>
-      <c r="AI9" s="69"/>
-      <c r="AJ9" s="97"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="58"/>
+      <c r="AG9" s="50"/>
+      <c r="AH9" s="51"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="72"/>
       <c r="AK9" s="12">
         <v>2</v>
       </c>
       <c r="AL9" s="12">
         <v>0.67</v>
       </c>
-      <c r="AM9" s="98"/>
-      <c r="AN9" s="98"/>
+      <c r="AM9" s="73"/>
+      <c r="AN9" s="73"/>
     </row>
     <row r="10" spans="1:40" ht="15.75">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="96">
+      <c r="B10" s="58"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="140"/>
+      <c r="Q10" s="141"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="71">
         <v>1</v>
       </c>
-      <c r="U10" s="50"/>
-      <c r="V10" s="80"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="70"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="95"/>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="51"/>
-      <c r="AC10" s="52"/>
-      <c r="AD10" s="96">
+      <c r="U10" s="41"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="71">
         <v>1</v>
       </c>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="80"/>
-      <c r="AG10" s="69"/>
-      <c r="AH10" s="70"/>
-      <c r="AI10" s="69"/>
-      <c r="AJ10" s="97"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="58"/>
+      <c r="AG10" s="50"/>
+      <c r="AH10" s="51"/>
+      <c r="AI10" s="50"/>
+      <c r="AJ10" s="72"/>
       <c r="AK10" s="12">
         <v>2</v>
       </c>
       <c r="AL10" s="12">
         <v>0.67</v>
       </c>
-      <c r="AM10" s="98"/>
-      <c r="AN10" s="98"/>
+      <c r="AM10" s="73"/>
+      <c r="AN10" s="73"/>
     </row>
     <row r="11" spans="1:40" ht="15.75">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="80"/>
-      <c r="W11" s="69"/>
-      <c r="X11" s="70"/>
-      <c r="Y11" s="69"/>
-      <c r="Z11" s="95"/>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="51"/>
-      <c r="AC11" s="52"/>
-      <c r="AD11" s="96">
+      <c r="B11" s="58"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="140"/>
+      <c r="Q11" s="141"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="71">
         <v>1</v>
       </c>
-      <c r="AE11" s="50"/>
-      <c r="AF11" s="80"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="70"/>
-      <c r="AI11" s="69"/>
-      <c r="AJ11" s="97"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="58"/>
+      <c r="AG11" s="50"/>
+      <c r="AH11" s="51"/>
+      <c r="AI11" s="50"/>
+      <c r="AJ11" s="72"/>
       <c r="AK11" s="12">
         <v>1</v>
       </c>
       <c r="AL11" s="12">
         <v>0.33</v>
       </c>
-      <c r="AM11" s="98"/>
-      <c r="AN11" s="98"/>
+      <c r="AM11" s="73"/>
+      <c r="AN11" s="73"/>
     </row>
     <row r="12" spans="1:40" ht="15.75">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="96"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="80"/>
-      <c r="W12" s="69"/>
-      <c r="X12" s="70"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="52"/>
-      <c r="AD12" s="96">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="80"/>
-      <c r="AG12" s="69"/>
-      <c r="AH12" s="70"/>
-      <c r="AI12" s="69"/>
-      <c r="AJ12" s="97"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="140"/>
+      <c r="Q12" s="141"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="43"/>
+      <c r="AD12" s="71">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="50"/>
+      <c r="AH12" s="51"/>
+      <c r="AI12" s="50"/>
+      <c r="AJ12" s="72"/>
       <c r="AK12" s="12">
         <v>0</v>
       </c>
       <c r="AL12" s="12">
         <v>0</v>
       </c>
-      <c r="AM12" s="98"/>
-      <c r="AN12" s="98"/>
+      <c r="AM12" s="73"/>
+      <c r="AN12" s="73"/>
     </row>
     <row r="13" spans="1:40" ht="16.5" thickBot="1">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="52"/>
-      <c r="AD13" s="96">
+      <c r="B13" s="58"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="140"/>
+      <c r="Q13" s="141"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="71">
         <v>2</v>
       </c>
-      <c r="AE13" s="50"/>
-      <c r="AF13" s="80"/>
-      <c r="AG13" s="69"/>
-      <c r="AH13" s="70"/>
-      <c r="AI13" s="69"/>
-      <c r="AJ13" s="97"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="50"/>
+      <c r="AH13" s="51"/>
+      <c r="AI13" s="50"/>
+      <c r="AJ13" s="72"/>
       <c r="AK13" s="12">
         <v>2</v>
       </c>
       <c r="AL13" s="12">
         <v>0.67</v>
       </c>
-      <c r="AM13" s="100"/>
-      <c r="AN13" s="100"/>
+      <c r="AM13" s="75"/>
+      <c r="AN13" s="75"/>
     </row>
     <row r="14" spans="1:40" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="103">
+      <c r="B14" s="76">
         <v>5</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="108">
+      <c r="C14" s="77"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="81">
         <v>5</v>
       </c>
-      <c r="I14" s="109"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="120"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="110"/>
-      <c r="T14" s="111"/>
-      <c r="U14" s="110"/>
-      <c r="V14" s="112"/>
-      <c r="W14" s="110"/>
-      <c r="X14" s="111"/>
-      <c r="Y14" s="110"/>
-      <c r="Z14" s="112"/>
-      <c r="AA14" s="110"/>
-      <c r="AB14" s="111"/>
-      <c r="AC14" s="110"/>
-      <c r="AD14" s="111"/>
-      <c r="AE14" s="110"/>
-      <c r="AF14" s="112"/>
-      <c r="AG14" s="110"/>
-      <c r="AH14" s="111"/>
-      <c r="AI14" s="110"/>
-      <c r="AJ14" s="121"/>
-      <c r="AK14" s="121"/>
-      <c r="AL14" s="36">
+      <c r="I14" s="82"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="167"/>
+      <c r="Q14" s="168"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="84"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="84"/>
+      <c r="Y14" s="83"/>
+      <c r="Z14" s="85"/>
+      <c r="AA14" s="83"/>
+      <c r="AB14" s="84"/>
+      <c r="AC14" s="83"/>
+      <c r="AD14" s="84"/>
+      <c r="AE14" s="83"/>
+      <c r="AF14" s="85"/>
+      <c r="AG14" s="83"/>
+      <c r="AH14" s="84"/>
+      <c r="AI14" s="83"/>
+      <c r="AJ14" s="164"/>
+      <c r="AK14" s="164"/>
+      <c r="AL14" s="32">
         <v>1</v>
       </c>
-      <c r="AM14" s="113">
+      <c r="AM14" s="86">
         <v>5</v>
       </c>
-      <c r="AN14" s="114">
+      <c r="AN14" s="87">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="16.5" thickTop="1">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="40">
         <v>4</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="115">
+      <c r="C15" s="41"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="88">
         <v>2</v>
       </c>
-      <c r="I15" s="116"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="80"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="80"/>
-      <c r="W15" s="69"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="69"/>
-      <c r="Z15" s="80"/>
-      <c r="AA15" s="69"/>
-      <c r="AB15" s="70"/>
-      <c r="AC15" s="69"/>
-      <c r="AD15" s="70"/>
-      <c r="AE15" s="69"/>
-      <c r="AF15" s="80"/>
-      <c r="AG15" s="69"/>
-      <c r="AH15" s="70"/>
-      <c r="AI15" s="69"/>
-      <c r="AJ15" s="97"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="145"/>
+      <c r="Q15" s="146"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="51"/>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="51"/>
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="58"/>
+      <c r="AG15" s="50"/>
+      <c r="AH15" s="51"/>
+      <c r="AI15" s="50"/>
+      <c r="AJ15" s="72"/>
       <c r="AK15" s="12">
         <v>6</v>
       </c>
       <c r="AL15" s="12">
         <v>1</v>
       </c>
-      <c r="AM15" s="98"/>
-      <c r="AN15" s="98"/>
+      <c r="AM15" s="73"/>
+      <c r="AN15" s="73"/>
     </row>
     <row r="16" spans="1:40" ht="15.75">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="40">
         <v>4</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="115">
+      <c r="C16" s="41"/>
+      <c r="D16" s="162"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="88">
         <v>2</v>
       </c>
-      <c r="I16" s="116"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="80"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="80"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="70"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="80"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="70"/>
-      <c r="AC16" s="69"/>
-      <c r="AD16" s="70"/>
-      <c r="AE16" s="69"/>
-      <c r="AF16" s="80"/>
-      <c r="AG16" s="69"/>
-      <c r="AH16" s="70"/>
-      <c r="AI16" s="69"/>
-      <c r="AJ16" s="97"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="140"/>
+      <c r="Q16" s="141"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="50"/>
+      <c r="AB16" s="51"/>
+      <c r="AC16" s="50"/>
+      <c r="AD16" s="51"/>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="58"/>
+      <c r="AG16" s="50"/>
+      <c r="AH16" s="51"/>
+      <c r="AI16" s="50"/>
+      <c r="AJ16" s="72"/>
       <c r="AK16" s="12">
         <v>6</v>
       </c>
       <c r="AL16" s="12">
         <v>1</v>
       </c>
-      <c r="AM16" s="98"/>
-      <c r="AN16" s="98"/>
+      <c r="AM16" s="73"/>
+      <c r="AN16" s="73"/>
     </row>
     <row r="17" spans="1:40" ht="15.75">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="49">
+      <c r="B17" s="40">
         <v>4</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="115">
+      <c r="C17" s="41"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="88">
         <v>2</v>
       </c>
-      <c r="I17" s="116"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="80"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="80"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="69"/>
-      <c r="Z17" s="80"/>
-      <c r="AA17" s="69"/>
-      <c r="AB17" s="70"/>
-      <c r="AC17" s="69"/>
-      <c r="AD17" s="70"/>
-      <c r="AE17" s="69"/>
-      <c r="AF17" s="80"/>
-      <c r="AG17" s="69"/>
-      <c r="AH17" s="70"/>
-      <c r="AI17" s="69"/>
-      <c r="AJ17" s="97"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="140"/>
+      <c r="Q17" s="141"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="51"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="51"/>
+      <c r="AI17" s="50"/>
+      <c r="AJ17" s="72"/>
       <c r="AK17" s="12">
         <v>6</v>
       </c>
       <c r="AL17" s="12">
         <v>1</v>
       </c>
-      <c r="AM17" s="98"/>
-      <c r="AN17" s="98"/>
+      <c r="AM17" s="73"/>
+      <c r="AN17" s="73"/>
     </row>
     <row r="18" spans="1:40" ht="15.75">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="40">
         <v>4</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="115">
+      <c r="C18" s="41"/>
+      <c r="D18" s="162"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="88">
         <v>2</v>
       </c>
-      <c r="I18" s="116"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="80"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="80"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="70"/>
-      <c r="Y18" s="69"/>
-      <c r="Z18" s="80"/>
-      <c r="AA18" s="69"/>
-      <c r="AB18" s="70"/>
-      <c r="AC18" s="69"/>
-      <c r="AD18" s="70"/>
-      <c r="AE18" s="69"/>
-      <c r="AF18" s="80"/>
-      <c r="AG18" s="69"/>
-      <c r="AH18" s="70"/>
-      <c r="AI18" s="69"/>
-      <c r="AJ18" s="97"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="140"/>
+      <c r="Q18" s="141"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="51"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="58"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="51"/>
+      <c r="AI18" s="50"/>
+      <c r="AJ18" s="72"/>
       <c r="AK18" s="12">
         <v>6</v>
       </c>
       <c r="AL18" s="12">
         <v>1</v>
       </c>
-      <c r="AM18" s="98"/>
-      <c r="AN18" s="98"/>
+      <c r="AM18" s="73"/>
+      <c r="AN18" s="73"/>
     </row>
     <row r="19" spans="1:40" ht="16.5" thickBot="1">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="49">
+      <c r="B19" s="40">
         <v>4</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="115">
+      <c r="C19" s="41"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="88">
         <v>2</v>
       </c>
-      <c r="I19" s="116"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="80"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="80"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="70"/>
-      <c r="Y19" s="69"/>
-      <c r="Z19" s="80"/>
-      <c r="AA19" s="69"/>
-      <c r="AB19" s="70"/>
-      <c r="AC19" s="69"/>
-      <c r="AD19" s="70"/>
-      <c r="AE19" s="69"/>
-      <c r="AF19" s="80"/>
-      <c r="AG19" s="69"/>
-      <c r="AH19" s="70"/>
-      <c r="AI19" s="69"/>
-      <c r="AJ19" s="97"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="140"/>
+      <c r="Q19" s="141"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="50"/>
+      <c r="AB19" s="51"/>
+      <c r="AC19" s="50"/>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="50"/>
+      <c r="AF19" s="58"/>
+      <c r="AG19" s="50"/>
+      <c r="AH19" s="51"/>
+      <c r="AI19" s="50"/>
+      <c r="AJ19" s="72"/>
       <c r="AK19" s="12">
         <v>6</v>
       </c>
       <c r="AL19" s="12">
         <v>1</v>
       </c>
-      <c r="AM19" s="98"/>
-      <c r="AN19" s="98"/>
+      <c r="AM19" s="73"/>
+      <c r="AN19" s="73"/>
     </row>
     <row r="20" spans="1:40" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="91"/>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="23">
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="153"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="155"/>
+      <c r="Q20" s="156"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="19">
         <v>4.3</v>
       </c>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="87"/>
-      <c r="AC20" s="86"/>
-      <c r="AD20" s="87"/>
-      <c r="AE20" s="86"/>
-      <c r="AF20" s="85"/>
-      <c r="AG20" s="86"/>
-      <c r="AH20" s="126"/>
-      <c r="AI20" s="127"/>
-      <c r="AJ20" s="93"/>
-      <c r="AK20" s="93"/>
-      <c r="AL20" s="36">
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="64"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="64"/>
+      <c r="AF20" s="63"/>
+      <c r="AG20" s="64"/>
+      <c r="AH20" s="90"/>
+      <c r="AI20" s="91"/>
+      <c r="AJ20" s="157"/>
+      <c r="AK20" s="157"/>
+      <c r="AL20" s="32">
         <v>0.96</v>
       </c>
-      <c r="AM20" s="113">
+      <c r="AM20" s="86">
         <v>4.3</v>
       </c>
-      <c r="AN20" s="114">
+      <c r="AN20" s="87">
         <v>0.86</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="16.5" thickTop="1">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="102"/>
-      <c r="R21" s="80"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="80"/>
-      <c r="W21" s="69" t="s">
+      <c r="B21" s="58"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="145"/>
+      <c r="Q21" s="146"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="X21" s="70"/>
-      <c r="Y21" s="69"/>
-      <c r="Z21" s="49">
+      <c r="X21" s="51"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="40">
         <v>9</v>
       </c>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="51"/>
-      <c r="AC21" s="52"/>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="52"/>
-      <c r="AF21" s="95"/>
-      <c r="AG21" s="52"/>
-      <c r="AH21" s="115"/>
-      <c r="AI21" s="116"/>
-      <c r="AJ21" s="97"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="43"/>
+      <c r="AD21" s="42"/>
+      <c r="AE21" s="43"/>
+      <c r="AF21" s="70"/>
+      <c r="AG21" s="43"/>
+      <c r="AH21" s="88"/>
+      <c r="AI21" s="89"/>
+      <c r="AJ21" s="72"/>
       <c r="AK21" s="12">
         <v>9</v>
       </c>
       <c r="AL21" s="12">
         <v>0.9</v>
       </c>
-      <c r="AM21" s="98"/>
-      <c r="AN21" s="98"/>
+      <c r="AM21" s="73"/>
+      <c r="AN21" s="73"/>
     </row>
     <row r="22" spans="1:40" ht="15.75">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="80"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="80"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="69"/>
-      <c r="Z22" s="49">
+      <c r="B22" s="58"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="140"/>
+      <c r="Q22" s="141"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="40">
         <v>9</v>
       </c>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="51"/>
-      <c r="AC22" s="52"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="52"/>
-      <c r="AF22" s="95"/>
-      <c r="AG22" s="52"/>
-      <c r="AH22" s="115"/>
-      <c r="AI22" s="116"/>
-      <c r="AJ22" s="97"/>
+      <c r="AA22" s="41"/>
+      <c r="AB22" s="42"/>
+      <c r="AC22" s="43"/>
+      <c r="AD22" s="42"/>
+      <c r="AE22" s="43"/>
+      <c r="AF22" s="70"/>
+      <c r="AG22" s="43"/>
+      <c r="AH22" s="88"/>
+      <c r="AI22" s="89"/>
+      <c r="AJ22" s="72"/>
       <c r="AK22" s="12">
         <v>9</v>
       </c>
       <c r="AL22" s="12">
         <v>0.9</v>
       </c>
-      <c r="AM22" s="98"/>
-      <c r="AN22" s="98"/>
+      <c r="AM22" s="73"/>
+      <c r="AN22" s="73"/>
     </row>
     <row r="23" spans="1:40" ht="15.75">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="80"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="80"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="70"/>
-      <c r="U23" s="69"/>
-      <c r="V23" s="80"/>
-      <c r="W23" s="69"/>
-      <c r="X23" s="70"/>
-      <c r="Y23" s="69"/>
-      <c r="Z23" s="49">
+      <c r="B23" s="58"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="140"/>
+      <c r="Q23" s="141"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="50"/>
+      <c r="Z23" s="40">
         <v>10</v>
       </c>
-      <c r="AA23" s="50"/>
-      <c r="AB23" s="51"/>
-      <c r="AC23" s="52"/>
-      <c r="AD23" s="51"/>
-      <c r="AE23" s="52"/>
-      <c r="AF23" s="95"/>
-      <c r="AG23" s="52"/>
-      <c r="AH23" s="115"/>
-      <c r="AI23" s="116"/>
-      <c r="AJ23" s="97"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="43"/>
+      <c r="AD23" s="42"/>
+      <c r="AE23" s="43"/>
+      <c r="AF23" s="70"/>
+      <c r="AG23" s="43"/>
+      <c r="AH23" s="88"/>
+      <c r="AI23" s="89"/>
+      <c r="AJ23" s="72"/>
       <c r="AK23" s="12">
         <v>10</v>
       </c>
       <c r="AL23" s="12">
         <v>1</v>
       </c>
-      <c r="AM23" s="98"/>
-      <c r="AN23" s="98"/>
+      <c r="AM23" s="73"/>
+      <c r="AN23" s="73"/>
     </row>
     <row r="24" spans="1:40" ht="15.75">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="80"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="80"/>
-      <c r="W24" s="69"/>
-      <c r="X24" s="70"/>
-      <c r="Y24" s="69"/>
-      <c r="Z24" s="49">
+      <c r="B24" s="58"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="140"/>
+      <c r="Q24" s="141"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="50"/>
+      <c r="Z24" s="40">
         <v>10</v>
       </c>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="51"/>
-      <c r="AC24" s="52"/>
-      <c r="AD24" s="51"/>
-      <c r="AE24" s="52"/>
-      <c r="AF24" s="95"/>
-      <c r="AG24" s="52"/>
-      <c r="AH24" s="115"/>
-      <c r="AI24" s="116"/>
-      <c r="AJ24" s="97"/>
+      <c r="AA24" s="41"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="43"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="43"/>
+      <c r="AF24" s="70"/>
+      <c r="AG24" s="43"/>
+      <c r="AH24" s="88"/>
+      <c r="AI24" s="89"/>
+      <c r="AJ24" s="72"/>
       <c r="AK24" s="12">
         <v>10</v>
       </c>
       <c r="AL24" s="12">
         <v>1</v>
       </c>
-      <c r="AM24" s="98"/>
-      <c r="AN24" s="98"/>
+      <c r="AM24" s="73"/>
+      <c r="AN24" s="73"/>
     </row>
     <row r="25" spans="1:40" ht="16.5" thickBot="1">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="80"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="80"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="70"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="80"/>
-      <c r="W25" s="69"/>
-      <c r="X25" s="70"/>
-      <c r="Y25" s="69"/>
-      <c r="Z25" s="49">
+      <c r="B25" s="58"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="140"/>
+      <c r="Q25" s="141"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="40">
         <v>10</v>
       </c>
-      <c r="AA25" s="50"/>
-      <c r="AB25" s="51"/>
-      <c r="AC25" s="52"/>
-      <c r="AD25" s="51"/>
-      <c r="AE25" s="52"/>
-      <c r="AF25" s="95"/>
-      <c r="AG25" s="52"/>
-      <c r="AH25" s="115"/>
-      <c r="AI25" s="116"/>
-      <c r="AJ25" s="97"/>
+      <c r="AA25" s="41"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="43"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="43"/>
+      <c r="AF25" s="70"/>
+      <c r="AG25" s="43"/>
+      <c r="AH25" s="88"/>
+      <c r="AI25" s="89"/>
+      <c r="AJ25" s="72"/>
       <c r="AK25" s="12">
         <v>10</v>
       </c>
       <c r="AL25" s="12">
         <v>1</v>
       </c>
-      <c r="AM25" s="98"/>
-      <c r="AN25" s="98"/>
+      <c r="AM25" s="73"/>
+      <c r="AN25" s="73"/>
     </row>
     <row r="26" spans="1:40" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="19">
         <v>1</v>
       </c>
-      <c r="C26" s="128"/>
-      <c r="D26" s="145"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="108">
+      <c r="C26" s="92"/>
+      <c r="D26" s="158"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="81">
         <v>1</v>
       </c>
-      <c r="I26" s="130"/>
-      <c r="J26" s="108">
+      <c r="I26" s="94"/>
+      <c r="J26" s="81">
         <v>1</v>
       </c>
-      <c r="K26" s="130"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="131"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="85"/>
-      <c r="S26" s="129"/>
-      <c r="T26" s="132">
+      <c r="K26" s="94"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="160"/>
+      <c r="Q26" s="161"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="93"/>
+      <c r="T26" s="96">
         <v>1</v>
       </c>
-      <c r="U26" s="128"/>
-      <c r="V26" s="31">
+      <c r="U26" s="92"/>
+      <c r="V26" s="27">
         <v>1</v>
       </c>
-      <c r="W26" s="130"/>
-      <c r="X26" s="133">
+      <c r="W26" s="94"/>
+      <c r="X26" s="97">
         <v>1</v>
       </c>
-      <c r="Y26" s="130"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="131"/>
-      <c r="AB26" s="134"/>
-      <c r="AC26" s="131"/>
-      <c r="AD26" s="35"/>
-      <c r="AE26" s="131"/>
-      <c r="AF26" s="135"/>
-      <c r="AG26" s="131"/>
-      <c r="AH26" s="134"/>
-      <c r="AI26" s="131"/>
-      <c r="AJ26" s="147"/>
-      <c r="AK26" s="147"/>
-      <c r="AL26" s="36">
+      <c r="Y26" s="94"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="95"/>
+      <c r="AB26" s="98"/>
+      <c r="AC26" s="95"/>
+      <c r="AD26" s="31"/>
+      <c r="AE26" s="95"/>
+      <c r="AF26" s="99"/>
+      <c r="AG26" s="95"/>
+      <c r="AH26" s="98"/>
+      <c r="AI26" s="95"/>
+      <c r="AJ26" s="148"/>
+      <c r="AK26" s="148"/>
+      <c r="AL26" s="32">
         <v>1</v>
       </c>
-      <c r="AM26" s="113">
+      <c r="AM26" s="86">
         <v>1</v>
       </c>
-      <c r="AN26" s="114">
+      <c r="AN26" s="87">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:40" ht="16.5" thickTop="1">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="49">
+      <c r="B27" s="40">
         <v>4</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="115">
+      <c r="C27" s="41"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="88">
         <v>2</v>
       </c>
-      <c r="I27" s="116"/>
-      <c r="J27" s="115">
+      <c r="I27" s="89"/>
+      <c r="J27" s="88">
         <v>2</v>
       </c>
-      <c r="K27" s="116"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="101"/>
-      <c r="Q27" s="102"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="96">
+      <c r="K27" s="89"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="145"/>
+      <c r="Q27" s="146"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="71">
         <v>1</v>
       </c>
-      <c r="U27" s="50"/>
-      <c r="V27" s="136">
+      <c r="U27" s="41"/>
+      <c r="V27" s="100">
         <v>7</v>
       </c>
-      <c r="W27" s="116"/>
-      <c r="X27" s="115">
+      <c r="W27" s="89"/>
+      <c r="X27" s="88">
         <v>1</v>
       </c>
-      <c r="Y27" s="116"/>
-      <c r="Z27" s="80"/>
-      <c r="AA27" s="69"/>
-      <c r="AB27" s="70"/>
-      <c r="AC27" s="69"/>
-      <c r="AD27" s="70"/>
-      <c r="AE27" s="69"/>
-      <c r="AF27" s="80"/>
-      <c r="AG27" s="69"/>
-      <c r="AH27" s="70"/>
-      <c r="AI27" s="69"/>
-      <c r="AJ27" s="97"/>
+      <c r="Y27" s="89"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="51"/>
+      <c r="AC27" s="50"/>
+      <c r="AD27" s="51"/>
+      <c r="AE27" s="50"/>
+      <c r="AF27" s="58"/>
+      <c r="AG27" s="50"/>
+      <c r="AH27" s="51"/>
+      <c r="AI27" s="50"/>
+      <c r="AJ27" s="72"/>
       <c r="AK27" s="12">
         <v>17</v>
       </c>
       <c r="AL27" s="12">
         <v>1</v>
       </c>
-      <c r="AM27" s="98"/>
-      <c r="AN27" s="98"/>
+      <c r="AM27" s="73"/>
+      <c r="AN27" s="73"/>
     </row>
     <row r="28" spans="1:40" ht="16.5" thickBot="1">
-      <c r="A28" s="99" t="s">
+      <c r="A28" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="137">
+      <c r="B28" s="101">
         <v>4</v>
       </c>
-      <c r="C28" s="138"/>
-      <c r="D28" s="148"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="141">
+      <c r="C28" s="102"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="105">
         <v>2</v>
       </c>
-      <c r="I28" s="142"/>
-      <c r="J28" s="141">
+      <c r="I28" s="106"/>
+      <c r="J28" s="105">
         <v>2</v>
       </c>
-      <c r="K28" s="142"/>
-      <c r="L28" s="143"/>
-      <c r="M28" s="144"/>
-      <c r="N28" s="143"/>
-      <c r="O28" s="144"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="77"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="96">
+      <c r="K28" s="106"/>
+      <c r="L28" s="107"/>
+      <c r="M28" s="108"/>
+      <c r="N28" s="107"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="140"/>
+      <c r="Q28" s="141"/>
+      <c r="R28" s="70"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="71">
         <v>1</v>
       </c>
-      <c r="U28" s="50"/>
-      <c r="V28" s="136">
+      <c r="U28" s="41"/>
+      <c r="V28" s="100">
         <v>7</v>
       </c>
-      <c r="W28" s="116"/>
-      <c r="X28" s="115">
+      <c r="W28" s="89"/>
+      <c r="X28" s="88">
         <v>1</v>
       </c>
-      <c r="Y28" s="116"/>
-      <c r="Z28" s="80"/>
-      <c r="AA28" s="69"/>
-      <c r="AB28" s="70"/>
-      <c r="AC28" s="69"/>
-      <c r="AD28" s="70"/>
-      <c r="AE28" s="69"/>
-      <c r="AF28" s="80"/>
-      <c r="AG28" s="69"/>
-      <c r="AH28" s="70"/>
-      <c r="AI28" s="69"/>
-      <c r="AJ28" s="97"/>
+      <c r="Y28" s="89"/>
+      <c r="Z28" s="58"/>
+      <c r="AA28" s="50"/>
+      <c r="AB28" s="51"/>
+      <c r="AC28" s="50"/>
+      <c r="AD28" s="51"/>
+      <c r="AE28" s="50"/>
+      <c r="AF28" s="58"/>
+      <c r="AG28" s="50"/>
+      <c r="AH28" s="51"/>
+      <c r="AI28" s="50"/>
+      <c r="AJ28" s="72"/>
       <c r="AK28" s="12">
         <v>17</v>
       </c>
       <c r="AL28" s="12">
         <v>1</v>
       </c>
-      <c r="AM28" s="100"/>
-      <c r="AN28" s="100"/>
+      <c r="AM28" s="75"/>
+      <c r="AN28" s="75"/>
     </row>
     <row r="29" spans="1:40" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="91"/>
-      <c r="Q29" s="92"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="85"/>
-      <c r="AA29" s="86"/>
-      <c r="AB29" s="88">
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="155"/>
+      <c r="Q29" s="156"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="63"/>
+      <c r="AA29" s="64"/>
+      <c r="AB29" s="66">
         <v>3.14</v>
       </c>
-      <c r="AC29" s="24"/>
-      <c r="AD29" s="87"/>
-      <c r="AE29" s="86"/>
-      <c r="AF29" s="19"/>
-      <c r="AG29" s="20"/>
-      <c r="AH29" s="21"/>
-      <c r="AI29" s="20"/>
-      <c r="AJ29" s="93"/>
-      <c r="AK29" s="93"/>
-      <c r="AL29" s="36">
+      <c r="AC29" s="20"/>
+      <c r="AD29" s="65"/>
+      <c r="AE29" s="64"/>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="16"/>
+      <c r="AH29" s="17"/>
+      <c r="AI29" s="16"/>
+      <c r="AJ29" s="157"/>
+      <c r="AK29" s="157"/>
+      <c r="AL29" s="32">
         <v>0.63</v>
       </c>
-      <c r="AM29" s="150">
+      <c r="AM29" s="109">
         <v>3.14</v>
       </c>
-      <c r="AN29" s="151">
+      <c r="AN29" s="110">
         <v>0.628</v>
       </c>
     </row>
     <row r="30" spans="1:40" ht="16.5" thickTop="1">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="80"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="101"/>
-      <c r="Q30" s="102"/>
-      <c r="R30" s="80"/>
-      <c r="S30" s="69"/>
-      <c r="T30" s="70"/>
-      <c r="U30" s="69"/>
-      <c r="V30" s="80"/>
-      <c r="W30" s="69"/>
-      <c r="X30" s="70"/>
-      <c r="Y30" s="69"/>
-      <c r="Z30" s="95"/>
-      <c r="AA30" s="52"/>
-      <c r="AB30" s="96"/>
-      <c r="AC30" s="50">
+      <c r="B30" s="58"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="145"/>
+      <c r="Q30" s="146"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="58"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="50"/>
+      <c r="Z30" s="70"/>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="71"/>
+      <c r="AC30" s="41">
         <v>4</v>
       </c>
-      <c r="AD30" s="51"/>
-      <c r="AE30" s="52"/>
-      <c r="AF30" s="80"/>
-      <c r="AG30" s="69"/>
-      <c r="AH30" s="70"/>
-      <c r="AI30" s="69"/>
-      <c r="AJ30" s="158"/>
-      <c r="AK30" s="158"/>
+      <c r="AD30" s="42"/>
+      <c r="AE30" s="43"/>
+      <c r="AF30" s="58"/>
+      <c r="AG30" s="50"/>
+      <c r="AH30" s="51"/>
+      <c r="AI30" s="50"/>
+      <c r="AJ30" s="147"/>
+      <c r="AK30" s="147"/>
       <c r="AL30" s="12"/>
-      <c r="AM30" s="98"/>
-      <c r="AN30" s="98"/>
+      <c r="AM30" s="73"/>
+      <c r="AN30" s="73"/>
     </row>
     <row r="31" spans="1:40" ht="15.75">
-      <c r="A31" s="152" t="s">
+      <c r="A31" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="80"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="80"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="76"/>
-      <c r="Q31" s="77"/>
-      <c r="R31" s="80"/>
-      <c r="S31" s="69"/>
-      <c r="T31" s="70"/>
-      <c r="U31" s="69"/>
-      <c r="V31" s="80"/>
-      <c r="W31" s="69"/>
-      <c r="X31" s="70"/>
-      <c r="Y31" s="69"/>
-      <c r="Z31" s="95"/>
-      <c r="AA31" s="52"/>
-      <c r="AB31" s="96">
+      <c r="B31" s="58"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="140"/>
+      <c r="Q31" s="141"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="58"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="50"/>
+      <c r="Z31" s="70"/>
+      <c r="AA31" s="43"/>
+      <c r="AB31" s="71">
         <v>3</v>
       </c>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="51"/>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="80"/>
-      <c r="AG31" s="69"/>
-      <c r="AH31" s="70"/>
-      <c r="AI31" s="69"/>
-      <c r="AJ31" s="97"/>
+      <c r="AC31" s="41"/>
+      <c r="AD31" s="42"/>
+      <c r="AE31" s="43"/>
+      <c r="AF31" s="58"/>
+      <c r="AG31" s="50"/>
+      <c r="AH31" s="51"/>
+      <c r="AI31" s="50"/>
+      <c r="AJ31" s="72"/>
       <c r="AK31" s="12">
         <v>3</v>
       </c>
-      <c r="AL31" s="153">
+      <c r="AL31" s="112">
         <v>0.43</v>
       </c>
-      <c r="AM31" s="98"/>
-      <c r="AN31" s="98"/>
+      <c r="AM31" s="73"/>
+      <c r="AN31" s="73"/>
     </row>
     <row r="32" spans="1:40" ht="15.75">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="80"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="80"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="77"/>
-      <c r="R32" s="80"/>
-      <c r="S32" s="69"/>
-      <c r="T32" s="70"/>
-      <c r="U32" s="69"/>
-      <c r="V32" s="80"/>
-      <c r="W32" s="69"/>
-      <c r="X32" s="70"/>
-      <c r="Y32" s="69"/>
-      <c r="Z32" s="95"/>
-      <c r="AA32" s="52"/>
-      <c r="AB32" s="96"/>
-      <c r="AC32" s="50">
+      <c r="B32" s="58"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="140"/>
+      <c r="Q32" s="141"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="58"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="50"/>
+      <c r="Z32" s="70"/>
+      <c r="AA32" s="43"/>
+      <c r="AB32" s="71"/>
+      <c r="AC32" s="41">
         <v>1</v>
       </c>
-      <c r="AD32" s="51"/>
-      <c r="AE32" s="52"/>
-      <c r="AF32" s="80"/>
-      <c r="AG32" s="69"/>
-      <c r="AH32" s="70"/>
-      <c r="AI32" s="69"/>
-      <c r="AJ32" s="157"/>
-      <c r="AK32" s="157"/>
-      <c r="AL32" s="153"/>
-      <c r="AM32" s="98"/>
-      <c r="AN32" s="98"/>
+      <c r="AD32" s="42"/>
+      <c r="AE32" s="43"/>
+      <c r="AF32" s="58"/>
+      <c r="AG32" s="50"/>
+      <c r="AH32" s="51"/>
+      <c r="AI32" s="50"/>
+      <c r="AJ32" s="142"/>
+      <c r="AK32" s="142"/>
+      <c r="AL32" s="112"/>
+      <c r="AM32" s="73"/>
+      <c r="AN32" s="73"/>
     </row>
     <row r="33" spans="1:40" ht="15.75">
-      <c r="A33" s="152" t="s">
+      <c r="A33" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="80"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="77"/>
-      <c r="R33" s="80"/>
-      <c r="S33" s="69"/>
-      <c r="T33" s="70"/>
-      <c r="U33" s="69"/>
-      <c r="V33" s="80"/>
-      <c r="W33" s="69"/>
-      <c r="X33" s="70"/>
-      <c r="Y33" s="69"/>
-      <c r="Z33" s="95"/>
-      <c r="AA33" s="52"/>
-      <c r="AB33" s="96">
+      <c r="B33" s="58"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="140"/>
+      <c r="Q33" s="141"/>
+      <c r="R33" s="58"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="58"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="50"/>
+      <c r="Z33" s="70"/>
+      <c r="AA33" s="43"/>
+      <c r="AB33" s="71">
         <v>5</v>
       </c>
-      <c r="AC33" s="50"/>
-      <c r="AD33" s="51"/>
-      <c r="AE33" s="52"/>
-      <c r="AF33" s="80"/>
-      <c r="AG33" s="69"/>
-      <c r="AH33" s="70"/>
-      <c r="AI33" s="69"/>
-      <c r="AJ33" s="97"/>
+      <c r="AC33" s="41"/>
+      <c r="AD33" s="42"/>
+      <c r="AE33" s="43"/>
+      <c r="AF33" s="58"/>
+      <c r="AG33" s="50"/>
+      <c r="AH33" s="51"/>
+      <c r="AI33" s="50"/>
+      <c r="AJ33" s="72"/>
       <c r="AK33" s="12">
         <v>5</v>
       </c>
-      <c r="AL33" s="153">
+      <c r="AL33" s="112">
         <v>0.71</v>
       </c>
-      <c r="AM33" s="98"/>
-      <c r="AN33" s="98"/>
+      <c r="AM33" s="73"/>
+      <c r="AN33" s="73"/>
     </row>
     <row r="34" spans="1:40" ht="15.75">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="80"/>
-      <c r="M34" s="69"/>
-      <c r="N34" s="80"/>
-      <c r="O34" s="69"/>
-      <c r="P34" s="76"/>
-      <c r="Q34" s="77"/>
-      <c r="R34" s="80"/>
-      <c r="S34" s="69"/>
-      <c r="T34" s="70"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="80"/>
-      <c r="W34" s="69"/>
-      <c r="X34" s="70"/>
-      <c r="Y34" s="69"/>
-      <c r="Z34" s="95"/>
-      <c r="AA34" s="52"/>
-      <c r="AB34" s="96"/>
-      <c r="AC34" s="50"/>
-      <c r="AD34" s="51"/>
-      <c r="AE34" s="52"/>
-      <c r="AF34" s="80"/>
-      <c r="AG34" s="69"/>
-      <c r="AH34" s="70"/>
-      <c r="AI34" s="69"/>
-      <c r="AJ34" s="157"/>
-      <c r="AK34" s="157"/>
-      <c r="AL34" s="153"/>
-      <c r="AM34" s="98"/>
-      <c r="AN34" s="98"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="141"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="140"/>
+      <c r="Q34" s="141"/>
+      <c r="R34" s="58"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="58"/>
+      <c r="W34" s="50"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="50"/>
+      <c r="Z34" s="70"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="71"/>
+      <c r="AC34" s="41"/>
+      <c r="AD34" s="42"/>
+      <c r="AE34" s="43"/>
+      <c r="AF34" s="58"/>
+      <c r="AG34" s="50"/>
+      <c r="AH34" s="51"/>
+      <c r="AI34" s="50"/>
+      <c r="AJ34" s="142"/>
+      <c r="AK34" s="142"/>
+      <c r="AL34" s="112"/>
+      <c r="AM34" s="73"/>
+      <c r="AN34" s="73"/>
     </row>
     <row r="35" spans="1:40" ht="15.75">
-      <c r="A35" s="152" t="s">
+      <c r="A35" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="80"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="69"/>
-      <c r="N35" s="80"/>
-      <c r="O35" s="69"/>
-      <c r="P35" s="76"/>
-      <c r="Q35" s="77"/>
-      <c r="R35" s="80"/>
-      <c r="S35" s="69"/>
-      <c r="T35" s="70"/>
-      <c r="U35" s="69"/>
-      <c r="V35" s="80"/>
-      <c r="W35" s="69"/>
-      <c r="X35" s="70"/>
-      <c r="Y35" s="69"/>
-      <c r="Z35" s="95"/>
-      <c r="AA35" s="52"/>
-      <c r="AB35" s="96">
+      <c r="B35" s="58"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="141"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="140"/>
+      <c r="Q35" s="141"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="58"/>
+      <c r="W35" s="50"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="50"/>
+      <c r="Z35" s="70"/>
+      <c r="AA35" s="43"/>
+      <c r="AB35" s="71">
         <v>6</v>
       </c>
-      <c r="AC35" s="50">
+      <c r="AC35" s="41">
         <v>1</v>
       </c>
-      <c r="AD35" s="51"/>
-      <c r="AE35" s="52"/>
-      <c r="AF35" s="80"/>
-      <c r="AG35" s="69"/>
-      <c r="AH35" s="70"/>
-      <c r="AI35" s="69"/>
-      <c r="AJ35" s="97"/>
+      <c r="AD35" s="42"/>
+      <c r="AE35" s="43"/>
+      <c r="AF35" s="58"/>
+      <c r="AG35" s="50"/>
+      <c r="AH35" s="51"/>
+      <c r="AI35" s="50"/>
+      <c r="AJ35" s="72"/>
       <c r="AK35" s="12">
         <v>7</v>
       </c>
-      <c r="AL35" s="153">
+      <c r="AL35" s="112">
         <v>1</v>
       </c>
-      <c r="AM35" s="154"/>
-      <c r="AN35" s="154"/>
+      <c r="AM35" s="113"/>
+      <c r="AN35" s="113"/>
     </row>
     <row r="36" spans="1:40" ht="15.75">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="80"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="69"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="80"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="80"/>
-      <c r="O36" s="69"/>
-      <c r="P36" s="76"/>
-      <c r="Q36" s="77"/>
-      <c r="R36" s="80"/>
-      <c r="S36" s="69"/>
-      <c r="T36" s="70"/>
-      <c r="U36" s="69"/>
-      <c r="V36" s="80"/>
-      <c r="W36" s="69"/>
-      <c r="X36" s="70"/>
-      <c r="Y36" s="69"/>
-      <c r="Z36" s="95"/>
-      <c r="AA36" s="52"/>
-      <c r="AB36" s="96"/>
-      <c r="AC36" s="50"/>
-      <c r="AD36" s="51"/>
-      <c r="AE36" s="52"/>
-      <c r="AF36" s="80"/>
-      <c r="AG36" s="69"/>
-      <c r="AH36" s="70"/>
-      <c r="AI36" s="69"/>
-      <c r="AJ36" s="157"/>
-      <c r="AK36" s="157"/>
-      <c r="AL36" s="153"/>
-      <c r="AM36" s="98"/>
-      <c r="AN36" s="98"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="140"/>
+      <c r="Q36" s="141"/>
+      <c r="R36" s="58"/>
+      <c r="S36" s="50"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="50"/>
+      <c r="V36" s="58"/>
+      <c r="W36" s="50"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="50"/>
+      <c r="Z36" s="70"/>
+      <c r="AA36" s="43"/>
+      <c r="AB36" s="71"/>
+      <c r="AC36" s="41"/>
+      <c r="AD36" s="42"/>
+      <c r="AE36" s="43"/>
+      <c r="AF36" s="58"/>
+      <c r="AG36" s="50"/>
+      <c r="AH36" s="51"/>
+      <c r="AI36" s="50"/>
+      <c r="AJ36" s="142"/>
+      <c r="AK36" s="142"/>
+      <c r="AL36" s="112"/>
+      <c r="AM36" s="73"/>
+      <c r="AN36" s="73"/>
     </row>
     <row r="37" spans="1:40" ht="15.75">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="80"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="70"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="80"/>
-      <c r="O37" s="69"/>
-      <c r="P37" s="76"/>
-      <c r="Q37" s="77"/>
-      <c r="R37" s="80"/>
-      <c r="S37" s="69"/>
-      <c r="T37" s="70"/>
-      <c r="U37" s="69"/>
-      <c r="V37" s="80"/>
-      <c r="W37" s="69"/>
-      <c r="X37" s="70"/>
-      <c r="Y37" s="69"/>
-      <c r="Z37" s="95"/>
-      <c r="AA37" s="52"/>
-      <c r="AB37" s="96"/>
-      <c r="AC37" s="50"/>
-      <c r="AD37" s="51"/>
-      <c r="AE37" s="52"/>
-      <c r="AF37" s="80"/>
-      <c r="AG37" s="69"/>
-      <c r="AH37" s="70"/>
-      <c r="AI37" s="69"/>
-      <c r="AJ37" s="157"/>
-      <c r="AK37" s="157"/>
-      <c r="AL37" s="153"/>
-      <c r="AM37" s="98"/>
-      <c r="AN37" s="98"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="141"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="58"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="140"/>
+      <c r="Q37" s="141"/>
+      <c r="R37" s="58"/>
+      <c r="S37" s="50"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="58"/>
+      <c r="W37" s="50"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="70"/>
+      <c r="AA37" s="43"/>
+      <c r="AB37" s="71"/>
+      <c r="AC37" s="41"/>
+      <c r="AD37" s="42"/>
+      <c r="AE37" s="43"/>
+      <c r="AF37" s="58"/>
+      <c r="AG37" s="50"/>
+      <c r="AH37" s="51"/>
+      <c r="AI37" s="50"/>
+      <c r="AJ37" s="142"/>
+      <c r="AK37" s="142"/>
+      <c r="AL37" s="112"/>
+      <c r="AM37" s="73"/>
+      <c r="AN37" s="73"/>
     </row>
     <row r="38" spans="1:40" ht="15.75">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="80"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="70"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="80"/>
-      <c r="M38" s="69"/>
-      <c r="N38" s="80"/>
-      <c r="O38" s="69"/>
-      <c r="P38" s="76"/>
-      <c r="Q38" s="77"/>
-      <c r="R38" s="80"/>
-      <c r="S38" s="69"/>
-      <c r="T38" s="70"/>
-      <c r="U38" s="69"/>
-      <c r="V38" s="80"/>
-      <c r="W38" s="69"/>
-      <c r="X38" s="70"/>
-      <c r="Y38" s="69"/>
-      <c r="Z38" s="95"/>
-      <c r="AA38" s="52"/>
-      <c r="AB38" s="96"/>
-      <c r="AC38" s="50">
+      <c r="B38" s="58"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="141"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="140"/>
+      <c r="Q38" s="141"/>
+      <c r="R38" s="58"/>
+      <c r="S38" s="50"/>
+      <c r="T38" s="51"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="58"/>
+      <c r="W38" s="50"/>
+      <c r="X38" s="51"/>
+      <c r="Y38" s="50"/>
+      <c r="Z38" s="70"/>
+      <c r="AA38" s="43"/>
+      <c r="AB38" s="71"/>
+      <c r="AC38" s="41">
         <v>2</v>
       </c>
-      <c r="AD38" s="51"/>
-      <c r="AE38" s="52"/>
-      <c r="AF38" s="80"/>
-      <c r="AG38" s="69"/>
-      <c r="AH38" s="70"/>
-      <c r="AI38" s="69"/>
-      <c r="AJ38" s="157"/>
-      <c r="AK38" s="157"/>
-      <c r="AL38" s="153"/>
-      <c r="AM38" s="98"/>
-      <c r="AN38" s="98"/>
+      <c r="AD38" s="42"/>
+      <c r="AE38" s="43"/>
+      <c r="AF38" s="58"/>
+      <c r="AG38" s="50"/>
+      <c r="AH38" s="51"/>
+      <c r="AI38" s="50"/>
+      <c r="AJ38" s="142"/>
+      <c r="AK38" s="142"/>
+      <c r="AL38" s="112"/>
+      <c r="AM38" s="73"/>
+      <c r="AN38" s="73"/>
     </row>
     <row r="39" spans="1:40" ht="15.75">
-      <c r="A39" s="152" t="s">
+      <c r="A39" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="80"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="70"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="80"/>
-      <c r="M39" s="69"/>
-      <c r="N39" s="80"/>
-      <c r="O39" s="69"/>
-      <c r="P39" s="76"/>
-      <c r="Q39" s="77"/>
-      <c r="R39" s="80"/>
-      <c r="S39" s="69"/>
-      <c r="T39" s="70"/>
-      <c r="U39" s="69"/>
-      <c r="V39" s="80"/>
-      <c r="W39" s="69"/>
-      <c r="X39" s="70"/>
-      <c r="Y39" s="69"/>
-      <c r="Z39" s="95"/>
-      <c r="AA39" s="52"/>
-      <c r="AB39" s="96">
+      <c r="B39" s="58"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="140"/>
+      <c r="E39" s="141"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="140"/>
+      <c r="Q39" s="141"/>
+      <c r="R39" s="58"/>
+      <c r="S39" s="50"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="58"/>
+      <c r="W39" s="50"/>
+      <c r="X39" s="51"/>
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="70"/>
+      <c r="AA39" s="43"/>
+      <c r="AB39" s="71">
         <v>2</v>
       </c>
-      <c r="AC39" s="50"/>
-      <c r="AD39" s="51"/>
-      <c r="AE39" s="52"/>
-      <c r="AF39" s="80"/>
-      <c r="AG39" s="69"/>
-      <c r="AH39" s="70"/>
-      <c r="AI39" s="69"/>
-      <c r="AJ39" s="97"/>
+      <c r="AC39" s="41"/>
+      <c r="AD39" s="42"/>
+      <c r="AE39" s="43"/>
+      <c r="AF39" s="58"/>
+      <c r="AG39" s="50"/>
+      <c r="AH39" s="51"/>
+      <c r="AI39" s="50"/>
+      <c r="AJ39" s="72"/>
       <c r="AK39" s="12">
         <v>2</v>
       </c>
-      <c r="AL39" s="153">
+      <c r="AL39" s="112">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AM39" s="154"/>
-      <c r="AN39" s="154"/>
+      <c r="AM39" s="113"/>
+      <c r="AN39" s="113"/>
     </row>
     <row r="40" spans="1:40" ht="15.75">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="80"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="69"/>
-      <c r="J40" s="70"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="80"/>
-      <c r="M40" s="69"/>
-      <c r="N40" s="80"/>
-      <c r="O40" s="69"/>
-      <c r="P40" s="76"/>
-      <c r="Q40" s="77"/>
-      <c r="R40" s="80"/>
-      <c r="S40" s="69"/>
-      <c r="T40" s="70"/>
-      <c r="U40" s="69"/>
-      <c r="V40" s="80"/>
-      <c r="W40" s="69"/>
-      <c r="X40" s="70"/>
-      <c r="Y40" s="69"/>
-      <c r="Z40" s="95"/>
-      <c r="AA40" s="52"/>
-      <c r="AB40" s="96"/>
-      <c r="AC40" s="50">
+      <c r="B40" s="58"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="141"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="58"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="140"/>
+      <c r="Q40" s="141"/>
+      <c r="R40" s="58"/>
+      <c r="S40" s="50"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="50"/>
+      <c r="V40" s="58"/>
+      <c r="W40" s="50"/>
+      <c r="X40" s="51"/>
+      <c r="Y40" s="50"/>
+      <c r="Z40" s="70"/>
+      <c r="AA40" s="43"/>
+      <c r="AB40" s="71"/>
+      <c r="AC40" s="41">
         <v>3</v>
       </c>
-      <c r="AD40" s="51"/>
-      <c r="AE40" s="52"/>
-      <c r="AF40" s="80"/>
-      <c r="AG40" s="69"/>
-      <c r="AH40" s="70"/>
-      <c r="AI40" s="69"/>
-      <c r="AJ40" s="157"/>
-      <c r="AK40" s="157"/>
-      <c r="AL40" s="153"/>
-      <c r="AM40" s="98"/>
-      <c r="AN40" s="98"/>
+      <c r="AD40" s="42"/>
+      <c r="AE40" s="43"/>
+      <c r="AF40" s="58"/>
+      <c r="AG40" s="50"/>
+      <c r="AH40" s="51"/>
+      <c r="AI40" s="50"/>
+      <c r="AJ40" s="142"/>
+      <c r="AK40" s="142"/>
+      <c r="AL40" s="112"/>
+      <c r="AM40" s="73"/>
+      <c r="AN40" s="73"/>
     </row>
     <row r="41" spans="1:40" ht="15.75">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="80"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="70"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="80"/>
-      <c r="M41" s="69"/>
-      <c r="N41" s="80"/>
-      <c r="O41" s="69"/>
-      <c r="P41" s="76"/>
-      <c r="Q41" s="77"/>
-      <c r="R41" s="80"/>
-      <c r="S41" s="69"/>
-      <c r="T41" s="70"/>
-      <c r="U41" s="69"/>
-      <c r="V41" s="80"/>
-      <c r="W41" s="69"/>
-      <c r="X41" s="70"/>
-      <c r="Y41" s="69"/>
-      <c r="Z41" s="95"/>
-      <c r="AA41" s="52"/>
-      <c r="AB41" s="96"/>
-      <c r="AC41" s="50">
+      <c r="B41" s="58"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="141"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="58"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="140"/>
+      <c r="Q41" s="141"/>
+      <c r="R41" s="58"/>
+      <c r="S41" s="50"/>
+      <c r="T41" s="51"/>
+      <c r="U41" s="50"/>
+      <c r="V41" s="58"/>
+      <c r="W41" s="50"/>
+      <c r="X41" s="51"/>
+      <c r="Y41" s="50"/>
+      <c r="Z41" s="70"/>
+      <c r="AA41" s="43"/>
+      <c r="AB41" s="71"/>
+      <c r="AC41" s="41">
         <v>2</v>
       </c>
-      <c r="AD41" s="51"/>
-      <c r="AE41" s="52"/>
-      <c r="AF41" s="80"/>
-      <c r="AG41" s="69"/>
-      <c r="AH41" s="70"/>
-      <c r="AI41" s="69"/>
-      <c r="AJ41" s="157"/>
-      <c r="AK41" s="157"/>
-      <c r="AL41" s="153"/>
-      <c r="AM41" s="98"/>
-      <c r="AN41" s="98"/>
+      <c r="AD41" s="42"/>
+      <c r="AE41" s="43"/>
+      <c r="AF41" s="58"/>
+      <c r="AG41" s="50"/>
+      <c r="AH41" s="51"/>
+      <c r="AI41" s="50"/>
+      <c r="AJ41" s="142"/>
+      <c r="AK41" s="142"/>
+      <c r="AL41" s="112"/>
+      <c r="AM41" s="73"/>
+      <c r="AN41" s="73"/>
     </row>
     <row r="42" spans="1:40" ht="15.75">
-      <c r="A42" s="152" t="s">
+      <c r="A42" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="80"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="80"/>
-      <c r="M42" s="69"/>
-      <c r="N42" s="80"/>
-      <c r="O42" s="69"/>
-      <c r="P42" s="76"/>
-      <c r="Q42" s="77"/>
-      <c r="R42" s="80"/>
-      <c r="S42" s="69"/>
-      <c r="T42" s="70"/>
-      <c r="U42" s="69"/>
-      <c r="V42" s="80"/>
-      <c r="W42" s="69"/>
-      <c r="X42" s="70"/>
-      <c r="Y42" s="69"/>
-      <c r="Z42" s="95"/>
-      <c r="AA42" s="52"/>
-      <c r="AB42" s="96">
+      <c r="B42" s="58"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="141"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="58"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="140"/>
+      <c r="Q42" s="141"/>
+      <c r="R42" s="58"/>
+      <c r="S42" s="50"/>
+      <c r="T42" s="51"/>
+      <c r="U42" s="50"/>
+      <c r="V42" s="58"/>
+      <c r="W42" s="50"/>
+      <c r="X42" s="51"/>
+      <c r="Y42" s="50"/>
+      <c r="Z42" s="70"/>
+      <c r="AA42" s="43"/>
+      <c r="AB42" s="71">
         <v>5</v>
       </c>
-      <c r="AC42" s="50"/>
-      <c r="AD42" s="51"/>
-      <c r="AE42" s="52"/>
-      <c r="AF42" s="80"/>
-      <c r="AG42" s="69"/>
-      <c r="AH42" s="70"/>
-      <c r="AI42" s="69"/>
-      <c r="AJ42" s="97"/>
+      <c r="AC42" s="41"/>
+      <c r="AD42" s="42"/>
+      <c r="AE42" s="43"/>
+      <c r="AF42" s="58"/>
+      <c r="AG42" s="50"/>
+      <c r="AH42" s="51"/>
+      <c r="AI42" s="50"/>
+      <c r="AJ42" s="72"/>
       <c r="AK42" s="12">
         <v>5</v>
       </c>
-      <c r="AL42" s="153">
+      <c r="AL42" s="112">
         <v>0.71</v>
       </c>
-      <c r="AM42" s="154"/>
-      <c r="AN42" s="154"/>
+      <c r="AM42" s="113"/>
+      <c r="AN42" s="113"/>
     </row>
     <row r="43" spans="1:40" ht="16.5" thickBot="1">
-      <c r="A43" s="99" t="s">
+      <c r="A43" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="143"/>
-      <c r="C43" s="144"/>
-      <c r="D43" s="159"/>
-      <c r="E43" s="160"/>
-      <c r="F43" s="143"/>
-      <c r="G43" s="144"/>
-      <c r="H43" s="155"/>
-      <c r="I43" s="144"/>
-      <c r="J43" s="155"/>
-      <c r="K43" s="144"/>
-      <c r="L43" s="143"/>
-      <c r="M43" s="144"/>
-      <c r="N43" s="143"/>
-      <c r="O43" s="144"/>
-      <c r="P43" s="159"/>
-      <c r="Q43" s="160"/>
-      <c r="R43" s="143"/>
-      <c r="S43" s="144"/>
-      <c r="T43" s="70"/>
-      <c r="U43" s="69"/>
-      <c r="V43" s="80"/>
-      <c r="W43" s="69"/>
-      <c r="X43" s="70"/>
-      <c r="Y43" s="69"/>
-      <c r="Z43" s="95"/>
-      <c r="AA43" s="52"/>
-      <c r="AB43" s="96"/>
-      <c r="AC43" s="50"/>
-      <c r="AD43" s="51"/>
-      <c r="AE43" s="52"/>
-      <c r="AF43" s="80"/>
-      <c r="AG43" s="69"/>
-      <c r="AH43" s="70"/>
-      <c r="AI43" s="69"/>
-      <c r="AJ43" s="157"/>
-      <c r="AK43" s="157"/>
-      <c r="AL43" s="153"/>
-      <c r="AM43" s="156"/>
-      <c r="AN43" s="156"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="143"/>
+      <c r="E43" s="144"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="108"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="108"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="108"/>
+      <c r="L43" s="107"/>
+      <c r="M43" s="108"/>
+      <c r="N43" s="107"/>
+      <c r="O43" s="108"/>
+      <c r="P43" s="143"/>
+      <c r="Q43" s="144"/>
+      <c r="R43" s="107"/>
+      <c r="S43" s="108"/>
+      <c r="T43" s="51"/>
+      <c r="U43" s="50"/>
+      <c r="V43" s="58"/>
+      <c r="W43" s="50"/>
+      <c r="X43" s="51"/>
+      <c r="Y43" s="50"/>
+      <c r="Z43" s="70"/>
+      <c r="AA43" s="43"/>
+      <c r="AB43" s="71"/>
+      <c r="AC43" s="41"/>
+      <c r="AD43" s="42"/>
+      <c r="AE43" s="43"/>
+      <c r="AF43" s="58"/>
+      <c r="AG43" s="50"/>
+      <c r="AH43" s="51"/>
+      <c r="AI43" s="50"/>
+      <c r="AJ43" s="142"/>
+      <c r="AK43" s="142"/>
+      <c r="AL43" s="112"/>
+      <c r="AM43" s="115"/>
+      <c r="AN43" s="115"/>
     </row>
     <row r="44" spans="1:40" ht="16.5" thickTop="1">
-      <c r="A44" s="171" t="s">
+      <c r="A44" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="172">
+      <c r="B44" s="123">
         <v>4</v>
       </c>
-      <c r="C44" s="173"/>
-      <c r="D44" s="174">
+      <c r="C44" s="124"/>
+      <c r="D44" s="125">
         <v>3</v>
       </c>
-      <c r="E44" s="174"/>
-      <c r="F44" s="172"/>
-      <c r="G44" s="173">
+      <c r="E44" s="125"/>
+      <c r="F44" s="123"/>
+      <c r="G44" s="124">
         <v>2</v>
       </c>
-      <c r="H44" s="174"/>
-      <c r="I44" s="173">
+      <c r="H44" s="125"/>
+      <c r="I44" s="124">
         <v>2</v>
       </c>
-      <c r="J44" s="174"/>
-      <c r="K44" s="173">
+      <c r="J44" s="125"/>
+      <c r="K44" s="124">
         <v>2</v>
       </c>
-      <c r="L44" s="175"/>
-      <c r="M44" s="176">
+      <c r="L44" s="126"/>
+      <c r="M44" s="127">
         <v>1</v>
       </c>
-      <c r="N44" s="175"/>
-      <c r="O44" s="176">
+      <c r="N44" s="126"/>
+      <c r="O44" s="127">
         <v>4</v>
       </c>
-      <c r="P44" s="180">
+      <c r="P44" s="137">
         <v>1</v>
       </c>
-      <c r="Q44" s="181"/>
-      <c r="R44" s="175">
+      <c r="Q44" s="138"/>
+      <c r="R44" s="126">
         <v>7</v>
       </c>
-      <c r="S44" s="176"/>
-      <c r="T44" s="177">
+      <c r="S44" s="127"/>
+      <c r="T44" s="128">
         <v>1</v>
       </c>
-      <c r="U44" s="176"/>
-      <c r="V44" s="175">
+      <c r="U44" s="127"/>
+      <c r="V44" s="126">
         <v>7</v>
       </c>
-      <c r="W44" s="176"/>
-      <c r="X44" s="177">
+      <c r="W44" s="127"/>
+      <c r="X44" s="128">
         <v>1</v>
       </c>
-      <c r="Y44" s="176"/>
-      <c r="Z44" s="175">
+      <c r="Y44" s="127"/>
+      <c r="Z44" s="126">
         <v>10</v>
       </c>
-      <c r="AA44" s="176"/>
-      <c r="AB44" s="177">
+      <c r="AA44" s="127"/>
+      <c r="AB44" s="128">
         <v>7</v>
       </c>
-      <c r="AC44" s="176"/>
-      <c r="AD44" s="177">
+      <c r="AC44" s="127"/>
+      <c r="AD44" s="128">
         <v>2</v>
       </c>
-      <c r="AE44" s="176"/>
-      <c r="AF44" s="175"/>
-      <c r="AG44" s="176"/>
-      <c r="AH44" s="177"/>
-      <c r="AI44" s="176"/>
-      <c r="AJ44" s="182"/>
-      <c r="AK44" s="182"/>
-      <c r="AL44" s="178"/>
-      <c r="AM44" s="179"/>
-      <c r="AN44" s="179"/>
+      <c r="AE44" s="127"/>
+      <c r="AF44" s="126"/>
+      <c r="AG44" s="127"/>
+      <c r="AH44" s="128"/>
+      <c r="AI44" s="127"/>
+      <c r="AJ44" s="139"/>
+      <c r="AK44" s="139"/>
+      <c r="AL44" s="129"/>
+      <c r="AM44" s="130"/>
+      <c r="AN44" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="AJ44:AK44"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="AJ41:AK41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="AJ43:AK43"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="AJ38:AK38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="AJ40:AK40"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="AJ36:AK36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="AJ37:AK37"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="AJ20:AK20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="AJ26:AK26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="AJ29:AK29"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="P26:Q26"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="P33:Q33"/>
     <mergeCell ref="D34:E34"/>
@@ -8274,74 +6572,30 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="P32:Q32"/>
     <mergeCell ref="AJ32:AK32"/>
-    <mergeCell ref="AJ26:AK26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="AJ29:AK29"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="AJ20:AK20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="AJ14:AK14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="AJ38:AK38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="AJ40:AK40"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="AJ36:AK36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="AJ37:AK37"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="AJ44:AK44"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="AJ41:AK41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="AJ43:AK43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8351,18 +6605,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D25FF83-3854-4979-844F-A36A3E292047}">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="187" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="134" customWidth="1"/>
     <col min="7" max="7" width="33" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
@@ -8370,34 +6624,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" thickBot="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="161" t="s">
+      <c r="C1" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="162" t="s">
+      <c r="D1" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="162" t="s">
+      <c r="E1" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="186" t="s">
+      <c r="F1" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="161" t="s">
+      <c r="G1" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="161" t="s">
+      <c r="H1" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="161" t="s">
+      <c r="I1" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="161" t="s">
+      <c r="J1" s="116" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8414,7 +6668,7 @@
       <c r="E2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="187">
+      <c r="F2" s="134">
         <v>1</v>
       </c>
       <c r="G2">
@@ -8445,7 +6699,7 @@
       <c r="E3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="187">
+      <c r="F3" s="134">
         <v>1</v>
       </c>
       <c r="G3">
@@ -8455,11 +6709,11 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="0">(G3/F3)*100</f>
+        <f>(G3/F3)*100</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" si="1">(H3/F3)*100</f>
+        <f>(H3/F3)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -8476,7 +6730,7 @@
       <c r="E4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="187">
+      <c r="F4" s="134">
         <v>1</v>
       </c>
       <c r="G4">
@@ -8486,11 +6740,11 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f>(G4/F4)*100</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
+        <f>(H4/F4)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -8507,7 +6761,7 @@
       <c r="E5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="187">
+      <c r="F5" s="134">
         <v>1</v>
       </c>
       <c r="G5">
@@ -8517,43 +6771,43 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f>(G5/F5)*100</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f>(H5/F5)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="163" t="s">
+      <c r="A6" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="163" t="s">
+      <c r="B6" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="166"/>
-      <c r="D6" s="164">
+      <c r="C6" s="120"/>
+      <c r="D6" s="119">
         <v>45778</v>
       </c>
-      <c r="E6" s="164" t="s">
+      <c r="E6" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="188">
+      <c r="F6" s="135">
         <v>1</v>
       </c>
-      <c r="G6" s="163">
+      <c r="G6" s="118">
         <v>1</v>
       </c>
-      <c r="H6" s="163">
+      <c r="H6" s="118">
         <v>0</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f>(G6/F6)*100</f>
         <v>100</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f>(H6/F6)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -8570,7 +6824,7 @@
       <c r="E7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="187">
+      <c r="F7" s="134">
         <v>7</v>
       </c>
       <c r="G7">
@@ -8580,11 +6834,11 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
+        <f>(G7/F7)*100</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f>(H7/F7)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -8601,7 +6855,7 @@
       <c r="E8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="187">
+      <c r="F8" s="134">
         <v>7</v>
       </c>
       <c r="G8">
@@ -8611,11 +6865,11 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f>(G8/F8)*100</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f>(H8/F8)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -8632,7 +6886,7 @@
       <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="187">
+      <c r="F9" s="134">
         <v>7</v>
       </c>
       <c r="G9">
@@ -8642,11 +6896,11 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f>(G9/F9)*100</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f>(H9/F9)*100</f>
         <v>14.285714285714285</v>
       </c>
     </row>
@@ -8663,7 +6917,7 @@
       <c r="E10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="187">
+      <c r="F10" s="134">
         <v>7</v>
       </c>
       <c r="G10">
@@ -8673,43 +6927,43 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f>(G10/F10)*100</f>
         <v>0</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f>(H10/F10)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="163" t="s">
+      <c r="A11" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="163" t="s">
+      <c r="B11" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="166"/>
-      <c r="D11" s="164">
+      <c r="C11" s="120"/>
+      <c r="D11" s="119">
         <v>45839</v>
       </c>
-      <c r="E11" s="164" t="s">
+      <c r="E11" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="188">
+      <c r="F11" s="135">
         <v>7</v>
       </c>
-      <c r="G11" s="163">
+      <c r="G11" s="118">
         <v>6</v>
       </c>
-      <c r="H11" s="163">
+      <c r="H11" s="118">
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f>(G11/F11)*100</f>
         <v>85.714285714285708</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f>(H11/F11)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -8726,7 +6980,7 @@
       <c r="E12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="187">
+      <c r="F12" s="134">
         <v>7</v>
       </c>
       <c r="G12">
@@ -8736,11 +6990,11 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f>(G12/F12)*100</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f>(H12/F12)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -8757,7 +7011,7 @@
       <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="187">
+      <c r="F13" s="134">
         <v>7</v>
       </c>
       <c r="G13">
@@ -8767,11 +7021,11 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f>(G13/F13)*100</f>
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f>(H13/F13)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -8788,7 +7042,7 @@
       <c r="E14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="187">
+      <c r="F14" s="134">
         <v>7</v>
       </c>
       <c r="G14">
@@ -8798,11 +7052,11 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f>(G14/F14)*100</f>
         <v>0</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
+        <f>(H14/F14)*100</f>
         <v>14.285714285714285</v>
       </c>
     </row>
@@ -8819,7 +7073,7 @@
       <c r="E15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="187">
+      <c r="F15" s="134">
         <v>7</v>
       </c>
       <c r="G15">
@@ -8829,368 +7083,362 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f>(G15/F15)*100</f>
         <v>0</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
+        <f>(H15/F15)*100</f>
         <v>14.285714285714285</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="163" t="s">
+      <c r="A16" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="163" t="s">
+      <c r="B16" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="166"/>
-      <c r="D16" s="164">
+      <c r="C16" s="120"/>
+      <c r="D16" s="119">
         <v>45901</v>
       </c>
-      <c r="E16" s="164" t="s">
+      <c r="E16" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="188">
+      <c r="F16" s="135">
         <v>7</v>
       </c>
-      <c r="G16" s="163">
+      <c r="G16" s="118">
         <v>5</v>
       </c>
-      <c r="H16" s="163">
+      <c r="H16" s="118">
         <v>0</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f>(G16/F16)*100</f>
         <v>71.428571428571431</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
+        <f>(H16/F16)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="165" t="s">
+      <c r="A17" t="s">
         <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="167"/>
+      <c r="C17" s="121"/>
       <c r="D17" s="2">
         <v>45839</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="187">
+      <c r="F17" s="134">
         <v>1</v>
       </c>
-      <c r="G17" s="165">
-        <v>0</v>
-      </c>
-      <c r="H17" s="165">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
+        <f>(G17/F17)*100</f>
         <v>0</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
+        <f>(H17/F17)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="165" t="s">
+      <c r="A18" t="s">
         <v>35</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="165"/>
       <c r="D18" s="2">
         <v>45839</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="187">
+      <c r="F18" s="134">
         <v>1</v>
       </c>
-      <c r="G18" s="165">
+      <c r="G18">
         <v>1</v>
       </c>
-      <c r="H18" s="165">
+      <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
+        <f>(G18/F18)*100</f>
         <v>100</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f>(H18/F18)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="165" t="s">
+      <c r="A19" t="s">
         <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="165"/>
       <c r="D19" s="2">
         <v>45839</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="187">
+      <c r="F19" s="134">
         <v>1</v>
       </c>
-      <c r="G19" s="165">
-        <v>0</v>
-      </c>
-      <c r="H19" s="165">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
+        <f>(G19/F19)*100</f>
         <v>0</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
+        <f>(H19/F19)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="165" t="s">
+      <c r="A20" t="s">
         <v>35</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="165"/>
       <c r="D20" s="2">
         <v>45839</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="187">
+      <c r="F20" s="134">
         <v>1</v>
       </c>
-      <c r="G20" s="165">
-        <v>0</v>
-      </c>
-      <c r="H20" s="165">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
+        <f>(G20/F20)*100</f>
         <v>0</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
+        <f>(H20/F20)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="168" t="s">
+      <c r="A21" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="163" t="s">
+      <c r="B21" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="168"/>
-      <c r="D21" s="164">
+      <c r="C21" s="118"/>
+      <c r="D21" s="119">
         <v>45839</v>
       </c>
-      <c r="E21" s="164" t="s">
+      <c r="E21" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="188">
+      <c r="F21" s="135">
         <v>1</v>
       </c>
-      <c r="G21" s="168">
-        <v>0</v>
-      </c>
-      <c r="H21" s="168">
+      <c r="G21" s="118">
+        <v>0</v>
+      </c>
+      <c r="H21" s="118">
         <v>0</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
+        <f>(G21/F21)*100</f>
         <v>0</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
+        <f>(H21/F21)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="165" t="s">
+      <c r="A22" t="s">
         <v>35</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="167"/>
+      <c r="C22" s="121"/>
       <c r="D22" s="2">
         <v>45931</v>
       </c>
-      <c r="E22" s="169" t="s">
+      <c r="E22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="189">
+      <c r="F22" s="134">
         <v>2</v>
       </c>
-      <c r="G22" s="165">
+      <c r="G22">
         <v>2</v>
       </c>
-      <c r="H22" s="165">
+      <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
+        <f>(G22/F22)*100</f>
         <v>100</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
+        <f>(H22/F22)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="165" t="s">
+      <c r="A23" t="s">
         <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="165"/>
       <c r="D23" s="2">
         <v>45931</v>
       </c>
-      <c r="E23" s="169" t="s">
+      <c r="E23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="189">
+      <c r="F23" s="134">
         <v>2</v>
       </c>
-      <c r="G23" s="165">
+      <c r="G23">
         <v>1</v>
       </c>
-      <c r="H23" s="165">
+      <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
+        <f>(G23/F23)*100</f>
         <v>50</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
+        <f>(H23/F23)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="165" t="s">
+      <c r="A24" t="s">
         <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="165"/>
       <c r="D24" s="2">
         <v>45931</v>
       </c>
-      <c r="E24" s="169" t="s">
+      <c r="E24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="189">
+      <c r="F24" s="134">
         <v>2</v>
       </c>
-      <c r="G24" s="165">
+      <c r="G24">
         <v>1</v>
       </c>
-      <c r="H24" s="165">
+      <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
+        <f>(G24/F24)*100</f>
         <v>50</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
+        <f>(H24/F24)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="165" t="s">
+      <c r="A25" t="s">
         <v>35</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="165"/>
       <c r="D25" s="2">
         <v>45931</v>
       </c>
-      <c r="E25" s="169" t="s">
+      <c r="E25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="189">
+      <c r="F25" s="134">
         <v>2</v>
       </c>
-      <c r="G25" s="165">
-        <v>0</v>
-      </c>
-      <c r="H25" s="165">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <f t="shared" si="0"/>
+        <f>(G25/F25)*100</f>
         <v>0</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
+        <f>(H25/F25)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="168" t="s">
+      <c r="A26" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="163" t="s">
+      <c r="B26" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="168"/>
-      <c r="D26" s="164">
+      <c r="C26" s="118"/>
+      <c r="D26" s="119">
         <v>45931</v>
       </c>
-      <c r="E26" s="170" t="s">
+      <c r="E26" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="190">
+      <c r="F26" s="135">
         <v>2</v>
       </c>
-      <c r="G26" s="168">
+      <c r="G26" s="118">
         <v>2</v>
       </c>
-      <c r="H26" s="168">
+      <c r="H26" s="118">
         <v>0</v>
       </c>
       <c r="I26">
-        <f t="shared" si="0"/>
+        <f>(G26/F26)*100</f>
         <v>100</v>
       </c>
       <c r="J26">
-        <f t="shared" si="1"/>
+        <f>(H26/F26)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="165" t="s">
+      <c r="A27" t="s">
         <v>42</v>
       </c>
       <c r="B27" t="s">
@@ -9199,29 +7447,29 @@
       <c r="D27" s="2">
         <v>45658</v>
       </c>
-      <c r="E27" s="169" t="s">
+      <c r="E27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="189">
+      <c r="F27" s="134">
         <v>4</v>
       </c>
-      <c r="G27" s="165">
+      <c r="G27">
         <v>4</v>
       </c>
-      <c r="H27" s="165">
+      <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <f t="shared" si="0"/>
+        <f>(G27/F27)*100</f>
         <v>100</v>
       </c>
       <c r="J27">
-        <f t="shared" si="1"/>
+        <f>(H27/F27)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="165" t="s">
+      <c r="A28" t="s">
         <v>42</v>
       </c>
       <c r="B28" t="s">
@@ -9230,29 +7478,29 @@
       <c r="D28" s="2">
         <v>45658</v>
       </c>
-      <c r="E28" s="169" t="s">
+      <c r="E28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="189">
+      <c r="F28" s="134">
         <v>4</v>
       </c>
-      <c r="G28" s="165">
+      <c r="G28">
         <v>4</v>
       </c>
-      <c r="H28" s="165">
+      <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <f t="shared" si="0"/>
+        <f>(G28/F28)*100</f>
         <v>100</v>
       </c>
       <c r="J28">
-        <f t="shared" si="1"/>
+        <f>(H28/F28)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="165" t="s">
+      <c r="A29" t="s">
         <v>42</v>
       </c>
       <c r="B29" t="s">
@@ -9261,29 +7509,29 @@
       <c r="D29" s="2">
         <v>45658</v>
       </c>
-      <c r="E29" s="169" t="s">
+      <c r="E29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="189">
+      <c r="F29" s="134">
         <v>4</v>
       </c>
-      <c r="G29" s="165">
+      <c r="G29">
         <v>4</v>
       </c>
-      <c r="H29" s="165">
+      <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <f t="shared" si="0"/>
+        <f>(G29/F29)*100</f>
         <v>100</v>
       </c>
       <c r="J29">
-        <f t="shared" si="1"/>
+        <f>(H29/F29)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="165" t="s">
+      <c r="A30" t="s">
         <v>42</v>
       </c>
       <c r="B30" t="s">
@@ -9292,61 +7540,61 @@
       <c r="D30" s="2">
         <v>45658</v>
       </c>
-      <c r="E30" s="169" t="s">
+      <c r="E30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="189">
+      <c r="F30" s="134">
         <v>4</v>
       </c>
-      <c r="G30" s="165">
+      <c r="G30">
         <v>4</v>
       </c>
-      <c r="H30" s="165">
+      <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <f t="shared" si="0"/>
+        <f>(G30/F30)*100</f>
         <v>100</v>
       </c>
       <c r="J30">
-        <f t="shared" si="1"/>
+        <f>(H30/F30)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="168" t="s">
+      <c r="A31" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="163" t="s">
+      <c r="B31" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="163"/>
-      <c r="D31" s="164">
+      <c r="C31" s="118"/>
+      <c r="D31" s="119">
         <v>45658</v>
       </c>
-      <c r="E31" s="170" t="s">
+      <c r="E31" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="190">
+      <c r="F31" s="135">
         <v>4</v>
       </c>
-      <c r="G31" s="168">
+      <c r="G31" s="118">
         <v>4</v>
       </c>
-      <c r="H31" s="168">
+      <c r="H31" s="118">
         <v>0</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
+        <f>(G31/F31)*100</f>
         <v>100</v>
       </c>
       <c r="J31">
-        <f t="shared" si="1"/>
+        <f>(H31/F31)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="165" t="s">
+      <c r="A32" t="s">
         <v>42</v>
       </c>
       <c r="B32" t="s">
@@ -9355,29 +7603,29 @@
       <c r="D32" s="2">
         <v>45717</v>
       </c>
-      <c r="E32" s="169" t="s">
+      <c r="E32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="189">
+      <c r="F32" s="134">
         <v>2</v>
       </c>
-      <c r="G32" s="165">
+      <c r="G32">
         <v>2</v>
       </c>
-      <c r="H32" s="165">
+      <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
+        <f>(G32/F32)*100</f>
         <v>100</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
+        <f>(H32/F32)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="165" t="s">
+      <c r="A33" t="s">
         <v>42</v>
       </c>
       <c r="B33" t="s">
@@ -9386,29 +7634,29 @@
       <c r="D33" s="2">
         <v>45717</v>
       </c>
-      <c r="E33" s="169" t="s">
+      <c r="E33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="189">
+      <c r="F33" s="134">
         <v>2</v>
       </c>
-      <c r="G33" s="165">
+      <c r="G33">
         <v>2</v>
       </c>
-      <c r="H33" s="165">
+      <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
+        <f>(G33/F33)*100</f>
         <v>100</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
+        <f>(H33/F33)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="165" t="s">
+      <c r="A34" t="s">
         <v>42</v>
       </c>
       <c r="B34" t="s">
@@ -9417,29 +7665,29 @@
       <c r="D34" s="2">
         <v>45717</v>
       </c>
-      <c r="E34" s="169" t="s">
+      <c r="E34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="189">
+      <c r="F34" s="134">
         <v>2</v>
       </c>
-      <c r="G34" s="165">
+      <c r="G34">
         <v>2</v>
       </c>
-      <c r="H34" s="165">
+      <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
+        <f>(G34/F34)*100</f>
         <v>100</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
+        <f>(H34/F34)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="165" t="s">
+      <c r="A35" t="s">
         <v>42</v>
       </c>
       <c r="B35" t="s">
@@ -9448,1030 +7696,1030 @@
       <c r="D35" s="2">
         <v>45717</v>
       </c>
-      <c r="E35" s="169" t="s">
+      <c r="E35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="189">
+      <c r="F35" s="134">
         <v>2</v>
       </c>
-      <c r="G35" s="165">
+      <c r="G35">
         <v>2</v>
       </c>
-      <c r="H35" s="165">
+      <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <f t="shared" si="0"/>
+        <f>(G35/F35)*100</f>
         <v>100</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
+        <f>(H35/F35)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="168" t="s">
+      <c r="A36" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="163" t="s">
+      <c r="B36" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="163"/>
-      <c r="D36" s="164">
+      <c r="C36" s="118"/>
+      <c r="D36" s="119">
         <v>45717</v>
       </c>
-      <c r="E36" s="170" t="s">
+      <c r="E36" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="190">
+      <c r="F36" s="135">
         <v>2</v>
       </c>
-      <c r="G36" s="168">
+      <c r="G36" s="118">
         <v>2</v>
       </c>
-      <c r="H36" s="168">
+      <c r="H36" s="118">
         <v>0</v>
       </c>
       <c r="I36">
-        <f t="shared" si="0"/>
+        <f>(G36/F36)*100</f>
         <v>100</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
+        <f>(H36/F36)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="165" t="s">
+      <c r="A37" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="165" t="s">
+      <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="2">
         <v>45931</v>
       </c>
-      <c r="E37" s="169" t="s">
+      <c r="E37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="189">
+      <c r="F37" s="134">
         <v>10</v>
       </c>
-      <c r="G37" s="165">
+      <c r="G37">
         <v>9</v>
       </c>
-      <c r="H37" s="165">
+      <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <f t="shared" si="0"/>
+        <f>(G37/F37)*100</f>
         <v>90</v>
       </c>
       <c r="J37">
-        <f t="shared" si="1"/>
+        <f>(H37/F37)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="165" t="s">
+      <c r="A38" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="165" t="s">
+      <c r="B38" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2">
         <v>45931</v>
       </c>
-      <c r="E38" s="169" t="s">
+      <c r="E38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="189">
+      <c r="F38" s="134">
         <v>10</v>
       </c>
-      <c r="G38" s="165">
+      <c r="G38">
         <v>9</v>
       </c>
-      <c r="H38" s="165">
+      <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <f t="shared" si="0"/>
+        <f>(G38/F38)*100</f>
         <v>90</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
+        <f>(H38/F38)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="165" t="s">
+      <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="165" t="s">
+      <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="2">
         <v>45931</v>
       </c>
-      <c r="E39" s="169" t="s">
+      <c r="E39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="189">
+      <c r="F39" s="134">
         <v>10</v>
       </c>
-      <c r="G39" s="165">
+      <c r="G39">
         <v>10</v>
       </c>
-      <c r="H39" s="165">
+      <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <f t="shared" si="0"/>
+        <f>(G39/F39)*100</f>
         <v>100</v>
       </c>
       <c r="J39">
-        <f t="shared" si="1"/>
+        <f>(H39/F39)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="165" t="s">
+      <c r="A40" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="165" t="s">
+      <c r="B40" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="2">
         <v>45931</v>
       </c>
-      <c r="E40" s="169" t="s">
+      <c r="E40" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F40" s="189">
+      <c r="F40" s="134">
         <v>10</v>
       </c>
-      <c r="G40" s="165">
+      <c r="G40">
         <v>10</v>
       </c>
-      <c r="H40" s="165">
+      <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <f t="shared" si="0"/>
+        <f>(G40/F40)*100</f>
         <v>100</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
+        <f>(H40/F40)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="168" t="s">
+      <c r="A41" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="168" t="s">
+      <c r="B41" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="163"/>
-      <c r="D41" s="164">
+      <c r="C41" s="118"/>
+      <c r="D41" s="119">
         <v>45931</v>
       </c>
-      <c r="E41" s="170" t="s">
+      <c r="E41" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="190">
+      <c r="F41" s="135">
         <v>10</v>
       </c>
-      <c r="G41" s="168">
+      <c r="G41" s="118">
         <v>10</v>
       </c>
-      <c r="H41" s="168">
+      <c r="H41" s="118">
         <v>0</v>
       </c>
       <c r="I41">
-        <f t="shared" si="0"/>
+        <f>(G41/F41)*100</f>
         <v>100</v>
       </c>
       <c r="J41">
-        <f t="shared" si="1"/>
+        <f>(H41/F41)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="165" t="s">
+      <c r="A42" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="165" t="s">
+      <c r="B42" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="2">
         <v>45658</v>
       </c>
-      <c r="E42" s="169" t="s">
+      <c r="E42" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F42" s="189">
+      <c r="F42" s="134">
         <v>4</v>
       </c>
-      <c r="G42" s="165">
+      <c r="G42">
         <v>4</v>
       </c>
-      <c r="H42" s="165">
+      <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <f t="shared" si="0"/>
+        <f>(G42/F42)*100</f>
         <v>100</v>
       </c>
       <c r="J42">
-        <f t="shared" si="1"/>
+        <f>(H42/F42)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="168" t="s">
+      <c r="A43" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="168" t="s">
+      <c r="B43" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="163"/>
-      <c r="D43" s="164">
+      <c r="C43" s="118"/>
+      <c r="D43" s="119">
         <v>45658</v>
       </c>
-      <c r="E43" s="170" t="s">
+      <c r="E43" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="F43" s="190">
+      <c r="F43" s="135">
         <v>4</v>
       </c>
-      <c r="G43" s="168">
+      <c r="G43" s="118">
         <v>4</v>
       </c>
-      <c r="H43" s="168">
+      <c r="H43" s="118">
         <v>0</v>
       </c>
       <c r="I43">
-        <f t="shared" si="0"/>
+        <f>(G43/F43)*100</f>
         <v>100</v>
       </c>
       <c r="J43">
-        <f t="shared" si="1"/>
+        <f>(H43/F43)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="165" t="s">
+      <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="165" t="s">
+      <c r="B44" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="2">
         <v>45717</v>
       </c>
-      <c r="E44" s="169" t="s">
+      <c r="E44" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="189">
+      <c r="F44" s="134">
         <v>2</v>
       </c>
-      <c r="G44" s="165">
+      <c r="G44">
         <v>2</v>
       </c>
-      <c r="H44" s="165">
+      <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <f t="shared" si="0"/>
+        <f>(G44/F44)*100</f>
         <v>100</v>
       </c>
       <c r="J44">
-        <f t="shared" si="1"/>
+        <f>(H44/F44)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="168" t="s">
+      <c r="A45" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="168" t="s">
+      <c r="B45" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="163"/>
-      <c r="D45" s="164">
+      <c r="C45" s="118"/>
+      <c r="D45" s="119">
         <v>45717</v>
       </c>
-      <c r="E45" s="170" t="s">
+      <c r="E45" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="190">
+      <c r="F45" s="135">
         <v>2</v>
       </c>
-      <c r="G45" s="163">
+      <c r="G45" s="118">
         <v>2</v>
       </c>
-      <c r="H45" s="168">
+      <c r="H45" s="118">
         <v>0</v>
       </c>
       <c r="I45">
-        <f t="shared" si="0"/>
+        <f>(G45/F45)*100</f>
         <v>100</v>
       </c>
       <c r="J45">
-        <f t="shared" si="1"/>
+        <f>(H45/F45)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="165" t="s">
+      <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="165" t="s">
+      <c r="B46" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="2">
         <v>45717</v>
       </c>
-      <c r="E46" s="169" t="s">
+      <c r="E46" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F46" s="189">
+      <c r="F46" s="134">
         <v>2</v>
       </c>
       <c r="G46">
         <v>2</v>
       </c>
-      <c r="H46" s="165">
+      <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
-        <f t="shared" si="0"/>
+        <f>(G46/F46)*100</f>
         <v>100</v>
       </c>
       <c r="J46">
-        <f t="shared" si="1"/>
+        <f>(H46/F46)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="168" t="s">
+      <c r="A47" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="168" t="s">
+      <c r="B47" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="163"/>
-      <c r="D47" s="164">
+      <c r="C47" s="118"/>
+      <c r="D47" s="119">
         <v>45717</v>
       </c>
-      <c r="E47" s="170" t="s">
+      <c r="E47" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="F47" s="190">
+      <c r="F47" s="135">
         <v>2</v>
       </c>
-      <c r="G47" s="163">
+      <c r="G47" s="118">
         <v>2</v>
       </c>
-      <c r="H47" s="168">
+      <c r="H47" s="118">
         <v>0</v>
       </c>
       <c r="I47">
-        <f t="shared" si="0"/>
+        <f>(G47/F47)*100</f>
         <v>100</v>
       </c>
       <c r="J47">
-        <f t="shared" si="1"/>
+        <f>(H47/F47)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="165" t="s">
+      <c r="A48" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="165" t="s">
+      <c r="B48" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="2">
         <v>45839</v>
       </c>
-      <c r="E48" s="169" t="s">
+      <c r="E48" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F48" s="189">
+      <c r="F48" s="134">
         <v>1</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
-      <c r="H48" s="165">
+      <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <f t="shared" si="0"/>
+        <f>(G48/F48)*100</f>
         <v>100</v>
       </c>
       <c r="J48">
-        <f t="shared" si="1"/>
+        <f>(H48/F48)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="168" t="s">
+      <c r="A49" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="168" t="s">
+      <c r="B49" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="163"/>
-      <c r="D49" s="164">
+      <c r="C49" s="118"/>
+      <c r="D49" s="119">
         <v>45839</v>
       </c>
-      <c r="E49" s="170" t="s">
+      <c r="E49" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="F49" s="190">
+      <c r="F49" s="135">
         <v>1</v>
       </c>
-      <c r="G49" s="163">
+      <c r="G49" s="118">
         <v>1</v>
       </c>
-      <c r="H49" s="168">
+      <c r="H49" s="118">
         <v>0</v>
       </c>
       <c r="I49">
-        <f t="shared" si="0"/>
+        <f>(G49/F49)*100</f>
         <v>100</v>
       </c>
       <c r="J49">
-        <f t="shared" si="1"/>
+        <f>(H49/F49)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="165" t="s">
+      <c r="A50" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="165" t="s">
+      <c r="B50" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="2">
         <v>45901</v>
       </c>
-      <c r="E50" s="169" t="s">
+      <c r="E50" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F50" s="189">
+      <c r="F50" s="134">
         <v>7</v>
       </c>
       <c r="G50">
         <v>7</v>
       </c>
-      <c r="H50" s="165">
+      <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <f t="shared" si="0"/>
+        <f>(G50/F50)*100</f>
         <v>100</v>
       </c>
       <c r="J50">
-        <f t="shared" si="1"/>
+        <f>(H50/F50)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="168" t="s">
+      <c r="A51" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="168" t="s">
+      <c r="B51" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="163"/>
-      <c r="D51" s="164">
+      <c r="C51" s="118"/>
+      <c r="D51" s="119">
         <v>45901</v>
       </c>
-      <c r="E51" s="170" t="s">
+      <c r="E51" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="F51" s="190">
+      <c r="F51" s="135">
         <v>7</v>
       </c>
-      <c r="G51" s="163">
+      <c r="G51" s="118">
         <v>7</v>
       </c>
-      <c r="H51" s="168">
+      <c r="H51" s="118">
         <v>0</v>
       </c>
       <c r="I51">
-        <f t="shared" si="0"/>
+        <f>(G51/F51)*100</f>
         <v>100</v>
       </c>
       <c r="J51">
-        <f t="shared" si="1"/>
+        <f>(H51/F51)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="165" t="s">
+      <c r="A52" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="165" t="s">
+      <c r="B52" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="2">
         <v>45901</v>
       </c>
-      <c r="E52" s="169" t="s">
+      <c r="E52" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F52" s="189">
+      <c r="F52" s="134">
         <v>1</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
-      <c r="H52" s="165">
+      <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <f t="shared" si="0"/>
+        <f>(G52/F52)*100</f>
         <v>100</v>
       </c>
       <c r="J52">
-        <f t="shared" si="1"/>
+        <f>(H52/F52)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="168" t="s">
+      <c r="A53" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="168" t="s">
+      <c r="B53" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="163"/>
-      <c r="D53" s="164">
+      <c r="C53" s="118"/>
+      <c r="D53" s="119">
         <v>45901</v>
       </c>
-      <c r="E53" s="170" t="s">
+      <c r="E53" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="F53" s="190">
+      <c r="F53" s="135">
         <v>1</v>
       </c>
-      <c r="G53" s="163">
+      <c r="G53" s="118">
         <v>1</v>
       </c>
-      <c r="H53" s="168">
+      <c r="H53" s="118">
         <v>0</v>
       </c>
       <c r="I53">
-        <f t="shared" si="0"/>
+        <f>(G53/F53)*100</f>
         <v>100</v>
       </c>
       <c r="J53">
-        <f t="shared" si="1"/>
+        <f>(H53/F53)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="165" t="s">
+      <c r="A54" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="165" t="s">
+      <c r="B54" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="2">
         <v>45931</v>
       </c>
-      <c r="E54" s="169" t="s">
+      <c r="E54" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F54" s="189">
+      <c r="F54" s="134">
         <v>7</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
-      <c r="H54" s="165">
+      <c r="H54">
         <v>4</v>
       </c>
       <c r="I54">
-        <f t="shared" si="0"/>
+        <f>(G54/F54)*100</f>
         <v>0</v>
       </c>
       <c r="J54">
-        <f t="shared" si="1"/>
+        <f>(H54/F54)*100</f>
         <v>57.142857142857139</v>
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="165" t="s">
+      <c r="A55" t="s">
         <v>45</v>
       </c>
-      <c r="B55" s="165" t="s">
+      <c r="B55" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="183"/>
+      <c r="C55" s="131"/>
       <c r="D55" s="2">
         <v>45931</v>
       </c>
-      <c r="E55" s="169" t="s">
+      <c r="E55" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F55" s="189">
+      <c r="F55" s="134">
         <v>7</v>
       </c>
       <c r="G55">
         <v>3</v>
       </c>
-      <c r="H55" s="165">
+      <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <f t="shared" si="0"/>
+        <f>(G55/F55)*100</f>
         <v>42.857142857142854</v>
       </c>
       <c r="J55">
-        <f t="shared" si="1"/>
+        <f>(H55/F55)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="165" t="s">
+      <c r="A56" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="165" t="s">
+      <c r="B56" t="s">
         <v>10</v>
       </c>
       <c r="D56" s="2">
         <v>45931</v>
       </c>
-      <c r="E56" s="169" t="s">
+      <c r="E56" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F56" s="189">
+      <c r="F56" s="134">
         <v>7</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="H56" s="165">
+      <c r="H56">
         <v>1</v>
       </c>
       <c r="I56">
-        <f t="shared" si="0"/>
+        <f>(G56/F56)*100</f>
         <v>0</v>
       </c>
       <c r="J56">
-        <f t="shared" si="1"/>
+        <f>(H56/F56)*100</f>
         <v>14.285714285714285</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="165" t="s">
+      <c r="A57" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="165" t="s">
+      <c r="B57" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="183"/>
+      <c r="C57" s="131"/>
       <c r="D57" s="2">
         <v>45931</v>
       </c>
-      <c r="E57" s="169" t="s">
+      <c r="E57" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F57" s="189">
+      <c r="F57" s="134">
         <v>7</v>
       </c>
       <c r="G57">
         <v>5</v>
       </c>
-      <c r="H57" s="165">
+      <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <f t="shared" si="0"/>
+        <f>(G57/F57)*100</f>
         <v>71.428571428571431</v>
       </c>
       <c r="J57">
-        <f t="shared" si="1"/>
+        <f>(H57/F57)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="165" t="s">
+      <c r="A58" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="165" t="s">
+      <c r="B58" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2">
         <v>45931</v>
       </c>
-      <c r="E58" s="169" t="s">
+      <c r="E58" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F58" s="189">
+      <c r="F58" s="134">
         <v>7</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="H58" s="165">
+      <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <f t="shared" si="0"/>
+        <f>(G58/F58)*100</f>
         <v>0</v>
       </c>
       <c r="J58">
-        <f t="shared" si="1"/>
+        <f>(H58/F58)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="165" t="s">
+      <c r="A59" t="s">
         <v>45</v>
       </c>
-      <c r="B59" s="165" t="s">
+      <c r="B59" t="s">
         <v>21</v>
       </c>
-      <c r="C59" s="183"/>
+      <c r="C59" s="131"/>
       <c r="D59" s="2">
         <v>45931</v>
       </c>
-      <c r="E59" s="169" t="s">
+      <c r="E59" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F59" s="189">
+      <c r="F59" s="134">
         <v>7</v>
       </c>
       <c r="G59">
         <v>6</v>
       </c>
-      <c r="H59" s="165">
+      <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <f t="shared" si="0"/>
+        <f>(G59/F59)*100</f>
         <v>85.714285714285708</v>
       </c>
       <c r="J59">
-        <f t="shared" si="1"/>
+        <f>(H59/F59)*100</f>
         <v>14.285714285714285</v>
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="165" t="s">
+      <c r="A60" t="s">
         <v>45</v>
       </c>
-      <c r="B60" s="165" t="s">
+      <c r="B60" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="2">
         <v>45931</v>
       </c>
-      <c r="E60" s="169" t="s">
+      <c r="E60" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F60" s="189">
+      <c r="F60" s="134">
         <v>7</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="H60" s="165">
+      <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <f t="shared" si="0"/>
+        <f>(G60/F60)*100</f>
         <v>0</v>
       </c>
       <c r="J60">
-        <f t="shared" si="1"/>
+        <f>(H60/F60)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="165" t="s">
+      <c r="A61" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="165" t="s">
+      <c r="B61" t="s">
         <v>23</v>
       </c>
       <c r="D61" s="2">
         <v>45931</v>
       </c>
-      <c r="E61" s="169" t="s">
+      <c r="E61" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F61" s="189">
+      <c r="F61" s="134">
         <v>7</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
-      <c r="H61" s="165">
+      <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <f t="shared" si="0"/>
+        <f>(G61/F61)*100</f>
         <v>0</v>
       </c>
       <c r="J61">
-        <f t="shared" si="1"/>
+        <f>(H61/F61)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="165" t="s">
+      <c r="A62" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="165" t="s">
+      <c r="B62" t="s">
         <v>24</v>
       </c>
       <c r="D62" s="2">
         <v>45931</v>
       </c>
-      <c r="E62" s="169" t="s">
+      <c r="E62" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F62" s="189">
+      <c r="F62" s="134">
         <v>7</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
-      <c r="H62" s="165">
+      <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <f t="shared" si="0"/>
+        <f>(G62/F62)*100</f>
         <v>0</v>
       </c>
       <c r="J62">
-        <f t="shared" si="1"/>
+        <f>(H62/F62)*100</f>
         <v>28.571428571428569</v>
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="165" t="s">
+      <c r="A63" t="s">
         <v>45</v>
       </c>
-      <c r="B63" s="165" t="s">
+      <c r="B63" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="183"/>
+      <c r="C63" s="131"/>
       <c r="D63" s="2">
         <v>45931</v>
       </c>
-      <c r="E63" s="169" t="s">
+      <c r="E63" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F63" s="189">
+      <c r="F63" s="134">
         <v>7</v>
       </c>
       <c r="G63">
         <v>2</v>
       </c>
-      <c r="H63" s="165">
+      <c r="H63">
         <v>0</v>
       </c>
       <c r="I63">
-        <f t="shared" si="0"/>
+        <f>(G63/F63)*100</f>
         <v>28.571428571428569</v>
       </c>
       <c r="J63">
-        <f t="shared" si="1"/>
+        <f>(H63/F63)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="165" t="s">
+      <c r="A64" t="s">
         <v>45</v>
       </c>
-      <c r="B64" s="165" t="s">
+      <c r="B64" t="s">
         <v>26</v>
       </c>
       <c r="D64" s="2">
         <v>45931</v>
       </c>
-      <c r="E64" s="169" t="s">
+      <c r="E64" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F64" s="189">
+      <c r="F64" s="134">
         <v>7</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
-      <c r="H64" s="165">
+      <c r="H64">
         <v>3</v>
       </c>
       <c r="I64">
-        <f t="shared" si="0"/>
+        <f>(G64/F64)*100</f>
         <v>0</v>
       </c>
       <c r="J64">
-        <f t="shared" si="1"/>
+        <f>(H64/F64)*100</f>
         <v>42.857142857142854</v>
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="165" t="s">
+      <c r="A65" t="s">
         <v>45</v>
       </c>
-      <c r="B65" s="165" t="s">
+      <c r="B65" t="s">
         <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45931</v>
       </c>
-      <c r="E65" s="169" t="s">
+      <c r="E65" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F65" s="189">
+      <c r="F65" s="134">
         <v>7</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="H65" s="165">
+      <c r="H65">
         <v>2</v>
       </c>
       <c r="I65">
-        <f t="shared" si="0"/>
+        <f>(G65/F65)*100</f>
         <v>0</v>
       </c>
       <c r="J65">
-        <f t="shared" si="1"/>
+        <f>(H65/F65)*100</f>
         <v>28.571428571428569</v>
       </c>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="165" t="s">
+      <c r="A66" t="s">
         <v>45</v>
       </c>
-      <c r="B66" s="165" t="s">
+      <c r="B66" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="183"/>
+      <c r="C66" s="131"/>
       <c r="D66" s="2">
         <v>45931</v>
       </c>
-      <c r="E66" s="169" t="s">
+      <c r="E66" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F66" s="189">
+      <c r="F66" s="134">
         <v>7</v>
       </c>
       <c r="G66">
         <v>5</v>
       </c>
-      <c r="H66" s="165">
+      <c r="H66">
         <v>0</v>
       </c>
       <c r="I66">
-        <f t="shared" si="0"/>
+        <f>(G66/F66)*100</f>
         <v>71.428571428571431</v>
       </c>
       <c r="J66">
-        <f t="shared" si="1"/>
+        <f>(H66/F66)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="168" t="s">
+      <c r="A67" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="B67" s="168" t="s">
+      <c r="B67" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="163"/>
-      <c r="D67" s="164">
+      <c r="C67" s="118"/>
+      <c r="D67" s="119">
         <v>45931</v>
       </c>
-      <c r="E67" s="170" t="s">
+      <c r="E67" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="F67" s="190">
+      <c r="F67" s="135">
         <v>7</v>
       </c>
-      <c r="G67" s="163">
-        <v>0</v>
-      </c>
-      <c r="H67" s="168">
+      <c r="G67" s="118">
+        <v>0</v>
+      </c>
+      <c r="H67" s="118">
         <v>0</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67" si="2">(G67/F67)*100</f>
+        <f>(G67/F67)*100</f>
         <v>0</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67" si="3">(H67/F67)*100</f>
+        <f>(H67/F67)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -10568,7 +8816,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="132" t="s">
         <v>49</v>
       </c>
       <c r="B3" t="s">
@@ -10579,86 +8827,84 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="191" t="s">
+      <c r="A4" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="185">
+      <c r="B4">
         <v>96</v>
       </c>
-      <c r="C4" s="185">
+      <c r="C4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="191" t="s">
+      <c r="A5" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="185">
+      <c r="B5">
         <v>100</v>
       </c>
-      <c r="C5" s="185">
+      <c r="C5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="191" t="s">
+      <c r="A6" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="185">
+      <c r="B6">
         <v>17.142857142857146</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6">
         <v>2.8571428571428568</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="191" t="s">
+      <c r="A7" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="185">
+      <c r="B7">
         <v>100</v>
       </c>
-      <c r="C7" s="185">
+      <c r="C7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="191" t="s">
+      <c r="A8" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="185">
+      <c r="B8">
         <v>21.428571428571427</v>
       </c>
-      <c r="C8" s="185">
+      <c r="C8">
         <v>13.265306122448976</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="191" t="s">
+      <c r="A9" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="185">
+      <c r="B9">
         <v>40</v>
       </c>
-      <c r="C9" s="185">
+      <c r="C9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="191" t="s">
+      <c r="A10" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="185"/>
-      <c r="C10" s="185"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="191" t="s">
+      <c r="A11" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="185">
+      <c r="B11">
         <v>55.108225108225106</v>
       </c>
-      <c r="C11" s="185">
+      <c r="C11">
         <v>3.4632034632034632</v>
       </c>
     </row>
@@ -10733,7 +8979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FF0FBC-AF99-430B-AC27-EB407B3D3F17}">
   <dimension ref="A3:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -10755,7 +9001,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="132" t="s">
         <v>49</v>
       </c>
       <c r="B3" t="s">
@@ -10766,86 +9012,84 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="191" t="s">
+      <c r="A4" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="185"/>
-      <c r="C4" s="185"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="191" t="s">
+      <c r="A5" s="136" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="185">
+      <c r="B5">
         <v>100</v>
       </c>
-      <c r="C5" s="185">
+      <c r="C5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="191" t="s">
+      <c r="A6" s="136" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="185">
+      <c r="B6">
         <v>100</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="191" t="s">
+      <c r="A7" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="185">
+      <c r="B7">
         <v>20</v>
       </c>
-      <c r="C7" s="185">
+      <c r="C7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="191" t="s">
+      <c r="A8" s="136" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="185">
+      <c r="B8">
         <v>32.142857142857146</v>
       </c>
-      <c r="C8" s="185">
+      <c r="C8">
         <v>1.1904761904761905</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="191" t="s">
+      <c r="A9" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="185">
+      <c r="B9">
         <v>52.38095238095238</v>
       </c>
-      <c r="C9" s="185">
+      <c r="C9">
         <v>3.1746031746031744</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="191" t="s">
+      <c r="A10" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="185">
+      <c r="B10">
         <v>45</v>
       </c>
-      <c r="C10" s="185">
+      <c r="C10">
         <v>7.7380952380952364</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="191" t="s">
+      <c r="A11" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="185">
+      <c r="B11">
         <v>55.108225108225113</v>
       </c>
-      <c r="C11" s="185">
+      <c r="C11">
         <v>3.4632034632034632</v>
       </c>
     </row>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\cheat_sheets\1_lessons\code_institute\UDP5WA4CF-UN03_back_end_development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B56548A-F4FB-4F9C-B576-7A5C29288BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B764A4-E593-46D7-B5B2-7EDDCCE444EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C62C3A13-8B1D-4627-A4E5-0D3E0B3409FC}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C62C3A13-8B1D-4627-A4E5-0D3E0B3409FC}"/>
   </bookViews>
   <sheets>
     <sheet name="original_copy-paste_sample" sheetId="1" r:id="rId1"/>
@@ -155,9 +155,6 @@
     <t>resit</t>
   </si>
   <si>
-    <t>i_forgot_what_the_colours_mean</t>
-  </si>
-  <si>
     <t>correct_choice_frequency</t>
   </si>
   <si>
@@ -223,12 +220,15 @@
   <si>
     <t>Oct</t>
   </si>
+  <si>
+    <t>correct_answer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,6 +455,14 @@
       <color rgb="FFFF6600"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="44">
@@ -1225,9 +1233,6 @@
     <xf numFmtId="0" fontId="19" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1358,28 +1363,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1389,15 +1400,13 @@
     <xf numFmtId="0" fontId="18" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="40" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1410,22 +1419,21 @@
     <xf numFmtId="0" fontId="29" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="4" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3225,12 +3233,12 @@
     <dataField name="Average of incorrect_choice_percentage" fld="9" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="2">
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="2">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
             <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
+              <x v="0"/>
             </reference>
             <reference field="0" count="6">
               <x v="0"/>
@@ -3244,12 +3252,12 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="2">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
             <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
+              <x v="1"/>
             </reference>
             <reference field="0" count="6">
               <x v="0"/>
@@ -3752,6 +3760,70 @@
     <dataField name="Average of incorrect_choice_percentage" fld="9" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="2">
+    <conditionalFormat priority="2">
+      <pivotAreas count="6">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="11" count="1">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="11" count="1">
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="11" count="1">
+              <x v="5"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="11" count="1">
+              <x v="7"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="11" count="1">
+              <x v="9"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="11" count="1">
+              <x v="10"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
     <conditionalFormat priority="1">
       <pivotAreas count="6">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
@@ -3808,70 +3880,6 @@
           <references count="2">
             <reference field="4294967294" count="1" selected="0">
               <x v="1"/>
-            </reference>
-            <reference field="11" count="1">
-              <x v="10"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="2">
-      <pivotAreas count="6">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="11" count="1">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="11" count="1">
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="11" count="1">
-              <x v="5"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="11" count="1">
-              <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="11" count="1">
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
             </reference>
             <reference field="11" count="1">
               <x v="10"/>
@@ -4214,7 +4222,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+      <selection pane="bottomLeft" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4227,10 +4235,10 @@
         <v>45658</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" s="175" t="s">
+      <c r="D1" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="176"/>
+      <c r="E1" s="142"/>
       <c r="F1" s="6">
         <v>45717</v>
       </c>
@@ -4251,10 +4259,10 @@
         <v>45809</v>
       </c>
       <c r="O1" s="7"/>
-      <c r="P1" s="177" t="s">
+      <c r="P1" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="178"/>
+      <c r="Q1" s="144"/>
       <c r="R1" s="3">
         <v>45839</v>
       </c>
@@ -4311,8 +4319,8 @@
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="154"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="146"/>
       <c r="F2" s="18"/>
       <c r="G2" s="16"/>
       <c r="H2" s="17"/>
@@ -4325,8 +4333,8 @@
       <c r="M2" s="20"/>
       <c r="N2" s="21"/>
       <c r="O2" s="22"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="161"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="148"/>
       <c r="R2" s="23">
         <v>0.86</v>
       </c>
@@ -4349,8 +4357,8 @@
       <c r="AG2" s="22"/>
       <c r="AH2" s="31"/>
       <c r="AI2" s="22"/>
-      <c r="AJ2" s="179"/>
-      <c r="AK2" s="179"/>
+      <c r="AJ2" s="149"/>
+      <c r="AK2" s="149"/>
       <c r="AL2" s="32">
         <v>0.8</v>
       </c>
@@ -4367,8 +4375,8 @@
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="37"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="181"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="151"/>
       <c r="F3" s="36"/>
       <c r="G3" s="37"/>
       <c r="H3" s="38"/>
@@ -4379,8 +4387,8 @@
       <c r="M3" s="4"/>
       <c r="N3" s="36"/>
       <c r="O3" s="37"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="183"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="153"/>
       <c r="R3" s="40"/>
       <c r="S3" s="41"/>
       <c r="T3" s="42"/>
@@ -4399,8 +4407,8 @@
       <c r="AG3" s="37"/>
       <c r="AH3" s="38"/>
       <c r="AI3" s="37"/>
-      <c r="AJ3" s="184"/>
-      <c r="AK3" s="184"/>
+      <c r="AJ3" s="154"/>
+      <c r="AK3" s="154"/>
       <c r="AL3" s="12"/>
       <c r="AM3" s="47"/>
       <c r="AN3" s="47"/>
@@ -4411,8 +4419,8 @@
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="37"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="170"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="137"/>
       <c r="F4" s="36"/>
       <c r="G4" s="37"/>
       <c r="H4" s="38"/>
@@ -4423,8 +4431,8 @@
       <c r="M4" s="4"/>
       <c r="N4" s="36"/>
       <c r="O4" s="37"/>
-      <c r="P4" s="172"/>
-      <c r="Q4" s="173"/>
+      <c r="P4" s="138"/>
+      <c r="Q4" s="139"/>
       <c r="R4" s="40"/>
       <c r="S4" s="41"/>
       <c r="T4" s="42"/>
@@ -4443,8 +4451,8 @@
       <c r="AG4" s="37"/>
       <c r="AH4" s="38"/>
       <c r="AI4" s="37"/>
-      <c r="AJ4" s="174"/>
-      <c r="AK4" s="174"/>
+      <c r="AJ4" s="140"/>
+      <c r="AK4" s="140"/>
       <c r="AL4" s="12"/>
       <c r="AM4" s="47"/>
       <c r="AN4" s="47"/>
@@ -4455,8 +4463,8 @@
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="37"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="170"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="137"/>
       <c r="F5" s="36"/>
       <c r="G5" s="37"/>
       <c r="H5" s="38"/>
@@ -4467,8 +4475,8 @@
       <c r="M5" s="4"/>
       <c r="N5" s="36"/>
       <c r="O5" s="37"/>
-      <c r="P5" s="172"/>
-      <c r="Q5" s="173"/>
+      <c r="P5" s="138"/>
+      <c r="Q5" s="139"/>
       <c r="R5" s="40"/>
       <c r="S5" s="41">
         <v>1</v>
@@ -4491,8 +4499,8 @@
       <c r="AG5" s="37"/>
       <c r="AH5" s="38"/>
       <c r="AI5" s="37"/>
-      <c r="AJ5" s="174"/>
-      <c r="AK5" s="174"/>
+      <c r="AJ5" s="140"/>
+      <c r="AK5" s="140"/>
       <c r="AL5" s="12"/>
       <c r="AM5" s="47"/>
       <c r="AN5" s="47"/>
@@ -4503,8 +4511,8 @@
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="49"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="170"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="137"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
       <c r="H6" s="38"/>
@@ -4515,8 +4523,8 @@
       <c r="M6" s="4"/>
       <c r="N6" s="36"/>
       <c r="O6" s="49"/>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="141"/>
+      <c r="P6" s="157"/>
+      <c r="Q6" s="158"/>
       <c r="R6" s="40"/>
       <c r="S6" s="41"/>
       <c r="T6" s="42"/>
@@ -4537,8 +4545,8 @@
       <c r="AG6" s="49"/>
       <c r="AH6" s="56"/>
       <c r="AI6" s="49"/>
-      <c r="AJ6" s="171"/>
-      <c r="AK6" s="171"/>
+      <c r="AJ6" s="159"/>
+      <c r="AK6" s="159"/>
       <c r="AL6" s="12"/>
       <c r="AM6" s="47"/>
       <c r="AN6" s="47"/>
@@ -4549,8 +4557,8 @@
       </c>
       <c r="B7" s="55"/>
       <c r="C7" s="37"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="170"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="137"/>
       <c r="F7" s="58"/>
       <c r="G7" s="37"/>
       <c r="H7" s="38"/>
@@ -4563,8 +4571,8 @@
       <c r="M7" s="4"/>
       <c r="N7" s="55"/>
       <c r="O7" s="37"/>
-      <c r="P7" s="140"/>
-      <c r="Q7" s="141"/>
+      <c r="P7" s="157"/>
+      <c r="Q7" s="158"/>
       <c r="R7" s="40">
         <v>6</v>
       </c>
@@ -4603,8 +4611,8 @@
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="154"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="146"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="17"/>
@@ -4615,23 +4623,23 @@
       <c r="M8" s="16"/>
       <c r="N8" s="15"/>
       <c r="O8" s="16"/>
-      <c r="P8" s="155"/>
-      <c r="Q8" s="156"/>
+      <c r="P8" s="160"/>
+      <c r="Q8" s="161"/>
       <c r="R8" s="61"/>
       <c r="S8" s="26"/>
-      <c r="T8" s="62">
-        <v>1</v>
+      <c r="T8" s="184">
+        <v>5</v>
       </c>
       <c r="U8" s="24"/>
       <c r="V8" s="15"/>
       <c r="W8" s="16"/>
       <c r="X8" s="17"/>
       <c r="Y8" s="16"/>
-      <c r="Z8" s="63"/>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="64"/>
-      <c r="AD8" s="66">
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="64"/>
+      <c r="AC8" s="63"/>
+      <c r="AD8" s="65">
         <v>3</v>
       </c>
       <c r="AE8" s="20"/>
@@ -4639,26 +4647,26 @@
       <c r="AG8" s="16"/>
       <c r="AH8" s="17"/>
       <c r="AI8" s="16"/>
-      <c r="AJ8" s="157"/>
-      <c r="AK8" s="157"/>
+      <c r="AJ8" s="162"/>
+      <c r="AK8" s="162"/>
       <c r="AL8" s="32">
         <v>0.47</v>
       </c>
-      <c r="AM8" s="67">
+      <c r="AM8" s="66">
         <v>2</v>
       </c>
-      <c r="AN8" s="68">
+      <c r="AN8" s="67">
         <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="16.5" thickTop="1">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="68" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="58"/>
       <c r="C9" s="50"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="146"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="156"/>
       <c r="F9" s="58"/>
       <c r="G9" s="50"/>
       <c r="H9" s="51"/>
@@ -4669,21 +4677,21 @@
       <c r="M9" s="50"/>
       <c r="N9" s="58"/>
       <c r="O9" s="50"/>
-      <c r="P9" s="145"/>
-      <c r="Q9" s="146"/>
-      <c r="R9" s="70"/>
+      <c r="P9" s="155"/>
+      <c r="Q9" s="156"/>
+      <c r="R9" s="69"/>
       <c r="S9" s="43"/>
-      <c r="T9" s="71"/>
+      <c r="T9" s="70"/>
       <c r="U9" s="41"/>
       <c r="V9" s="58"/>
       <c r="W9" s="50"/>
       <c r="X9" s="51"/>
       <c r="Y9" s="50"/>
-      <c r="Z9" s="70"/>
+      <c r="Z9" s="69"/>
       <c r="AA9" s="43"/>
       <c r="AB9" s="42"/>
       <c r="AC9" s="43"/>
-      <c r="AD9" s="71">
+      <c r="AD9" s="70">
         <v>2</v>
       </c>
       <c r="AE9" s="41"/>
@@ -4691,15 +4699,15 @@
       <c r="AG9" s="50"/>
       <c r="AH9" s="51"/>
       <c r="AI9" s="50"/>
-      <c r="AJ9" s="72"/>
+      <c r="AJ9" s="71"/>
       <c r="AK9" s="12">
         <v>2</v>
       </c>
       <c r="AL9" s="12">
         <v>0.67</v>
       </c>
-      <c r="AM9" s="73"/>
-      <c r="AN9" s="73"/>
+      <c r="AM9" s="72"/>
+      <c r="AN9" s="72"/>
     </row>
     <row r="10" spans="1:40" ht="15.75">
       <c r="A10" s="35" t="s">
@@ -4707,8 +4715,8 @@
       </c>
       <c r="B10" s="58"/>
       <c r="C10" s="50"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="141"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="158"/>
       <c r="F10" s="58"/>
       <c r="G10" s="50"/>
       <c r="H10" s="51"/>
@@ -4719,11 +4727,11 @@
       <c r="M10" s="50"/>
       <c r="N10" s="58"/>
       <c r="O10" s="50"/>
-      <c r="P10" s="140"/>
-      <c r="Q10" s="141"/>
-      <c r="R10" s="70"/>
+      <c r="P10" s="157"/>
+      <c r="Q10" s="158"/>
+      <c r="R10" s="69"/>
       <c r="S10" s="43"/>
-      <c r="T10" s="71">
+      <c r="T10" s="70">
         <v>1</v>
       </c>
       <c r="U10" s="41"/>
@@ -4731,11 +4739,11 @@
       <c r="W10" s="50"/>
       <c r="X10" s="51"/>
       <c r="Y10" s="50"/>
-      <c r="Z10" s="70"/>
+      <c r="Z10" s="69"/>
       <c r="AA10" s="43"/>
       <c r="AB10" s="42"/>
       <c r="AC10" s="43"/>
-      <c r="AD10" s="71">
+      <c r="AD10" s="70">
         <v>1</v>
       </c>
       <c r="AE10" s="41"/>
@@ -4743,15 +4751,15 @@
       <c r="AG10" s="50"/>
       <c r="AH10" s="51"/>
       <c r="AI10" s="50"/>
-      <c r="AJ10" s="72"/>
+      <c r="AJ10" s="71"/>
       <c r="AK10" s="12">
         <v>2</v>
       </c>
       <c r="AL10" s="12">
         <v>0.67</v>
       </c>
-      <c r="AM10" s="73"/>
-      <c r="AN10" s="73"/>
+      <c r="AM10" s="72"/>
+      <c r="AN10" s="72"/>
     </row>
     <row r="11" spans="1:40" ht="15.75">
       <c r="A11" s="35" t="s">
@@ -4759,8 +4767,8 @@
       </c>
       <c r="B11" s="58"/>
       <c r="C11" s="50"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="141"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="158"/>
       <c r="F11" s="58"/>
       <c r="G11" s="50"/>
       <c r="H11" s="51"/>
@@ -4771,21 +4779,21 @@
       <c r="M11" s="50"/>
       <c r="N11" s="58"/>
       <c r="O11" s="50"/>
-      <c r="P11" s="140"/>
-      <c r="Q11" s="141"/>
-      <c r="R11" s="70"/>
+      <c r="P11" s="157"/>
+      <c r="Q11" s="158"/>
+      <c r="R11" s="69"/>
       <c r="S11" s="43"/>
-      <c r="T11" s="71"/>
+      <c r="T11" s="70"/>
       <c r="U11" s="41"/>
       <c r="V11" s="58"/>
       <c r="W11" s="50"/>
       <c r="X11" s="51"/>
       <c r="Y11" s="50"/>
-      <c r="Z11" s="70"/>
+      <c r="Z11" s="69"/>
       <c r="AA11" s="43"/>
       <c r="AB11" s="42"/>
       <c r="AC11" s="43"/>
-      <c r="AD11" s="71">
+      <c r="AD11" s="70">
         <v>1</v>
       </c>
       <c r="AE11" s="41"/>
@@ -4793,15 +4801,15 @@
       <c r="AG11" s="50"/>
       <c r="AH11" s="51"/>
       <c r="AI11" s="50"/>
-      <c r="AJ11" s="72"/>
+      <c r="AJ11" s="71"/>
       <c r="AK11" s="12">
         <v>1</v>
       </c>
       <c r="AL11" s="12">
         <v>0.33</v>
       </c>
-      <c r="AM11" s="73"/>
-      <c r="AN11" s="73"/>
+      <c r="AM11" s="72"/>
+      <c r="AN11" s="72"/>
     </row>
     <row r="12" spans="1:40" ht="15.75">
       <c r="A12" s="35" t="s">
@@ -4809,8 +4817,8 @@
       </c>
       <c r="B12" s="58"/>
       <c r="C12" s="50"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="141"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="158"/>
       <c r="F12" s="58"/>
       <c r="G12" s="50"/>
       <c r="H12" s="51"/>
@@ -4821,21 +4829,21 @@
       <c r="M12" s="50"/>
       <c r="N12" s="58"/>
       <c r="O12" s="50"/>
-      <c r="P12" s="140"/>
-      <c r="Q12" s="141"/>
-      <c r="R12" s="70"/>
+      <c r="P12" s="157"/>
+      <c r="Q12" s="158"/>
+      <c r="R12" s="69"/>
       <c r="S12" s="43"/>
-      <c r="T12" s="71"/>
+      <c r="T12" s="70"/>
       <c r="U12" s="41"/>
       <c r="V12" s="58"/>
       <c r="W12" s="50"/>
       <c r="X12" s="51"/>
       <c r="Y12" s="50"/>
-      <c r="Z12" s="70"/>
+      <c r="Z12" s="69"/>
       <c r="AA12" s="43"/>
       <c r="AB12" s="42"/>
       <c r="AC12" s="43"/>
-      <c r="AD12" s="71">
+      <c r="AD12" s="70">
         <v>0</v>
       </c>
       <c r="AE12" s="41"/>
@@ -4843,24 +4851,24 @@
       <c r="AG12" s="50"/>
       <c r="AH12" s="51"/>
       <c r="AI12" s="50"/>
-      <c r="AJ12" s="72"/>
+      <c r="AJ12" s="71"/>
       <c r="AK12" s="12">
         <v>0</v>
       </c>
       <c r="AL12" s="12">
         <v>0</v>
       </c>
-      <c r="AM12" s="73"/>
-      <c r="AN12" s="73"/>
+      <c r="AM12" s="72"/>
+      <c r="AN12" s="72"/>
     </row>
     <row r="13" spans="1:40" ht="16.5" thickBot="1">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="58"/>
       <c r="C13" s="50"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="141"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="158"/>
       <c r="F13" s="58"/>
       <c r="G13" s="50"/>
       <c r="H13" s="51"/>
@@ -4871,21 +4879,21 @@
       <c r="M13" s="50"/>
       <c r="N13" s="58"/>
       <c r="O13" s="50"/>
-      <c r="P13" s="140"/>
-      <c r="Q13" s="141"/>
-      <c r="R13" s="70"/>
+      <c r="P13" s="157"/>
+      <c r="Q13" s="158"/>
+      <c r="R13" s="69"/>
       <c r="S13" s="43"/>
-      <c r="T13" s="71"/>
+      <c r="T13" s="70"/>
       <c r="U13" s="41"/>
       <c r="V13" s="58"/>
       <c r="W13" s="50"/>
       <c r="X13" s="51"/>
       <c r="Y13" s="50"/>
-      <c r="Z13" s="70"/>
+      <c r="Z13" s="69"/>
       <c r="AA13" s="43"/>
       <c r="AB13" s="42"/>
       <c r="AC13" s="43"/>
-      <c r="AD13" s="71">
+      <c r="AD13" s="70">
         <v>2</v>
       </c>
       <c r="AE13" s="41"/>
@@ -4893,67 +4901,67 @@
       <c r="AG13" s="50"/>
       <c r="AH13" s="51"/>
       <c r="AI13" s="50"/>
-      <c r="AJ13" s="72"/>
+      <c r="AJ13" s="71"/>
       <c r="AK13" s="12">
         <v>2</v>
       </c>
       <c r="AL13" s="12">
         <v>0.67</v>
       </c>
-      <c r="AM13" s="75"/>
-      <c r="AN13" s="75"/>
+      <c r="AM13" s="74"/>
+      <c r="AN13" s="74"/>
     </row>
     <row r="14" spans="1:40" ht="17.25" thickTop="1" thickBot="1">
       <c r="A14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="76">
+      <c r="B14" s="75">
         <v>5</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="165"/>
-      <c r="E14" s="166"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="81">
+      <c r="C14" s="76"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="80">
         <v>5</v>
       </c>
-      <c r="I14" s="82"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="80"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="79"/>
       <c r="L14" s="18"/>
-      <c r="M14" s="83"/>
+      <c r="M14" s="82"/>
       <c r="N14" s="15"/>
       <c r="O14" s="16"/>
-      <c r="P14" s="167"/>
-      <c r="Q14" s="168"/>
+      <c r="P14" s="170"/>
+      <c r="Q14" s="171"/>
       <c r="R14" s="18"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="84"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="85"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="84"/>
-      <c r="Y14" s="83"/>
-      <c r="Z14" s="85"/>
-      <c r="AA14" s="83"/>
-      <c r="AB14" s="84"/>
-      <c r="AC14" s="83"/>
-      <c r="AD14" s="84"/>
-      <c r="AE14" s="83"/>
-      <c r="AF14" s="85"/>
-      <c r="AG14" s="83"/>
-      <c r="AH14" s="84"/>
-      <c r="AI14" s="83"/>
-      <c r="AJ14" s="164"/>
-      <c r="AK14" s="164"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="83"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="84"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="83"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="83"/>
+      <c r="AE14" s="82"/>
+      <c r="AF14" s="84"/>
+      <c r="AG14" s="82"/>
+      <c r="AH14" s="83"/>
+      <c r="AI14" s="82"/>
+      <c r="AJ14" s="163"/>
+      <c r="AK14" s="163"/>
       <c r="AL14" s="32">
         <v>1</v>
       </c>
-      <c r="AM14" s="86">
+      <c r="AM14" s="85">
         <v>5</v>
       </c>
-      <c r="AN14" s="87">
+      <c r="AN14" s="86">
         <v>1</v>
       </c>
     </row>
@@ -4965,22 +4973,22 @@
         <v>4</v>
       </c>
       <c r="C15" s="41"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="70"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="43"/>
-      <c r="H15" s="88">
+      <c r="H15" s="87">
         <v>2</v>
       </c>
-      <c r="I15" s="89"/>
+      <c r="I15" s="88"/>
       <c r="J15" s="42"/>
       <c r="K15" s="43"/>
       <c r="L15" s="58"/>
       <c r="M15" s="50"/>
       <c r="N15" s="58"/>
       <c r="O15" s="50"/>
-      <c r="P15" s="145"/>
-      <c r="Q15" s="146"/>
+      <c r="P15" s="155"/>
+      <c r="Q15" s="156"/>
       <c r="R15" s="58"/>
       <c r="S15" s="50"/>
       <c r="T15" s="51"/>
@@ -4999,15 +5007,15 @@
       <c r="AG15" s="50"/>
       <c r="AH15" s="51"/>
       <c r="AI15" s="50"/>
-      <c r="AJ15" s="72"/>
+      <c r="AJ15" s="71"/>
       <c r="AK15" s="12">
         <v>6</v>
       </c>
       <c r="AL15" s="12">
         <v>1</v>
       </c>
-      <c r="AM15" s="73"/>
-      <c r="AN15" s="73"/>
+      <c r="AM15" s="72"/>
+      <c r="AN15" s="72"/>
     </row>
     <row r="16" spans="1:40" ht="15.75">
       <c r="A16" s="35" t="s">
@@ -5017,22 +5025,22 @@
         <v>4</v>
       </c>
       <c r="C16" s="41"/>
-      <c r="D16" s="162"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="70"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="69"/>
       <c r="G16" s="43"/>
-      <c r="H16" s="88">
+      <c r="H16" s="87">
         <v>2</v>
       </c>
-      <c r="I16" s="89"/>
+      <c r="I16" s="88"/>
       <c r="J16" s="42"/>
       <c r="K16" s="43"/>
       <c r="L16" s="58"/>
       <c r="M16" s="50"/>
       <c r="N16" s="58"/>
       <c r="O16" s="50"/>
-      <c r="P16" s="140"/>
-      <c r="Q16" s="141"/>
+      <c r="P16" s="157"/>
+      <c r="Q16" s="158"/>
       <c r="R16" s="58"/>
       <c r="S16" s="50"/>
       <c r="T16" s="51"/>
@@ -5051,15 +5059,15 @@
       <c r="AG16" s="50"/>
       <c r="AH16" s="51"/>
       <c r="AI16" s="50"/>
-      <c r="AJ16" s="72"/>
+      <c r="AJ16" s="71"/>
       <c r="AK16" s="12">
         <v>6</v>
       </c>
       <c r="AL16" s="12">
         <v>1</v>
       </c>
-      <c r="AM16" s="73"/>
-      <c r="AN16" s="73"/>
+      <c r="AM16" s="72"/>
+      <c r="AN16" s="72"/>
     </row>
     <row r="17" spans="1:40" ht="15.75">
       <c r="A17" s="35" t="s">
@@ -5069,22 +5077,22 @@
         <v>4</v>
       </c>
       <c r="C17" s="41"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="163"/>
-      <c r="F17" s="70"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="69"/>
       <c r="G17" s="43"/>
-      <c r="H17" s="88">
+      <c r="H17" s="87">
         <v>2</v>
       </c>
-      <c r="I17" s="89"/>
+      <c r="I17" s="88"/>
       <c r="J17" s="42"/>
       <c r="K17" s="43"/>
       <c r="L17" s="58"/>
       <c r="M17" s="50"/>
       <c r="N17" s="58"/>
       <c r="O17" s="50"/>
-      <c r="P17" s="140"/>
-      <c r="Q17" s="141"/>
+      <c r="P17" s="157"/>
+      <c r="Q17" s="158"/>
       <c r="R17" s="58"/>
       <c r="S17" s="50"/>
       <c r="T17" s="51"/>
@@ -5103,15 +5111,15 @@
       <c r="AG17" s="50"/>
       <c r="AH17" s="51"/>
       <c r="AI17" s="50"/>
-      <c r="AJ17" s="72"/>
+      <c r="AJ17" s="71"/>
       <c r="AK17" s="12">
         <v>6</v>
       </c>
       <c r="AL17" s="12">
         <v>1</v>
       </c>
-      <c r="AM17" s="73"/>
-      <c r="AN17" s="73"/>
+      <c r="AM17" s="72"/>
+      <c r="AN17" s="72"/>
     </row>
     <row r="18" spans="1:40" ht="15.75">
       <c r="A18" s="35" t="s">
@@ -5121,22 +5129,22 @@
         <v>4</v>
       </c>
       <c r="C18" s="41"/>
-      <c r="D18" s="162"/>
-      <c r="E18" s="163"/>
-      <c r="F18" s="70"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="69"/>
       <c r="G18" s="43"/>
-      <c r="H18" s="88">
+      <c r="H18" s="87">
         <v>2</v>
       </c>
-      <c r="I18" s="89"/>
+      <c r="I18" s="88"/>
       <c r="J18" s="42"/>
       <c r="K18" s="43"/>
       <c r="L18" s="58"/>
       <c r="M18" s="50"/>
       <c r="N18" s="58"/>
       <c r="O18" s="50"/>
-      <c r="P18" s="140"/>
-      <c r="Q18" s="141"/>
+      <c r="P18" s="157"/>
+      <c r="Q18" s="158"/>
       <c r="R18" s="58"/>
       <c r="S18" s="50"/>
       <c r="T18" s="51"/>
@@ -5155,15 +5163,15 @@
       <c r="AG18" s="50"/>
       <c r="AH18" s="51"/>
       <c r="AI18" s="50"/>
-      <c r="AJ18" s="72"/>
+      <c r="AJ18" s="71"/>
       <c r="AK18" s="12">
         <v>6</v>
       </c>
       <c r="AL18" s="12">
         <v>1</v>
       </c>
-      <c r="AM18" s="73"/>
-      <c r="AN18" s="73"/>
+      <c r="AM18" s="72"/>
+      <c r="AN18" s="72"/>
     </row>
     <row r="19" spans="1:40" ht="16.5" thickBot="1">
       <c r="A19" s="35" t="s">
@@ -5173,22 +5181,22 @@
         <v>4</v>
       </c>
       <c r="C19" s="41"/>
-      <c r="D19" s="162"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="70"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="69"/>
       <c r="G19" s="43"/>
-      <c r="H19" s="88">
+      <c r="H19" s="87">
         <v>2</v>
       </c>
-      <c r="I19" s="89"/>
+      <c r="I19" s="88"/>
       <c r="J19" s="42"/>
       <c r="K19" s="43"/>
       <c r="L19" s="58"/>
       <c r="M19" s="50"/>
       <c r="N19" s="58"/>
       <c r="O19" s="50"/>
-      <c r="P19" s="140"/>
-      <c r="Q19" s="141"/>
+      <c r="P19" s="157"/>
+      <c r="Q19" s="158"/>
       <c r="R19" s="58"/>
       <c r="S19" s="50"/>
       <c r="T19" s="51"/>
@@ -5207,15 +5215,15 @@
       <c r="AG19" s="50"/>
       <c r="AH19" s="51"/>
       <c r="AI19" s="50"/>
-      <c r="AJ19" s="72"/>
+      <c r="AJ19" s="71"/>
       <c r="AK19" s="12">
         <v>6</v>
       </c>
       <c r="AL19" s="12">
         <v>1</v>
       </c>
-      <c r="AM19" s="73"/>
-      <c r="AN19" s="73"/>
+      <c r="AM19" s="72"/>
+      <c r="AN19" s="72"/>
     </row>
     <row r="20" spans="1:40" ht="17.25" thickTop="1" thickBot="1">
       <c r="A20" s="14" t="s">
@@ -5223,8 +5231,8 @@
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="154"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
       <c r="F20" s="15"/>
       <c r="G20" s="16"/>
       <c r="H20" s="17"/>
@@ -5235,8 +5243,8 @@
       <c r="M20" s="16"/>
       <c r="N20" s="15"/>
       <c r="O20" s="16"/>
-      <c r="P20" s="155"/>
-      <c r="Q20" s="156"/>
+      <c r="P20" s="160"/>
+      <c r="Q20" s="161"/>
       <c r="R20" s="15"/>
       <c r="S20" s="16"/>
       <c r="T20" s="17"/>
@@ -5249,23 +5257,23 @@
         <v>4.3</v>
       </c>
       <c r="AA20" s="20"/>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="64"/>
-      <c r="AD20" s="65"/>
-      <c r="AE20" s="64"/>
-      <c r="AF20" s="63"/>
-      <c r="AG20" s="64"/>
-      <c r="AH20" s="90"/>
-      <c r="AI20" s="91"/>
-      <c r="AJ20" s="157"/>
-      <c r="AK20" s="157"/>
+      <c r="AB20" s="64"/>
+      <c r="AC20" s="63"/>
+      <c r="AD20" s="64"/>
+      <c r="AE20" s="63"/>
+      <c r="AF20" s="62"/>
+      <c r="AG20" s="63"/>
+      <c r="AH20" s="89"/>
+      <c r="AI20" s="90"/>
+      <c r="AJ20" s="162"/>
+      <c r="AK20" s="162"/>
       <c r="AL20" s="32">
         <v>0.96</v>
       </c>
-      <c r="AM20" s="86">
+      <c r="AM20" s="85">
         <v>4.3</v>
       </c>
-      <c r="AN20" s="87">
+      <c r="AN20" s="86">
         <v>0.86</v>
       </c>
     </row>
@@ -5275,8 +5283,8 @@
       </c>
       <c r="B21" s="58"/>
       <c r="C21" s="50"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="156"/>
       <c r="F21" s="58"/>
       <c r="G21" s="50"/>
       <c r="H21" s="51"/>
@@ -5287,8 +5295,8 @@
       <c r="M21" s="50"/>
       <c r="N21" s="58"/>
       <c r="O21" s="50"/>
-      <c r="P21" s="145"/>
-      <c r="Q21" s="146"/>
+      <c r="P21" s="155"/>
+      <c r="Q21" s="156"/>
       <c r="R21" s="58"/>
       <c r="S21" s="50"/>
       <c r="T21" s="51"/>
@@ -5307,19 +5315,19 @@
       <c r="AC21" s="43"/>
       <c r="AD21" s="42"/>
       <c r="AE21" s="43"/>
-      <c r="AF21" s="70"/>
+      <c r="AF21" s="69"/>
       <c r="AG21" s="43"/>
-      <c r="AH21" s="88"/>
-      <c r="AI21" s="89"/>
-      <c r="AJ21" s="72"/>
+      <c r="AH21" s="87"/>
+      <c r="AI21" s="88"/>
+      <c r="AJ21" s="71"/>
       <c r="AK21" s="12">
         <v>9</v>
       </c>
       <c r="AL21" s="12">
         <v>0.9</v>
       </c>
-      <c r="AM21" s="73"/>
-      <c r="AN21" s="73"/>
+      <c r="AM21" s="72"/>
+      <c r="AN21" s="72"/>
     </row>
     <row r="22" spans="1:40" ht="15.75">
       <c r="A22" s="35" t="s">
@@ -5327,8 +5335,8 @@
       </c>
       <c r="B22" s="58"/>
       <c r="C22" s="50"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="141"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="158"/>
       <c r="F22" s="58"/>
       <c r="G22" s="50"/>
       <c r="H22" s="51"/>
@@ -5339,8 +5347,8 @@
       <c r="M22" s="50"/>
       <c r="N22" s="58"/>
       <c r="O22" s="50"/>
-      <c r="P22" s="140"/>
-      <c r="Q22" s="141"/>
+      <c r="P22" s="157"/>
+      <c r="Q22" s="158"/>
       <c r="R22" s="58"/>
       <c r="S22" s="50"/>
       <c r="T22" s="51"/>
@@ -5357,19 +5365,19 @@
       <c r="AC22" s="43"/>
       <c r="AD22" s="42"/>
       <c r="AE22" s="43"/>
-      <c r="AF22" s="70"/>
+      <c r="AF22" s="69"/>
       <c r="AG22" s="43"/>
-      <c r="AH22" s="88"/>
-      <c r="AI22" s="89"/>
-      <c r="AJ22" s="72"/>
+      <c r="AH22" s="87"/>
+      <c r="AI22" s="88"/>
+      <c r="AJ22" s="71"/>
       <c r="AK22" s="12">
         <v>9</v>
       </c>
       <c r="AL22" s="12">
         <v>0.9</v>
       </c>
-      <c r="AM22" s="73"/>
-      <c r="AN22" s="73"/>
+      <c r="AM22" s="72"/>
+      <c r="AN22" s="72"/>
     </row>
     <row r="23" spans="1:40" ht="15.75">
       <c r="A23" s="35" t="s">
@@ -5377,8 +5385,8 @@
       </c>
       <c r="B23" s="58"/>
       <c r="C23" s="50"/>
-      <c r="D23" s="140"/>
-      <c r="E23" s="141"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="158"/>
       <c r="F23" s="58"/>
       <c r="G23" s="50"/>
       <c r="H23" s="51"/>
@@ -5389,8 +5397,8 @@
       <c r="M23" s="50"/>
       <c r="N23" s="58"/>
       <c r="O23" s="50"/>
-      <c r="P23" s="140"/>
-      <c r="Q23" s="141"/>
+      <c r="P23" s="157"/>
+      <c r="Q23" s="158"/>
       <c r="R23" s="58"/>
       <c r="S23" s="50"/>
       <c r="T23" s="51"/>
@@ -5407,19 +5415,19 @@
       <c r="AC23" s="43"/>
       <c r="AD23" s="42"/>
       <c r="AE23" s="43"/>
-      <c r="AF23" s="70"/>
+      <c r="AF23" s="69"/>
       <c r="AG23" s="43"/>
-      <c r="AH23" s="88"/>
-      <c r="AI23" s="89"/>
-      <c r="AJ23" s="72"/>
+      <c r="AH23" s="87"/>
+      <c r="AI23" s="88"/>
+      <c r="AJ23" s="71"/>
       <c r="AK23" s="12">
         <v>10</v>
       </c>
       <c r="AL23" s="12">
         <v>1</v>
       </c>
-      <c r="AM23" s="73"/>
-      <c r="AN23" s="73"/>
+      <c r="AM23" s="72"/>
+      <c r="AN23" s="72"/>
     </row>
     <row r="24" spans="1:40" ht="15.75">
       <c r="A24" s="35" t="s">
@@ -5427,8 +5435,8 @@
       </c>
       <c r="B24" s="58"/>
       <c r="C24" s="50"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="141"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="158"/>
       <c r="F24" s="58"/>
       <c r="G24" s="50"/>
       <c r="H24" s="51"/>
@@ -5439,8 +5447,8 @@
       <c r="M24" s="50"/>
       <c r="N24" s="58"/>
       <c r="O24" s="50"/>
-      <c r="P24" s="140"/>
-      <c r="Q24" s="141"/>
+      <c r="P24" s="157"/>
+      <c r="Q24" s="158"/>
       <c r="R24" s="58"/>
       <c r="S24" s="50"/>
       <c r="T24" s="51"/>
@@ -5457,19 +5465,19 @@
       <c r="AC24" s="43"/>
       <c r="AD24" s="42"/>
       <c r="AE24" s="43"/>
-      <c r="AF24" s="70"/>
+      <c r="AF24" s="69"/>
       <c r="AG24" s="43"/>
-      <c r="AH24" s="88"/>
-      <c r="AI24" s="89"/>
-      <c r="AJ24" s="72"/>
+      <c r="AH24" s="87"/>
+      <c r="AI24" s="88"/>
+      <c r="AJ24" s="71"/>
       <c r="AK24" s="12">
         <v>10</v>
       </c>
       <c r="AL24" s="12">
         <v>1</v>
       </c>
-      <c r="AM24" s="73"/>
-      <c r="AN24" s="73"/>
+      <c r="AM24" s="72"/>
+      <c r="AN24" s="72"/>
     </row>
     <row r="25" spans="1:40" ht="16.5" thickBot="1">
       <c r="A25" s="35" t="s">
@@ -5477,8 +5485,8 @@
       </c>
       <c r="B25" s="58"/>
       <c r="C25" s="50"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="141"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="158"/>
       <c r="F25" s="58"/>
       <c r="G25" s="50"/>
       <c r="H25" s="51"/>
@@ -5489,8 +5497,8 @@
       <c r="M25" s="50"/>
       <c r="N25" s="58"/>
       <c r="O25" s="50"/>
-      <c r="P25" s="140"/>
-      <c r="Q25" s="141"/>
+      <c r="P25" s="157"/>
+      <c r="Q25" s="158"/>
       <c r="R25" s="58"/>
       <c r="S25" s="50"/>
       <c r="T25" s="51"/>
@@ -5507,19 +5515,19 @@
       <c r="AC25" s="43"/>
       <c r="AD25" s="42"/>
       <c r="AE25" s="43"/>
-      <c r="AF25" s="70"/>
+      <c r="AF25" s="69"/>
       <c r="AG25" s="43"/>
-      <c r="AH25" s="88"/>
-      <c r="AI25" s="89"/>
-      <c r="AJ25" s="72"/>
+      <c r="AH25" s="87"/>
+      <c r="AI25" s="88"/>
+      <c r="AJ25" s="71"/>
       <c r="AK25" s="12">
         <v>10</v>
       </c>
       <c r="AL25" s="12">
         <v>1</v>
       </c>
-      <c r="AM25" s="73"/>
-      <c r="AN25" s="73"/>
+      <c r="AM25" s="72"/>
+      <c r="AN25" s="72"/>
     </row>
     <row r="26" spans="1:40" ht="17.25" thickTop="1" thickBot="1">
       <c r="A26" s="14" t="s">
@@ -5528,58 +5536,58 @@
       <c r="B26" s="19">
         <v>1</v>
       </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="158"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="81">
+      <c r="C26" s="91"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="176"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="80">
         <v>1</v>
       </c>
-      <c r="I26" s="94"/>
-      <c r="J26" s="81">
+      <c r="I26" s="93"/>
+      <c r="J26" s="80">
         <v>1</v>
       </c>
-      <c r="K26" s="94"/>
+      <c r="K26" s="93"/>
       <c r="L26" s="15"/>
-      <c r="M26" s="95"/>
+      <c r="M26" s="94"/>
       <c r="N26" s="21"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="160"/>
-      <c r="Q26" s="161"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="93"/>
-      <c r="T26" s="96">
+      <c r="O26" s="94"/>
+      <c r="P26" s="147"/>
+      <c r="Q26" s="148"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="92"/>
+      <c r="T26" s="95">
         <v>1</v>
       </c>
-      <c r="U26" s="92"/>
+      <c r="U26" s="91"/>
       <c r="V26" s="27">
         <v>1</v>
       </c>
-      <c r="W26" s="94"/>
-      <c r="X26" s="97">
+      <c r="W26" s="93"/>
+      <c r="X26" s="96">
         <v>1</v>
       </c>
-      <c r="Y26" s="94"/>
+      <c r="Y26" s="93"/>
       <c r="Z26" s="17"/>
-      <c r="AA26" s="95"/>
-      <c r="AB26" s="98"/>
-      <c r="AC26" s="95"/>
+      <c r="AA26" s="94"/>
+      <c r="AB26" s="97"/>
+      <c r="AC26" s="94"/>
       <c r="AD26" s="31"/>
-      <c r="AE26" s="95"/>
-      <c r="AF26" s="99"/>
-      <c r="AG26" s="95"/>
-      <c r="AH26" s="98"/>
-      <c r="AI26" s="95"/>
-      <c r="AJ26" s="148"/>
-      <c r="AK26" s="148"/>
+      <c r="AE26" s="94"/>
+      <c r="AF26" s="98"/>
+      <c r="AG26" s="94"/>
+      <c r="AH26" s="97"/>
+      <c r="AI26" s="94"/>
+      <c r="AJ26" s="172"/>
+      <c r="AK26" s="172"/>
       <c r="AL26" s="32">
         <v>1</v>
       </c>
-      <c r="AM26" s="86">
+      <c r="AM26" s="85">
         <v>1</v>
       </c>
-      <c r="AN26" s="87">
+      <c r="AN26" s="86">
         <v>1</v>
       </c>
     </row>
@@ -5591,38 +5599,38 @@
         <v>4</v>
       </c>
       <c r="C27" s="41"/>
-      <c r="D27" s="149"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="70"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="69"/>
       <c r="G27" s="43"/>
-      <c r="H27" s="88">
+      <c r="H27" s="87">
         <v>2</v>
       </c>
-      <c r="I27" s="89"/>
-      <c r="J27" s="88">
+      <c r="I27" s="88"/>
+      <c r="J27" s="87">
         <v>2</v>
       </c>
-      <c r="K27" s="89"/>
+      <c r="K27" s="88"/>
       <c r="L27" s="58"/>
       <c r="M27" s="50"/>
       <c r="N27" s="58"/>
       <c r="O27" s="50"/>
-      <c r="P27" s="145"/>
-      <c r="Q27" s="146"/>
-      <c r="R27" s="70"/>
+      <c r="P27" s="155"/>
+      <c r="Q27" s="156"/>
+      <c r="R27" s="69"/>
       <c r="S27" s="43"/>
-      <c r="T27" s="71">
+      <c r="T27" s="70">
         <v>1</v>
       </c>
       <c r="U27" s="41"/>
-      <c r="V27" s="100">
+      <c r="V27" s="99">
         <v>7</v>
       </c>
-      <c r="W27" s="89"/>
-      <c r="X27" s="88">
+      <c r="W27" s="88"/>
+      <c r="X27" s="87">
         <v>1</v>
       </c>
-      <c r="Y27" s="89"/>
+      <c r="Y27" s="88"/>
       <c r="Z27" s="58"/>
       <c r="AA27" s="50"/>
       <c r="AB27" s="51"/>
@@ -5633,56 +5641,56 @@
       <c r="AG27" s="50"/>
       <c r="AH27" s="51"/>
       <c r="AI27" s="50"/>
-      <c r="AJ27" s="72"/>
+      <c r="AJ27" s="71"/>
       <c r="AK27" s="12">
         <v>17</v>
       </c>
       <c r="AL27" s="12">
         <v>1</v>
       </c>
-      <c r="AM27" s="73"/>
-      <c r="AN27" s="73"/>
+      <c r="AM27" s="72"/>
+      <c r="AN27" s="72"/>
     </row>
     <row r="28" spans="1:40" ht="16.5" thickBot="1">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="101">
+      <c r="B28" s="100">
         <v>4</v>
       </c>
-      <c r="C28" s="102"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="105">
+      <c r="C28" s="101"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="104">
         <v>2</v>
       </c>
-      <c r="I28" s="106"/>
-      <c r="J28" s="105">
+      <c r="I28" s="105"/>
+      <c r="J28" s="104">
         <v>2</v>
       </c>
-      <c r="K28" s="106"/>
-      <c r="L28" s="107"/>
-      <c r="M28" s="108"/>
-      <c r="N28" s="107"/>
-      <c r="O28" s="108"/>
-      <c r="P28" s="140"/>
-      <c r="Q28" s="141"/>
-      <c r="R28" s="70"/>
+      <c r="K28" s="105"/>
+      <c r="L28" s="106"/>
+      <c r="M28" s="107"/>
+      <c r="N28" s="106"/>
+      <c r="O28" s="107"/>
+      <c r="P28" s="157"/>
+      <c r="Q28" s="158"/>
+      <c r="R28" s="69"/>
       <c r="S28" s="43"/>
-      <c r="T28" s="71">
+      <c r="T28" s="70">
         <v>1</v>
       </c>
       <c r="U28" s="41"/>
-      <c r="V28" s="100">
+      <c r="V28" s="99">
         <v>7</v>
       </c>
-      <c r="W28" s="89"/>
-      <c r="X28" s="88">
+      <c r="W28" s="88"/>
+      <c r="X28" s="87">
         <v>1</v>
       </c>
-      <c r="Y28" s="89"/>
+      <c r="Y28" s="88"/>
       <c r="Z28" s="58"/>
       <c r="AA28" s="50"/>
       <c r="AB28" s="51"/>
@@ -5693,15 +5701,15 @@
       <c r="AG28" s="50"/>
       <c r="AH28" s="51"/>
       <c r="AI28" s="50"/>
-      <c r="AJ28" s="72"/>
+      <c r="AJ28" s="71"/>
       <c r="AK28" s="12">
         <v>17</v>
       </c>
       <c r="AL28" s="12">
         <v>1</v>
       </c>
-      <c r="AM28" s="75"/>
-      <c r="AN28" s="75"/>
+      <c r="AM28" s="74"/>
+      <c r="AN28" s="74"/>
     </row>
     <row r="29" spans="1:40" ht="17.25" thickTop="1" thickBot="1">
       <c r="A29" s="14" t="s">
@@ -5709,8 +5717,8 @@
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="154"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="146"/>
       <c r="F29" s="15"/>
       <c r="G29" s="16"/>
       <c r="H29" s="17"/>
@@ -5721,8 +5729,8 @@
       <c r="M29" s="16"/>
       <c r="N29" s="15"/>
       <c r="O29" s="16"/>
-      <c r="P29" s="155"/>
-      <c r="Q29" s="156"/>
+      <c r="P29" s="160"/>
+      <c r="Q29" s="161"/>
       <c r="R29" s="15"/>
       <c r="S29" s="16"/>
       <c r="T29" s="17"/>
@@ -5731,27 +5739,27 @@
       <c r="W29" s="16"/>
       <c r="X29" s="17"/>
       <c r="Y29" s="16"/>
-      <c r="Z29" s="63"/>
-      <c r="AA29" s="64"/>
-      <c r="AB29" s="66">
+      <c r="Z29" s="62"/>
+      <c r="AA29" s="63"/>
+      <c r="AB29" s="65">
         <v>3.14</v>
       </c>
       <c r="AC29" s="20"/>
-      <c r="AD29" s="65"/>
-      <c r="AE29" s="64"/>
+      <c r="AD29" s="64"/>
+      <c r="AE29" s="63"/>
       <c r="AF29" s="15"/>
       <c r="AG29" s="16"/>
       <c r="AH29" s="17"/>
       <c r="AI29" s="16"/>
-      <c r="AJ29" s="157"/>
-      <c r="AK29" s="157"/>
+      <c r="AJ29" s="162"/>
+      <c r="AK29" s="162"/>
       <c r="AL29" s="32">
         <v>0.63</v>
       </c>
-      <c r="AM29" s="109">
+      <c r="AM29" s="108">
         <v>3.14</v>
       </c>
-      <c r="AN29" s="110">
+      <c r="AN29" s="109">
         <v>0.628</v>
       </c>
     </row>
@@ -5761,8 +5769,8 @@
       </c>
       <c r="B30" s="58"/>
       <c r="C30" s="50"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="146"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="156"/>
       <c r="F30" s="58"/>
       <c r="G30" s="50"/>
       <c r="H30" s="51"/>
@@ -5773,8 +5781,8 @@
       <c r="M30" s="50"/>
       <c r="N30" s="58"/>
       <c r="O30" s="50"/>
-      <c r="P30" s="145"/>
-      <c r="Q30" s="146"/>
+      <c r="P30" s="155"/>
+      <c r="Q30" s="156"/>
       <c r="R30" s="58"/>
       <c r="S30" s="50"/>
       <c r="T30" s="51"/>
@@ -5783,9 +5791,9 @@
       <c r="W30" s="50"/>
       <c r="X30" s="51"/>
       <c r="Y30" s="50"/>
-      <c r="Z30" s="70"/>
+      <c r="Z30" s="69"/>
       <c r="AA30" s="43"/>
-      <c r="AB30" s="71"/>
+      <c r="AB30" s="70"/>
       <c r="AC30" s="41">
         <v>4</v>
       </c>
@@ -5795,20 +5803,20 @@
       <c r="AG30" s="50"/>
       <c r="AH30" s="51"/>
       <c r="AI30" s="50"/>
-      <c r="AJ30" s="147"/>
-      <c r="AK30" s="147"/>
+      <c r="AJ30" s="178"/>
+      <c r="AK30" s="178"/>
       <c r="AL30" s="12"/>
-      <c r="AM30" s="73"/>
-      <c r="AN30" s="73"/>
+      <c r="AM30" s="72"/>
+      <c r="AN30" s="72"/>
     </row>
     <row r="31" spans="1:40" ht="15.75">
-      <c r="A31" s="111" t="s">
+      <c r="A31" s="110" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="58"/>
       <c r="C31" s="50"/>
-      <c r="D31" s="140"/>
-      <c r="E31" s="141"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="158"/>
       <c r="F31" s="58"/>
       <c r="G31" s="50"/>
       <c r="H31" s="51"/>
@@ -5819,8 +5827,8 @@
       <c r="M31" s="50"/>
       <c r="N31" s="58"/>
       <c r="O31" s="50"/>
-      <c r="P31" s="140"/>
-      <c r="Q31" s="141"/>
+      <c r="P31" s="157"/>
+      <c r="Q31" s="158"/>
       <c r="R31" s="58"/>
       <c r="S31" s="50"/>
       <c r="T31" s="51"/>
@@ -5829,9 +5837,9 @@
       <c r="W31" s="50"/>
       <c r="X31" s="51"/>
       <c r="Y31" s="50"/>
-      <c r="Z31" s="70"/>
+      <c r="Z31" s="69"/>
       <c r="AA31" s="43"/>
-      <c r="AB31" s="71">
+      <c r="AB31" s="70">
         <v>3</v>
       </c>
       <c r="AC31" s="41"/>
@@ -5841,15 +5849,15 @@
       <c r="AG31" s="50"/>
       <c r="AH31" s="51"/>
       <c r="AI31" s="50"/>
-      <c r="AJ31" s="72"/>
+      <c r="AJ31" s="71"/>
       <c r="AK31" s="12">
         <v>3</v>
       </c>
-      <c r="AL31" s="112">
+      <c r="AL31" s="111">
         <v>0.43</v>
       </c>
-      <c r="AM31" s="73"/>
-      <c r="AN31" s="73"/>
+      <c r="AM31" s="72"/>
+      <c r="AN31" s="72"/>
     </row>
     <row r="32" spans="1:40" ht="15.75">
       <c r="A32" s="35" t="s">
@@ -5857,8 +5865,8 @@
       </c>
       <c r="B32" s="58"/>
       <c r="C32" s="50"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="141"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="158"/>
       <c r="F32" s="58"/>
       <c r="G32" s="50"/>
       <c r="H32" s="51"/>
@@ -5869,8 +5877,8 @@
       <c r="M32" s="50"/>
       <c r="N32" s="58"/>
       <c r="O32" s="50"/>
-      <c r="P32" s="140"/>
-      <c r="Q32" s="141"/>
+      <c r="P32" s="157"/>
+      <c r="Q32" s="158"/>
       <c r="R32" s="58"/>
       <c r="S32" s="50"/>
       <c r="T32" s="51"/>
@@ -5879,9 +5887,9 @@
       <c r="W32" s="50"/>
       <c r="X32" s="51"/>
       <c r="Y32" s="50"/>
-      <c r="Z32" s="70"/>
+      <c r="Z32" s="69"/>
       <c r="AA32" s="43"/>
-      <c r="AB32" s="71"/>
+      <c r="AB32" s="70"/>
       <c r="AC32" s="41">
         <v>1</v>
       </c>
@@ -5891,20 +5899,20 @@
       <c r="AG32" s="50"/>
       <c r="AH32" s="51"/>
       <c r="AI32" s="50"/>
-      <c r="AJ32" s="142"/>
-      <c r="AK32" s="142"/>
-      <c r="AL32" s="112"/>
-      <c r="AM32" s="73"/>
-      <c r="AN32" s="73"/>
+      <c r="AJ32" s="177"/>
+      <c r="AK32" s="177"/>
+      <c r="AL32" s="111"/>
+      <c r="AM32" s="72"/>
+      <c r="AN32" s="72"/>
     </row>
     <row r="33" spans="1:40" ht="15.75">
-      <c r="A33" s="111" t="s">
+      <c r="A33" s="110" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="58"/>
       <c r="C33" s="50"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="141"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="158"/>
       <c r="F33" s="58"/>
       <c r="G33" s="50"/>
       <c r="H33" s="51"/>
@@ -5915,8 +5923,8 @@
       <c r="M33" s="50"/>
       <c r="N33" s="58"/>
       <c r="O33" s="50"/>
-      <c r="P33" s="140"/>
-      <c r="Q33" s="141"/>
+      <c r="P33" s="157"/>
+      <c r="Q33" s="158"/>
       <c r="R33" s="58"/>
       <c r="S33" s="50"/>
       <c r="T33" s="51"/>
@@ -5925,9 +5933,9 @@
       <c r="W33" s="50"/>
       <c r="X33" s="51"/>
       <c r="Y33" s="50"/>
-      <c r="Z33" s="70"/>
+      <c r="Z33" s="69"/>
       <c r="AA33" s="43"/>
-      <c r="AB33" s="71">
+      <c r="AB33" s="70">
         <v>5</v>
       </c>
       <c r="AC33" s="41"/>
@@ -5937,15 +5945,15 @@
       <c r="AG33" s="50"/>
       <c r="AH33" s="51"/>
       <c r="AI33" s="50"/>
-      <c r="AJ33" s="72"/>
+      <c r="AJ33" s="71"/>
       <c r="AK33" s="12">
         <v>5</v>
       </c>
-      <c r="AL33" s="112">
+      <c r="AL33" s="111">
         <v>0.71</v>
       </c>
-      <c r="AM33" s="73"/>
-      <c r="AN33" s="73"/>
+      <c r="AM33" s="72"/>
+      <c r="AN33" s="72"/>
     </row>
     <row r="34" spans="1:40" ht="15.75">
       <c r="A34" s="35" t="s">
@@ -5953,8 +5961,8 @@
       </c>
       <c r="B34" s="58"/>
       <c r="C34" s="50"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="141"/>
+      <c r="D34" s="157"/>
+      <c r="E34" s="158"/>
       <c r="F34" s="58"/>
       <c r="G34" s="50"/>
       <c r="H34" s="51"/>
@@ -5965,8 +5973,8 @@
       <c r="M34" s="50"/>
       <c r="N34" s="58"/>
       <c r="O34" s="50"/>
-      <c r="P34" s="140"/>
-      <c r="Q34" s="141"/>
+      <c r="P34" s="157"/>
+      <c r="Q34" s="158"/>
       <c r="R34" s="58"/>
       <c r="S34" s="50"/>
       <c r="T34" s="51"/>
@@ -5975,9 +5983,9 @@
       <c r="W34" s="50"/>
       <c r="X34" s="51"/>
       <c r="Y34" s="50"/>
-      <c r="Z34" s="70"/>
+      <c r="Z34" s="69"/>
       <c r="AA34" s="43"/>
-      <c r="AB34" s="71"/>
+      <c r="AB34" s="70"/>
       <c r="AC34" s="41"/>
       <c r="AD34" s="42"/>
       <c r="AE34" s="43"/>
@@ -5985,20 +5993,20 @@
       <c r="AG34" s="50"/>
       <c r="AH34" s="51"/>
       <c r="AI34" s="50"/>
-      <c r="AJ34" s="142"/>
-      <c r="AK34" s="142"/>
-      <c r="AL34" s="112"/>
-      <c r="AM34" s="73"/>
-      <c r="AN34" s="73"/>
+      <c r="AJ34" s="177"/>
+      <c r="AK34" s="177"/>
+      <c r="AL34" s="111"/>
+      <c r="AM34" s="72"/>
+      <c r="AN34" s="72"/>
     </row>
     <row r="35" spans="1:40" ht="15.75">
-      <c r="A35" s="111" t="s">
+      <c r="A35" s="110" t="s">
         <v>21</v>
       </c>
       <c r="B35" s="58"/>
       <c r="C35" s="50"/>
-      <c r="D35" s="140"/>
-      <c r="E35" s="141"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="158"/>
       <c r="F35" s="58"/>
       <c r="G35" s="50"/>
       <c r="H35" s="51"/>
@@ -6009,8 +6017,8 @@
       <c r="M35" s="50"/>
       <c r="N35" s="58"/>
       <c r="O35" s="50"/>
-      <c r="P35" s="140"/>
-      <c r="Q35" s="141"/>
+      <c r="P35" s="157"/>
+      <c r="Q35" s="158"/>
       <c r="R35" s="58"/>
       <c r="S35" s="50"/>
       <c r="T35" s="51"/>
@@ -6019,9 +6027,9 @@
       <c r="W35" s="50"/>
       <c r="X35" s="51"/>
       <c r="Y35" s="50"/>
-      <c r="Z35" s="70"/>
+      <c r="Z35" s="69"/>
       <c r="AA35" s="43"/>
-      <c r="AB35" s="71">
+      <c r="AB35" s="70">
         <v>6</v>
       </c>
       <c r="AC35" s="41">
@@ -6033,15 +6041,15 @@
       <c r="AG35" s="50"/>
       <c r="AH35" s="51"/>
       <c r="AI35" s="50"/>
-      <c r="AJ35" s="72"/>
+      <c r="AJ35" s="71"/>
       <c r="AK35" s="12">
         <v>7</v>
       </c>
-      <c r="AL35" s="112">
+      <c r="AL35" s="111">
         <v>1</v>
       </c>
-      <c r="AM35" s="113"/>
-      <c r="AN35" s="113"/>
+      <c r="AM35" s="112"/>
+      <c r="AN35" s="112"/>
     </row>
     <row r="36" spans="1:40" ht="15.75">
       <c r="A36" s="35" t="s">
@@ -6049,8 +6057,8 @@
       </c>
       <c r="B36" s="58"/>
       <c r="C36" s="50"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="141"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="158"/>
       <c r="F36" s="58"/>
       <c r="G36" s="50"/>
       <c r="H36" s="51"/>
@@ -6061,8 +6069,8 @@
       <c r="M36" s="50"/>
       <c r="N36" s="58"/>
       <c r="O36" s="50"/>
-      <c r="P36" s="140"/>
-      <c r="Q36" s="141"/>
+      <c r="P36" s="157"/>
+      <c r="Q36" s="158"/>
       <c r="R36" s="58"/>
       <c r="S36" s="50"/>
       <c r="T36" s="51"/>
@@ -6071,9 +6079,9 @@
       <c r="W36" s="50"/>
       <c r="X36" s="51"/>
       <c r="Y36" s="50"/>
-      <c r="Z36" s="70"/>
+      <c r="Z36" s="69"/>
       <c r="AA36" s="43"/>
-      <c r="AB36" s="71"/>
+      <c r="AB36" s="70"/>
       <c r="AC36" s="41"/>
       <c r="AD36" s="42"/>
       <c r="AE36" s="43"/>
@@ -6081,11 +6089,11 @@
       <c r="AG36" s="50"/>
       <c r="AH36" s="51"/>
       <c r="AI36" s="50"/>
-      <c r="AJ36" s="142"/>
-      <c r="AK36" s="142"/>
-      <c r="AL36" s="112"/>
-      <c r="AM36" s="73"/>
-      <c r="AN36" s="73"/>
+      <c r="AJ36" s="177"/>
+      <c r="AK36" s="177"/>
+      <c r="AL36" s="111"/>
+      <c r="AM36" s="72"/>
+      <c r="AN36" s="72"/>
     </row>
     <row r="37" spans="1:40" ht="15.75">
       <c r="A37" s="35" t="s">
@@ -6093,8 +6101,8 @@
       </c>
       <c r="B37" s="58"/>
       <c r="C37" s="50"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="141"/>
+      <c r="D37" s="157"/>
+      <c r="E37" s="158"/>
       <c r="F37" s="58"/>
       <c r="G37" s="50"/>
       <c r="H37" s="51"/>
@@ -6105,8 +6113,8 @@
       <c r="M37" s="50"/>
       <c r="N37" s="58"/>
       <c r="O37" s="50"/>
-      <c r="P37" s="140"/>
-      <c r="Q37" s="141"/>
+      <c r="P37" s="157"/>
+      <c r="Q37" s="158"/>
       <c r="R37" s="58"/>
       <c r="S37" s="50"/>
       <c r="T37" s="51"/>
@@ -6115,9 +6123,9 @@
       <c r="W37" s="50"/>
       <c r="X37" s="51"/>
       <c r="Y37" s="50"/>
-      <c r="Z37" s="70"/>
+      <c r="Z37" s="69"/>
       <c r="AA37" s="43"/>
-      <c r="AB37" s="71"/>
+      <c r="AB37" s="70"/>
       <c r="AC37" s="41"/>
       <c r="AD37" s="42"/>
       <c r="AE37" s="43"/>
@@ -6125,11 +6133,11 @@
       <c r="AG37" s="50"/>
       <c r="AH37" s="51"/>
       <c r="AI37" s="50"/>
-      <c r="AJ37" s="142"/>
-      <c r="AK37" s="142"/>
-      <c r="AL37" s="112"/>
-      <c r="AM37" s="73"/>
-      <c r="AN37" s="73"/>
+      <c r="AJ37" s="177"/>
+      <c r="AK37" s="177"/>
+      <c r="AL37" s="111"/>
+      <c r="AM37" s="72"/>
+      <c r="AN37" s="72"/>
     </row>
     <row r="38" spans="1:40" ht="15.75">
       <c r="A38" s="35" t="s">
@@ -6137,8 +6145,8 @@
       </c>
       <c r="B38" s="58"/>
       <c r="C38" s="50"/>
-      <c r="D38" s="140"/>
-      <c r="E38" s="141"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="158"/>
       <c r="F38" s="58"/>
       <c r="G38" s="50"/>
       <c r="H38" s="51"/>
@@ -6149,8 +6157,8 @@
       <c r="M38" s="50"/>
       <c r="N38" s="58"/>
       <c r="O38" s="50"/>
-      <c r="P38" s="140"/>
-      <c r="Q38" s="141"/>
+      <c r="P38" s="157"/>
+      <c r="Q38" s="158"/>
       <c r="R38" s="58"/>
       <c r="S38" s="50"/>
       <c r="T38" s="51"/>
@@ -6159,9 +6167,9 @@
       <c r="W38" s="50"/>
       <c r="X38" s="51"/>
       <c r="Y38" s="50"/>
-      <c r="Z38" s="70"/>
+      <c r="Z38" s="69"/>
       <c r="AA38" s="43"/>
-      <c r="AB38" s="71"/>
+      <c r="AB38" s="70"/>
       <c r="AC38" s="41">
         <v>2</v>
       </c>
@@ -6171,20 +6179,20 @@
       <c r="AG38" s="50"/>
       <c r="AH38" s="51"/>
       <c r="AI38" s="50"/>
-      <c r="AJ38" s="142"/>
-      <c r="AK38" s="142"/>
-      <c r="AL38" s="112"/>
-      <c r="AM38" s="73"/>
-      <c r="AN38" s="73"/>
+      <c r="AJ38" s="177"/>
+      <c r="AK38" s="177"/>
+      <c r="AL38" s="111"/>
+      <c r="AM38" s="72"/>
+      <c r="AN38" s="72"/>
     </row>
     <row r="39" spans="1:40" ht="15.75">
-      <c r="A39" s="111" t="s">
+      <c r="A39" s="110" t="s">
         <v>25</v>
       </c>
       <c r="B39" s="58"/>
       <c r="C39" s="50"/>
-      <c r="D39" s="140"/>
-      <c r="E39" s="141"/>
+      <c r="D39" s="157"/>
+      <c r="E39" s="158"/>
       <c r="F39" s="58"/>
       <c r="G39" s="50"/>
       <c r="H39" s="51"/>
@@ -6195,8 +6203,8 @@
       <c r="M39" s="50"/>
       <c r="N39" s="58"/>
       <c r="O39" s="50"/>
-      <c r="P39" s="140"/>
-      <c r="Q39" s="141"/>
+      <c r="P39" s="157"/>
+      <c r="Q39" s="158"/>
       <c r="R39" s="58"/>
       <c r="S39" s="50"/>
       <c r="T39" s="51"/>
@@ -6205,9 +6213,9 @@
       <c r="W39" s="50"/>
       <c r="X39" s="51"/>
       <c r="Y39" s="50"/>
-      <c r="Z39" s="70"/>
+      <c r="Z39" s="69"/>
       <c r="AA39" s="43"/>
-      <c r="AB39" s="71">
+      <c r="AB39" s="70">
         <v>2</v>
       </c>
       <c r="AC39" s="41"/>
@@ -6217,15 +6225,15 @@
       <c r="AG39" s="50"/>
       <c r="AH39" s="51"/>
       <c r="AI39" s="50"/>
-      <c r="AJ39" s="72"/>
+      <c r="AJ39" s="71"/>
       <c r="AK39" s="12">
         <v>2</v>
       </c>
-      <c r="AL39" s="112">
+      <c r="AL39" s="111">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AM39" s="113"/>
-      <c r="AN39" s="113"/>
+      <c r="AM39" s="112"/>
+      <c r="AN39" s="112"/>
     </row>
     <row r="40" spans="1:40" ht="15.75">
       <c r="A40" s="35" t="s">
@@ -6233,8 +6241,8 @@
       </c>
       <c r="B40" s="58"/>
       <c r="C40" s="50"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="141"/>
+      <c r="D40" s="157"/>
+      <c r="E40" s="158"/>
       <c r="F40" s="58"/>
       <c r="G40" s="50"/>
       <c r="H40" s="51"/>
@@ -6245,8 +6253,8 @@
       <c r="M40" s="50"/>
       <c r="N40" s="58"/>
       <c r="O40" s="50"/>
-      <c r="P40" s="140"/>
-      <c r="Q40" s="141"/>
+      <c r="P40" s="157"/>
+      <c r="Q40" s="158"/>
       <c r="R40" s="58"/>
       <c r="S40" s="50"/>
       <c r="T40" s="51"/>
@@ -6255,9 +6263,9 @@
       <c r="W40" s="50"/>
       <c r="X40" s="51"/>
       <c r="Y40" s="50"/>
-      <c r="Z40" s="70"/>
+      <c r="Z40" s="69"/>
       <c r="AA40" s="43"/>
-      <c r="AB40" s="71"/>
+      <c r="AB40" s="70"/>
       <c r="AC40" s="41">
         <v>3</v>
       </c>
@@ -6267,11 +6275,11 @@
       <c r="AG40" s="50"/>
       <c r="AH40" s="51"/>
       <c r="AI40" s="50"/>
-      <c r="AJ40" s="142"/>
-      <c r="AK40" s="142"/>
-      <c r="AL40" s="112"/>
-      <c r="AM40" s="73"/>
-      <c r="AN40" s="73"/>
+      <c r="AJ40" s="177"/>
+      <c r="AK40" s="177"/>
+      <c r="AL40" s="111"/>
+      <c r="AM40" s="72"/>
+      <c r="AN40" s="72"/>
     </row>
     <row r="41" spans="1:40" ht="15.75">
       <c r="A41" s="35" t="s">
@@ -6279,8 +6287,8 @@
       </c>
       <c r="B41" s="58"/>
       <c r="C41" s="50"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="141"/>
+      <c r="D41" s="157"/>
+      <c r="E41" s="158"/>
       <c r="F41" s="58"/>
       <c r="G41" s="50"/>
       <c r="H41" s="51"/>
@@ -6291,8 +6299,8 @@
       <c r="M41" s="50"/>
       <c r="N41" s="58"/>
       <c r="O41" s="50"/>
-      <c r="P41" s="140"/>
-      <c r="Q41" s="141"/>
+      <c r="P41" s="157"/>
+      <c r="Q41" s="158"/>
       <c r="R41" s="58"/>
       <c r="S41" s="50"/>
       <c r="T41" s="51"/>
@@ -6301,9 +6309,9 @@
       <c r="W41" s="50"/>
       <c r="X41" s="51"/>
       <c r="Y41" s="50"/>
-      <c r="Z41" s="70"/>
+      <c r="Z41" s="69"/>
       <c r="AA41" s="43"/>
-      <c r="AB41" s="71"/>
+      <c r="AB41" s="70"/>
       <c r="AC41" s="41">
         <v>2</v>
       </c>
@@ -6313,20 +6321,20 @@
       <c r="AG41" s="50"/>
       <c r="AH41" s="51"/>
       <c r="AI41" s="50"/>
-      <c r="AJ41" s="142"/>
-      <c r="AK41" s="142"/>
-      <c r="AL41" s="112"/>
-      <c r="AM41" s="73"/>
-      <c r="AN41" s="73"/>
+      <c r="AJ41" s="177"/>
+      <c r="AK41" s="177"/>
+      <c r="AL41" s="111"/>
+      <c r="AM41" s="72"/>
+      <c r="AN41" s="72"/>
     </row>
     <row r="42" spans="1:40" ht="15.75">
-      <c r="A42" s="111" t="s">
+      <c r="A42" s="110" t="s">
         <v>28</v>
       </c>
       <c r="B42" s="58"/>
       <c r="C42" s="50"/>
-      <c r="D42" s="140"/>
-      <c r="E42" s="141"/>
+      <c r="D42" s="157"/>
+      <c r="E42" s="158"/>
       <c r="F42" s="58"/>
       <c r="G42" s="50"/>
       <c r="H42" s="51"/>
@@ -6337,8 +6345,8 @@
       <c r="M42" s="50"/>
       <c r="N42" s="58"/>
       <c r="O42" s="50"/>
-      <c r="P42" s="140"/>
-      <c r="Q42" s="141"/>
+      <c r="P42" s="157"/>
+      <c r="Q42" s="158"/>
       <c r="R42" s="58"/>
       <c r="S42" s="50"/>
       <c r="T42" s="51"/>
@@ -6347,9 +6355,9 @@
       <c r="W42" s="50"/>
       <c r="X42" s="51"/>
       <c r="Y42" s="50"/>
-      <c r="Z42" s="70"/>
+      <c r="Z42" s="69"/>
       <c r="AA42" s="43"/>
-      <c r="AB42" s="71">
+      <c r="AB42" s="70">
         <v>5</v>
       </c>
       <c r="AC42" s="41"/>
@@ -6359,47 +6367,47 @@
       <c r="AG42" s="50"/>
       <c r="AH42" s="51"/>
       <c r="AI42" s="50"/>
-      <c r="AJ42" s="72"/>
+      <c r="AJ42" s="71"/>
       <c r="AK42" s="12">
         <v>5</v>
       </c>
-      <c r="AL42" s="112">
+      <c r="AL42" s="111">
         <v>0.71</v>
       </c>
-      <c r="AM42" s="113"/>
-      <c r="AN42" s="113"/>
+      <c r="AM42" s="112"/>
+      <c r="AN42" s="112"/>
     </row>
     <row r="43" spans="1:40" ht="16.5" thickBot="1">
-      <c r="A43" s="74" t="s">
+      <c r="A43" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="107"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="143"/>
-      <c r="E43" s="144"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="108"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="108"/>
-      <c r="J43" s="114"/>
-      <c r="K43" s="108"/>
-      <c r="L43" s="107"/>
-      <c r="M43" s="108"/>
-      <c r="N43" s="107"/>
-      <c r="O43" s="108"/>
-      <c r="P43" s="143"/>
-      <c r="Q43" s="144"/>
-      <c r="R43" s="107"/>
-      <c r="S43" s="108"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="182"/>
+      <c r="E43" s="183"/>
+      <c r="F43" s="106"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="113"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="113"/>
+      <c r="K43" s="107"/>
+      <c r="L43" s="106"/>
+      <c r="M43" s="107"/>
+      <c r="N43" s="106"/>
+      <c r="O43" s="107"/>
+      <c r="P43" s="182"/>
+      <c r="Q43" s="183"/>
+      <c r="R43" s="106"/>
+      <c r="S43" s="107"/>
       <c r="T43" s="51"/>
       <c r="U43" s="50"/>
       <c r="V43" s="58"/>
       <c r="W43" s="50"/>
       <c r="X43" s="51"/>
       <c r="Y43" s="50"/>
-      <c r="Z43" s="70"/>
+      <c r="Z43" s="69"/>
       <c r="AA43" s="43"/>
-      <c r="AB43" s="71"/>
+      <c r="AB43" s="70"/>
       <c r="AC43" s="41"/>
       <c r="AD43" s="42"/>
       <c r="AE43" s="43"/>
@@ -6407,156 +6415,112 @@
       <c r="AG43" s="50"/>
       <c r="AH43" s="51"/>
       <c r="AI43" s="50"/>
-      <c r="AJ43" s="142"/>
-      <c r="AK43" s="142"/>
-      <c r="AL43" s="112"/>
-      <c r="AM43" s="115"/>
-      <c r="AN43" s="115"/>
+      <c r="AJ43" s="177"/>
+      <c r="AK43" s="177"/>
+      <c r="AL43" s="111"/>
+      <c r="AM43" s="114"/>
+      <c r="AN43" s="114"/>
     </row>
     <row r="44" spans="1:40" ht="16.5" thickTop="1">
-      <c r="A44" s="122" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="123">
+      <c r="A44" s="121" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="122">
         <v>4</v>
       </c>
-      <c r="C44" s="124"/>
-      <c r="D44" s="125">
+      <c r="C44" s="123"/>
+      <c r="D44" s="124">
         <v>3</v>
       </c>
-      <c r="E44" s="125"/>
-      <c r="F44" s="123"/>
-      <c r="G44" s="124">
+      <c r="E44" s="124"/>
+      <c r="F44" s="122"/>
+      <c r="G44" s="123">
         <v>2</v>
       </c>
-      <c r="H44" s="125"/>
-      <c r="I44" s="124">
+      <c r="H44" s="124"/>
+      <c r="I44" s="123">
         <v>2</v>
       </c>
-      <c r="J44" s="125"/>
-      <c r="K44" s="124">
+      <c r="J44" s="124"/>
+      <c r="K44" s="123">
         <v>2</v>
       </c>
-      <c r="L44" s="126"/>
-      <c r="M44" s="127">
+      <c r="L44" s="125"/>
+      <c r="M44" s="126">
         <v>1</v>
       </c>
-      <c r="N44" s="126"/>
-      <c r="O44" s="127">
+      <c r="N44" s="125"/>
+      <c r="O44" s="126">
         <v>4</v>
       </c>
-      <c r="P44" s="137">
+      <c r="P44" s="179">
         <v>1</v>
       </c>
-      <c r="Q44" s="138"/>
-      <c r="R44" s="126">
+      <c r="Q44" s="180"/>
+      <c r="R44" s="125">
         <v>7</v>
       </c>
-      <c r="S44" s="127"/>
-      <c r="T44" s="128">
+      <c r="S44" s="126"/>
+      <c r="T44" s="127">
         <v>1</v>
       </c>
-      <c r="U44" s="127"/>
-      <c r="V44" s="126">
+      <c r="U44" s="126"/>
+      <c r="V44" s="125">
         <v>7</v>
       </c>
-      <c r="W44" s="127"/>
-      <c r="X44" s="128">
+      <c r="W44" s="126"/>
+      <c r="X44" s="127">
         <v>1</v>
       </c>
-      <c r="Y44" s="127"/>
-      <c r="Z44" s="126">
+      <c r="Y44" s="126"/>
+      <c r="Z44" s="125">
         <v>10</v>
       </c>
-      <c r="AA44" s="127"/>
-      <c r="AB44" s="128">
+      <c r="AA44" s="126"/>
+      <c r="AB44" s="127">
         <v>7</v>
       </c>
-      <c r="AC44" s="127"/>
-      <c r="AD44" s="128">
+      <c r="AC44" s="126"/>
+      <c r="AD44" s="127">
         <v>2</v>
       </c>
-      <c r="AE44" s="127"/>
-      <c r="AF44" s="126"/>
-      <c r="AG44" s="127"/>
-      <c r="AH44" s="128"/>
-      <c r="AI44" s="127"/>
-      <c r="AJ44" s="139"/>
-      <c r="AK44" s="139"/>
-      <c r="AL44" s="129"/>
-      <c r="AM44" s="130"/>
-      <c r="AN44" s="130"/>
+      <c r="AE44" s="126"/>
+      <c r="AF44" s="125"/>
+      <c r="AG44" s="126"/>
+      <c r="AH44" s="127"/>
+      <c r="AI44" s="126"/>
+      <c r="AJ44" s="181"/>
+      <c r="AK44" s="181"/>
+      <c r="AL44" s="128"/>
+      <c r="AM44" s="129"/>
+      <c r="AN44" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="AJ14:AK14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="AJ20:AK20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="AJ26:AK26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="AJ29:AK29"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="AJ44:AK44"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="AJ41:AK41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="AJ43:AK43"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="AJ38:AK38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="AJ40:AK40"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="AJ36:AK36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="AJ37:AK37"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="P33:Q33"/>
     <mergeCell ref="D34:E34"/>
@@ -6572,30 +6536,74 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="P32:Q32"/>
     <mergeCell ref="AJ32:AK32"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="AJ38:AK38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="AJ40:AK40"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="AJ36:AK36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="AJ37:AK37"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="AJ44:AK44"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="AJ41:AK41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="AJ43:AK43"/>
+    <mergeCell ref="AJ26:AK26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="AJ29:AK29"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="AJ20:AK20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="AJ3:AK3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6606,17 +6614,17 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="134" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="133" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
@@ -6624,35 +6632,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" thickBot="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="115" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="116" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="116" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="132" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="117" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="117" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="133" t="s">
+      <c r="H1" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="116" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="116" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="116" t="s">
+      <c r="J1" s="115" t="s">
         <v>47</v>
-      </c>
-      <c r="J1" s="116" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1">
@@ -6668,7 +6676,7 @@
       <c r="E2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="134">
+      <c r="F2" s="133">
         <v>1</v>
       </c>
       <c r="G2">
@@ -6678,11 +6686,11 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <f>(G2/F2)*100</f>
+        <f t="shared" ref="I2:I33" si="0">(G2/F2)*100</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>(H2/F2)*100</f>
+        <f t="shared" ref="J2:J33" si="1">(H2/F2)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -6699,7 +6707,7 @@
       <c r="E3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="134">
+      <c r="F3" s="133">
         <v>1</v>
       </c>
       <c r="G3">
@@ -6709,11 +6717,11 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <f>(G3/F3)*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>(H3/F3)*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6730,7 +6738,7 @@
       <c r="E4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="134">
+      <c r="F4" s="133">
         <v>1</v>
       </c>
       <c r="G4">
@@ -6740,11 +6748,11 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <f>(G4/F4)*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>(H4/F4)*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6761,7 +6769,7 @@
       <c r="E5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="134">
+      <c r="F5" s="133">
         <v>1</v>
       </c>
       <c r="G5">
@@ -6771,43 +6779,43 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <f>(G5/F5)*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>(H5/F5)*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="119">
+      <c r="C6" s="119"/>
+      <c r="D6" s="118">
         <v>45778</v>
       </c>
-      <c r="E6" s="119" t="s">
+      <c r="E6" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="135">
+      <c r="F6" s="134">
         <v>1</v>
       </c>
-      <c r="G6" s="118">
+      <c r="G6" s="117">
         <v>1</v>
       </c>
-      <c r="H6" s="118">
+      <c r="H6" s="117">
         <v>0</v>
       </c>
       <c r="I6">
-        <f>(G6/F6)*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="J6">
-        <f>(H6/F6)*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6824,7 +6832,7 @@
       <c r="E7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="134">
+      <c r="F7" s="133">
         <v>7</v>
       </c>
       <c r="G7">
@@ -6834,11 +6842,11 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <f>(G7/F7)*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>(H7/F7)*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6855,7 +6863,7 @@
       <c r="E8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="134">
+      <c r="F8" s="133">
         <v>7</v>
       </c>
       <c r="G8">
@@ -6865,11 +6873,11 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <f>(G8/F8)*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>(H8/F8)*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6886,7 +6894,7 @@
       <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="134">
+      <c r="F9" s="133">
         <v>7</v>
       </c>
       <c r="G9">
@@ -6896,11 +6904,11 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <f>(G9/F9)*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>(H9/F9)*100</f>
+        <f t="shared" si="1"/>
         <v>14.285714285714285</v>
       </c>
     </row>
@@ -6917,7 +6925,7 @@
       <c r="E10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="134">
+      <c r="F10" s="133">
         <v>7</v>
       </c>
       <c r="G10">
@@ -6927,43 +6935,43 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <f>(G10/F10)*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>(H10/F10)*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="118" t="s">
+      <c r="A11" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="118" t="s">
+      <c r="B11" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="119">
+      <c r="C11" s="119"/>
+      <c r="D11" s="118">
         <v>45839</v>
       </c>
-      <c r="E11" s="119" t="s">
+      <c r="E11" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="135">
+      <c r="F11" s="134">
         <v>7</v>
       </c>
-      <c r="G11" s="118">
+      <c r="G11" s="117">
         <v>6</v>
       </c>
-      <c r="H11" s="118">
+      <c r="H11" s="117">
         <v>0</v>
       </c>
       <c r="I11">
-        <f>(G11/F11)*100</f>
+        <f t="shared" si="0"/>
         <v>85.714285714285708</v>
       </c>
       <c r="J11">
-        <f>(H11/F11)*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6980,7 +6988,7 @@
       <c r="E12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="134">
+      <c r="F12" s="133">
         <v>7</v>
       </c>
       <c r="G12">
@@ -6990,11 +6998,11 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <f>(G12/F12)*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>(H12/F12)*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7011,7 +7019,7 @@
       <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="134">
+      <c r="F13" s="133">
         <v>7</v>
       </c>
       <c r="G13">
@@ -7021,11 +7029,11 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <f>(G13/F13)*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>(H13/F13)*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7042,7 +7050,7 @@
       <c r="E14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="134">
+      <c r="F14" s="133">
         <v>7</v>
       </c>
       <c r="G14">
@@ -7052,11 +7060,11 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <f>(G14/F14)*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J14">
-        <f>(H14/F14)*100</f>
+        <f t="shared" si="1"/>
         <v>14.285714285714285</v>
       </c>
     </row>
@@ -7073,7 +7081,7 @@
       <c r="E15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="134">
+      <c r="F15" s="133">
         <v>7</v>
       </c>
       <c r="G15">
@@ -7083,43 +7091,43 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <f>(G15/F15)*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J15">
-        <f>(H15/F15)*100</f>
+        <f t="shared" si="1"/>
         <v>14.285714285714285</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="118" t="s">
+      <c r="A16" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="118" t="s">
+      <c r="B16" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="119">
+      <c r="C16" s="119"/>
+      <c r="D16" s="118">
         <v>45901</v>
       </c>
-      <c r="E16" s="119" t="s">
+      <c r="E16" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="135">
+      <c r="F16" s="134">
         <v>7</v>
       </c>
-      <c r="G16" s="118">
+      <c r="G16" s="117">
         <v>5</v>
       </c>
-      <c r="H16" s="118">
+      <c r="H16" s="117">
         <v>0</v>
       </c>
       <c r="I16">
-        <f>(G16/F16)*100</f>
+        <f t="shared" si="0"/>
         <v>71.428571428571431</v>
       </c>
       <c r="J16">
-        <f>(H16/F16)*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7130,15 +7138,15 @@
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="121"/>
+      <c r="C17" s="120"/>
       <c r="D17" s="2">
         <v>45839</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="134">
-        <v>1</v>
+      <c r="F17" s="133">
+        <v>5</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -7147,11 +7155,11 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <f>(G17/F17)*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J17">
-        <f>(H17/F17)*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7168,8 +7176,8 @@
       <c r="E18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="134">
-        <v>1</v>
+      <c r="F18" s="133">
+        <v>5</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -7178,11 +7186,11 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <f>(G18/F18)*100</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="J18">
-        <f>(H18/F18)*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7199,8 +7207,8 @@
       <c r="E19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="134">
-        <v>1</v>
+      <c r="F19" s="133">
+        <v>5</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -7209,11 +7217,11 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <f>(G19/F19)*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J19">
-        <f>(H19/F19)*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7230,8 +7238,8 @@
       <c r="E20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="134">
-        <v>1</v>
+      <c r="F20" s="133">
+        <v>5</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -7240,43 +7248,43 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <f>(G20/F20)*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J20">
-        <f>(H20/F20)*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="118" t="s">
+      <c r="A21" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="118" t="s">
+      <c r="B21" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="118"/>
-      <c r="D21" s="119">
+      <c r="C21" s="117"/>
+      <c r="D21" s="118">
         <v>45839</v>
       </c>
-      <c r="E21" s="119" t="s">
+      <c r="E21" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="135">
-        <v>1</v>
-      </c>
-      <c r="G21" s="118">
-        <v>0</v>
-      </c>
-      <c r="H21" s="118">
+      <c r="F21" s="134">
+        <v>5</v>
+      </c>
+      <c r="G21" s="117">
+        <v>0</v>
+      </c>
+      <c r="H21" s="117">
         <v>0</v>
       </c>
       <c r="I21">
-        <f>(G21/F21)*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J21">
-        <f>(H21/F21)*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7287,14 +7295,14 @@
       <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="121"/>
+      <c r="C22" s="120"/>
       <c r="D22" s="2">
         <v>45931</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="134">
+      <c r="F22" s="133">
         <v>2</v>
       </c>
       <c r="G22">
@@ -7304,11 +7312,11 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <f>(G22/F22)*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="J22">
-        <f>(H22/F22)*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7325,7 +7333,7 @@
       <c r="E23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="134">
+      <c r="F23" s="133">
         <v>2</v>
       </c>
       <c r="G23">
@@ -7335,11 +7343,11 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <f>(G23/F23)*100</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="J23">
-        <f>(H23/F23)*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7356,7 +7364,7 @@
       <c r="E24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="134">
+      <c r="F24" s="133">
         <v>2</v>
       </c>
       <c r="G24">
@@ -7366,11 +7374,11 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <f>(G24/F24)*100</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="J24">
-        <f>(H24/F24)*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7387,7 +7395,7 @@
       <c r="E25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="134">
+      <c r="F25" s="133">
         <v>2</v>
       </c>
       <c r="G25">
@@ -7397,49 +7405,49 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <f>(G25/F25)*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J25">
-        <f>(H25/F25)*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="118" t="s">
+      <c r="A26" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="118" t="s">
+      <c r="B26" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="118"/>
-      <c r="D26" s="119">
+      <c r="C26" s="117"/>
+      <c r="D26" s="118">
         <v>45931</v>
       </c>
-      <c r="E26" s="119" t="s">
+      <c r="E26" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="135">
+      <c r="F26" s="134">
         <v>2</v>
       </c>
-      <c r="G26" s="118">
+      <c r="G26" s="117">
         <v>2</v>
       </c>
-      <c r="H26" s="118">
+      <c r="H26" s="117">
         <v>0</v>
       </c>
       <c r="I26">
-        <f>(G26/F26)*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="J26">
-        <f>(H26/F26)*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -7450,7 +7458,7 @@
       <c r="E27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="134">
+      <c r="F27" s="133">
         <v>4</v>
       </c>
       <c r="G27">
@@ -7460,17 +7468,17 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <f>(G27/F27)*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="J27">
-        <f>(H27/F27)*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
@@ -7481,7 +7489,7 @@
       <c r="E28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="134">
+      <c r="F28" s="133">
         <v>4</v>
       </c>
       <c r="G28">
@@ -7491,17 +7499,17 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <f>(G28/F28)*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="J28">
-        <f>(H28/F28)*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
@@ -7512,7 +7520,7 @@
       <c r="E29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="134">
+      <c r="F29" s="133">
         <v>4</v>
       </c>
       <c r="G29">
@@ -7522,17 +7530,17 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <f>(G29/F29)*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="J29">
-        <f>(H29/F29)*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -7543,7 +7551,7 @@
       <c r="E30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="134">
+      <c r="F30" s="133">
         <v>4</v>
       </c>
       <c r="G30">
@@ -7553,49 +7561,49 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <f>(G30/F30)*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="J30">
-        <f>(H30/F30)*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="118" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="118" t="s">
+      <c r="A31" s="117" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="118"/>
-      <c r="D31" s="119">
+      <c r="C31" s="117"/>
+      <c r="D31" s="118">
         <v>45658</v>
       </c>
-      <c r="E31" s="119" t="s">
+      <c r="E31" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="135">
+      <c r="F31" s="134">
         <v>4</v>
       </c>
-      <c r="G31" s="118">
+      <c r="G31" s="117">
         <v>4</v>
       </c>
-      <c r="H31" s="118">
+      <c r="H31" s="117">
         <v>0</v>
       </c>
       <c r="I31">
-        <f>(G31/F31)*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="J31">
-        <f>(H31/F31)*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -7606,7 +7614,7 @@
       <c r="E32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="134">
+      <c r="F32" s="133">
         <v>2</v>
       </c>
       <c r="G32">
@@ -7616,17 +7624,17 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <f>(G32/F32)*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="J32">
-        <f>(H32/F32)*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
@@ -7637,7 +7645,7 @@
       <c r="E33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="134">
+      <c r="F33" s="133">
         <v>2</v>
       </c>
       <c r="G33">
@@ -7647,17 +7655,17 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <f>(G33/F33)*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="J33">
-        <f>(H33/F33)*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
@@ -7668,7 +7676,7 @@
       <c r="E34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="134">
+      <c r="F34" s="133">
         <v>2</v>
       </c>
       <c r="G34">
@@ -7678,17 +7686,17 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <f>(G34/F34)*100</f>
+        <f t="shared" ref="I34:I67" si="2">(G34/F34)*100</f>
         <v>100</v>
       </c>
       <c r="J34">
-        <f>(H34/F34)*100</f>
+        <f t="shared" ref="J34:J67" si="3">(H34/F34)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -7699,7 +7707,7 @@
       <c r="E35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="134">
+      <c r="F35" s="133">
         <v>2</v>
       </c>
       <c r="G35">
@@ -7709,49 +7717,49 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <f>(G35/F35)*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J35">
-        <f>(H35/F35)*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="118" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="118" t="s">
+      <c r="A36" s="117" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="118"/>
-      <c r="D36" s="119">
+      <c r="C36" s="117"/>
+      <c r="D36" s="118">
         <v>45717</v>
       </c>
-      <c r="E36" s="119" t="s">
+      <c r="E36" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="135">
+      <c r="F36" s="134">
         <v>2</v>
       </c>
-      <c r="G36" s="118">
+      <c r="G36" s="117">
         <v>2</v>
       </c>
-      <c r="H36" s="118">
+      <c r="H36" s="117">
         <v>0</v>
       </c>
       <c r="I36">
-        <f>(G36/F36)*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J36">
-        <f>(H36/F36)*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -7762,7 +7770,7 @@
       <c r="E37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="134">
+      <c r="F37" s="133">
         <v>10</v>
       </c>
       <c r="G37">
@@ -7772,17 +7780,17 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <f>(G37/F37)*100</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="J37">
-        <f>(H37/F37)*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
@@ -7793,7 +7801,7 @@
       <c r="E38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="134">
+      <c r="F38" s="133">
         <v>10</v>
       </c>
       <c r="G38">
@@ -7803,17 +7811,17 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <f>(G38/F38)*100</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="J38">
-        <f>(H38/F38)*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
@@ -7824,7 +7832,7 @@
       <c r="E39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="134">
+      <c r="F39" s="133">
         <v>10</v>
       </c>
       <c r="G39">
@@ -7834,17 +7842,17 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <f>(G39/F39)*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J39">
-        <f>(H39/F39)*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
@@ -7855,7 +7863,7 @@
       <c r="E40" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F40" s="134">
+      <c r="F40" s="133">
         <v>10</v>
       </c>
       <c r="G40">
@@ -7865,49 +7873,49 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <f>(G40/F40)*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J40">
-        <f>(H40/F40)*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="118" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="118" t="s">
+      <c r="A41" s="117" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="118"/>
-      <c r="D41" s="119">
+      <c r="C41" s="117"/>
+      <c r="D41" s="118">
         <v>45931</v>
       </c>
-      <c r="E41" s="119" t="s">
+      <c r="E41" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="135">
+      <c r="F41" s="134">
         <v>10</v>
       </c>
-      <c r="G41" s="118">
+      <c r="G41" s="117">
         <v>10</v>
       </c>
-      <c r="H41" s="118">
+      <c r="H41" s="117">
         <v>0</v>
       </c>
       <c r="I41">
-        <f>(G41/F41)*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J41">
-        <f>(H41/F41)*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
         <v>18</v>
@@ -7918,7 +7926,7 @@
       <c r="E42" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F42" s="134">
+      <c r="F42" s="133">
         <v>4</v>
       </c>
       <c r="G42">
@@ -7928,49 +7936,49 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <f>(G42/F42)*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J42">
-        <f>(H42/F42)*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="118" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="118" t="s">
+      <c r="A43" s="117" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="118"/>
-      <c r="D43" s="119">
+      <c r="C43" s="117"/>
+      <c r="D43" s="118">
         <v>45658</v>
       </c>
-      <c r="E43" s="119" t="s">
+      <c r="E43" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="F43" s="135">
+      <c r="F43" s="134">
         <v>4</v>
       </c>
-      <c r="G43" s="118">
+      <c r="G43" s="117">
         <v>4</v>
       </c>
-      <c r="H43" s="118">
+      <c r="H43" s="117">
         <v>0</v>
       </c>
       <c r="I43">
-        <f>(G43/F43)*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J43">
-        <f>(H43/F43)*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>18</v>
@@ -7981,7 +7989,7 @@
       <c r="E44" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="134">
+      <c r="F44" s="133">
         <v>2</v>
       </c>
       <c r="G44">
@@ -7991,49 +7999,49 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <f>(G44/F44)*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J44">
-        <f>(H44/F44)*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="118" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="118" t="s">
+      <c r="A45" s="117" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="118"/>
-      <c r="D45" s="119">
+      <c r="C45" s="117"/>
+      <c r="D45" s="118">
         <v>45717</v>
       </c>
-      <c r="E45" s="119" t="s">
+      <c r="E45" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="135">
+      <c r="F45" s="134">
         <v>2</v>
       </c>
-      <c r="G45" s="118">
+      <c r="G45" s="117">
         <v>2</v>
       </c>
-      <c r="H45" s="118">
+      <c r="H45" s="117">
         <v>0</v>
       </c>
       <c r="I45">
-        <f>(G45/F45)*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J45">
-        <f>(H45/F45)*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
         <v>18</v>
@@ -8044,7 +8052,7 @@
       <c r="E46" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F46" s="134">
+      <c r="F46" s="133">
         <v>2</v>
       </c>
       <c r="G46">
@@ -8054,49 +8062,49 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <f>(G46/F46)*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J46">
-        <f>(H46/F46)*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="118" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="118" t="s">
+      <c r="A47" s="117" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="118"/>
-      <c r="D47" s="119">
+      <c r="C47" s="117"/>
+      <c r="D47" s="118">
         <v>45717</v>
       </c>
-      <c r="E47" s="119" t="s">
+      <c r="E47" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="F47" s="135">
+      <c r="F47" s="134">
         <v>2</v>
       </c>
-      <c r="G47" s="118">
+      <c r="G47" s="117">
         <v>2</v>
       </c>
-      <c r="H47" s="118">
+      <c r="H47" s="117">
         <v>0</v>
       </c>
       <c r="I47">
-        <f>(G47/F47)*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J47">
-        <f>(H47/F47)*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
         <v>18</v>
@@ -8107,7 +8115,7 @@
       <c r="E48" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F48" s="134">
+      <c r="F48" s="133">
         <v>1</v>
       </c>
       <c r="G48">
@@ -8117,49 +8125,49 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <f>(G48/F48)*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J48">
-        <f>(H48/F48)*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="118" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="118" t="s">
+      <c r="A49" s="117" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="118"/>
-      <c r="D49" s="119">
+      <c r="C49" s="117"/>
+      <c r="D49" s="118">
         <v>45839</v>
       </c>
-      <c r="E49" s="119" t="s">
+      <c r="E49" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="F49" s="135">
+      <c r="F49" s="134">
         <v>1</v>
       </c>
-      <c r="G49" s="118">
+      <c r="G49" s="117">
         <v>1</v>
       </c>
-      <c r="H49" s="118">
+      <c r="H49" s="117">
         <v>0</v>
       </c>
       <c r="I49">
-        <f>(G49/F49)*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J49">
-        <f>(H49/F49)*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
         <v>18</v>
@@ -8170,7 +8178,7 @@
       <c r="E50" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F50" s="134">
+      <c r="F50" s="133">
         <v>7</v>
       </c>
       <c r="G50">
@@ -8180,49 +8188,49 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <f>(G50/F50)*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J50">
-        <f>(H50/F50)*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="118" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" s="118" t="s">
+      <c r="A51" s="117" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="118"/>
-      <c r="D51" s="119">
+      <c r="C51" s="117"/>
+      <c r="D51" s="118">
         <v>45901</v>
       </c>
-      <c r="E51" s="119" t="s">
+      <c r="E51" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="F51" s="135">
+      <c r="F51" s="134">
         <v>7</v>
       </c>
-      <c r="G51" s="118">
+      <c r="G51" s="117">
         <v>7</v>
       </c>
-      <c r="H51" s="118">
+      <c r="H51" s="117">
         <v>0</v>
       </c>
       <c r="I51">
-        <f>(G51/F51)*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J51">
-        <f>(H51/F51)*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B52" t="s">
         <v>18</v>
@@ -8233,7 +8241,7 @@
       <c r="E52" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F52" s="134">
+      <c r="F52" s="133">
         <v>1</v>
       </c>
       <c r="G52">
@@ -8243,49 +8251,49 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <f>(G52/F52)*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J52">
-        <f>(H52/F52)*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="118" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53" s="118" t="s">
+      <c r="A53" s="117" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="118"/>
-      <c r="D53" s="119">
+      <c r="C53" s="117"/>
+      <c r="D53" s="118">
         <v>45901</v>
       </c>
-      <c r="E53" s="119" t="s">
+      <c r="E53" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="F53" s="135">
+      <c r="F53" s="134">
         <v>1</v>
       </c>
-      <c r="G53" s="118">
+      <c r="G53" s="117">
         <v>1</v>
       </c>
-      <c r="H53" s="118">
+      <c r="H53" s="117">
         <v>0</v>
       </c>
       <c r="I53">
-        <f>(G53/F53)*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J53">
-        <f>(H53/F53)*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
@@ -8296,7 +8304,7 @@
       <c r="E54" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F54" s="134">
+      <c r="F54" s="133">
         <v>7</v>
       </c>
       <c r="G54">
@@ -8306,29 +8314,29 @@
         <v>4</v>
       </c>
       <c r="I54">
-        <f>(G54/F54)*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J54">
-        <f>(H54/F54)*100</f>
+        <f t="shared" si="3"/>
         <v>57.142857142857139</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B55" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="131"/>
+      <c r="C55" s="130"/>
       <c r="D55" s="2">
         <v>45931</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F55" s="134">
+      <c r="F55" s="133">
         <v>7</v>
       </c>
       <c r="G55">
@@ -8338,17 +8346,17 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <f>(G55/F55)*100</f>
+        <f t="shared" si="2"/>
         <v>42.857142857142854</v>
       </c>
       <c r="J55">
-        <f>(H55/F55)*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
@@ -8359,7 +8367,7 @@
       <c r="E56" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F56" s="134">
+      <c r="F56" s="133">
         <v>7</v>
       </c>
       <c r="G56">
@@ -8369,29 +8377,29 @@
         <v>1</v>
       </c>
       <c r="I56">
-        <f>(G56/F56)*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J56">
-        <f>(H56/F56)*100</f>
+        <f t="shared" si="3"/>
         <v>14.285714285714285</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B57" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="131"/>
+      <c r="C57" s="130"/>
       <c r="D57" s="2">
         <v>45931</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F57" s="134">
+      <c r="F57" s="133">
         <v>7</v>
       </c>
       <c r="G57">
@@ -8401,17 +8409,17 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <f>(G57/F57)*100</f>
+        <f t="shared" si="2"/>
         <v>71.428571428571431</v>
       </c>
       <c r="J57">
-        <f>(H57/F57)*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B58" t="s">
         <v>12</v>
@@ -8422,7 +8430,7 @@
       <c r="E58" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F58" s="134">
+      <c r="F58" s="133">
         <v>7</v>
       </c>
       <c r="G58">
@@ -8432,29 +8440,29 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <f>(G58/F58)*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J58">
-        <f>(H58/F58)*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B59" t="s">
         <v>21</v>
       </c>
-      <c r="C59" s="131"/>
+      <c r="C59" s="130"/>
       <c r="D59" s="2">
         <v>45931</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F59" s="134">
+      <c r="F59" s="133">
         <v>7</v>
       </c>
       <c r="G59">
@@ -8464,17 +8472,17 @@
         <v>1</v>
       </c>
       <c r="I59">
-        <f>(G59/F59)*100</f>
+        <f t="shared" si="2"/>
         <v>85.714285714285708</v>
       </c>
       <c r="J59">
-        <f>(H59/F59)*100</f>
+        <f t="shared" si="3"/>
         <v>14.285714285714285</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B60" t="s">
         <v>22</v>
@@ -8485,7 +8493,7 @@
       <c r="E60" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F60" s="134">
+      <c r="F60" s="133">
         <v>7</v>
       </c>
       <c r="G60">
@@ -8495,17 +8503,17 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <f>(G60/F60)*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J60">
-        <f>(H60/F60)*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B61" t="s">
         <v>23</v>
@@ -8516,7 +8524,7 @@
       <c r="E61" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F61" s="134">
+      <c r="F61" s="133">
         <v>7</v>
       </c>
       <c r="G61">
@@ -8526,17 +8534,17 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <f>(G61/F61)*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J61">
-        <f>(H61/F61)*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B62" t="s">
         <v>24</v>
@@ -8547,7 +8555,7 @@
       <c r="E62" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F62" s="134">
+      <c r="F62" s="133">
         <v>7</v>
       </c>
       <c r="G62">
@@ -8557,29 +8565,29 @@
         <v>2</v>
       </c>
       <c r="I62">
-        <f>(G62/F62)*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J62">
-        <f>(H62/F62)*100</f>
+        <f t="shared" si="3"/>
         <v>28.571428571428569</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B63" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="131"/>
+      <c r="C63" s="130"/>
       <c r="D63" s="2">
         <v>45931</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F63" s="134">
+      <c r="F63" s="133">
         <v>7</v>
       </c>
       <c r="G63">
@@ -8589,17 +8597,17 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <f>(G63/F63)*100</f>
+        <f t="shared" si="2"/>
         <v>28.571428571428569</v>
       </c>
       <c r="J63">
-        <f>(H63/F63)*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B64" t="s">
         <v>26</v>
@@ -8610,7 +8618,7 @@
       <c r="E64" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F64" s="134">
+      <c r="F64" s="133">
         <v>7</v>
       </c>
       <c r="G64">
@@ -8620,17 +8628,17 @@
         <v>3</v>
       </c>
       <c r="I64">
-        <f>(G64/F64)*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J64">
-        <f>(H64/F64)*100</f>
+        <f t="shared" si="3"/>
         <v>42.857142857142854</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B65" t="s">
         <v>27</v>
@@ -8641,7 +8649,7 @@
       <c r="E65" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F65" s="134">
+      <c r="F65" s="133">
         <v>7</v>
       </c>
       <c r="G65">
@@ -8651,29 +8659,29 @@
         <v>2</v>
       </c>
       <c r="I65">
-        <f>(G65/F65)*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J65">
-        <f>(H65/F65)*100</f>
+        <f t="shared" si="3"/>
         <v>28.571428571428569</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B66" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="131"/>
+      <c r="C66" s="130"/>
       <c r="D66" s="2">
         <v>45931</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F66" s="134">
+      <c r="F66" s="133">
         <v>7</v>
       </c>
       <c r="G66">
@@ -8683,43 +8691,43 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <f>(G66/F66)*100</f>
+        <f t="shared" si="2"/>
         <v>71.428571428571431</v>
       </c>
       <c r="J66">
-        <f>(H66/F66)*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="118" t="s">
-        <v>45</v>
-      </c>
-      <c r="B67" s="118" t="s">
+      <c r="A67" s="117" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="118"/>
-      <c r="D67" s="119">
+      <c r="C67" s="117"/>
+      <c r="D67" s="118">
         <v>45931</v>
       </c>
-      <c r="E67" s="119" t="s">
+      <c r="E67" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="F67" s="135">
+      <c r="F67" s="134">
         <v>7</v>
       </c>
-      <c r="G67" s="118">
-        <v>0</v>
-      </c>
-      <c r="H67" s="118">
+      <c r="G67" s="117">
+        <v>0</v>
+      </c>
+      <c r="H67" s="117">
         <v>0</v>
       </c>
       <c r="I67">
-        <f>(G67/F67)*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J67">
-        <f>(H67/F67)*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8816,19 +8824,19 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
-      <c r="A3" s="132" t="s">
-        <v>49</v>
+      <c r="A3" s="131" t="s">
+        <v>48</v>
       </c>
       <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="136" t="s">
-        <v>43</v>
+      <c r="A4" s="135" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>96</v>
@@ -8838,8 +8846,8 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="136" t="s">
-        <v>44</v>
+      <c r="A5" s="135" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -8849,7 +8857,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="136" t="s">
+      <c r="A6" s="135" t="s">
         <v>34</v>
       </c>
       <c r="B6">
@@ -8860,8 +8868,8 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="136" t="s">
-        <v>42</v>
+      <c r="A7" s="135" t="s">
+        <v>41</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -8871,8 +8879,8 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="136" t="s">
-        <v>45</v>
+      <c r="A8" s="135" t="s">
+        <v>44</v>
       </c>
       <c r="B8">
         <v>21.428571428571427</v>
@@ -8882,7 +8890,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="136" t="s">
+      <c r="A9" s="135" t="s">
         <v>35</v>
       </c>
       <c r="B9">
@@ -8893,13 +8901,13 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="135" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="135" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="136" t="s">
-        <v>51</v>
       </c>
       <c r="B11">
         <v>55.108225108225106</v>
@@ -9001,24 +9009,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
-      <c r="A3" s="132" t="s">
-        <v>49</v>
+      <c r="A3" s="131" t="s">
+        <v>48</v>
       </c>
       <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="135" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="136" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="135" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="136" t="s">
-        <v>55</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -9028,8 +9036,8 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="136" t="s">
-        <v>56</v>
+      <c r="A6" s="135" t="s">
+        <v>55</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -9039,8 +9047,8 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="136" t="s">
-        <v>57</v>
+      <c r="A7" s="135" t="s">
+        <v>56</v>
       </c>
       <c r="B7">
         <v>20</v>
@@ -9050,8 +9058,8 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="136" t="s">
-        <v>58</v>
+      <c r="A8" s="135" t="s">
+        <v>57</v>
       </c>
       <c r="B8">
         <v>32.142857142857146</v>
@@ -9061,8 +9069,8 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="136" t="s">
-        <v>59</v>
+      <c r="A9" s="135" t="s">
+        <v>58</v>
       </c>
       <c r="B9">
         <v>52.38095238095238</v>
@@ -9072,8 +9080,8 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="136" t="s">
-        <v>60</v>
+      <c r="A10" s="135" t="s">
+        <v>59</v>
       </c>
       <c r="B10">
         <v>45</v>
@@ -9083,8 +9091,8 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="136" t="s">
-        <v>51</v>
+      <c r="A11" s="135" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
         <v>55.108225108225113</v>
